--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A22FB4-C0B8-4BE4-880A-15F373C9EA6E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8C04F-0364-4432-A62F-E71615F59C7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
   <si>
     <t>Project Name:</t>
   </si>
@@ -304,22 +304,13 @@
     <t>Nhóm (team)</t>
   </si>
   <si>
-    <t>Chức danh (title)</t>
-  </si>
-  <si>
     <t>Chức vụ (position)</t>
-  </si>
-  <si>
-    <t>Loại hợp đồng (contract type)</t>
   </si>
   <si>
     <t>Ngày sinh (date of birth)</t>
   </si>
   <si>
     <t>Địa chỉ (address)</t>
-  </si>
-  <si>
-    <t>Ngày nhận việc (date of taking the job)</t>
   </si>
   <si>
     <t>Phòng ban (room)</t>
@@ -380,6 +371,9 @@
   </si>
   <si>
     <t>DD.WA.01</t>
+  </si>
+  <si>
+    <t>Mật khẩu (password)</t>
   </si>
 </sst>
 </file>
@@ -1023,6 +1017,81 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1062,44 +1131,23 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1110,71 +1158,17 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1611,18 +1605,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -1641,16 +1635,16 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="47"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1669,24 +1663,24 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="45"/>
-      <c r="B3" s="46"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="47"/>
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="72"/>
       <c r="K3" s="19"/>
       <c r="L3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="48" t="s">
+      <c r="M3" s="73" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="49"/>
+      <c r="N3" s="74"/>
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -1701,24 +1695,24 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="45"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
-      <c r="J4" s="47"/>
+      <c r="A4" s="70"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="73" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="74"/>
       <c r="O4" s="21"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -1733,24 +1727,24 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="45"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="47"/>
+      <c r="A5" s="70"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="48" t="s">
+      <c r="M5" s="73" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="49"/>
+      <c r="N5" s="74"/>
       <c r="O5" s="21"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -1765,24 +1759,24 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="47"/>
+      <c r="A6" s="70"/>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="72"/>
       <c r="K6" s="19"/>
       <c r="L6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="48" t="s">
+      <c r="M6" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="49"/>
+      <c r="N6" s="74"/>
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1797,24 +1791,24 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="45"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="47"/>
+      <c r="A7" s="70"/>
+      <c r="B7" s="71"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="19"/>
       <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="50">
+      <c r="M7" s="75">
         <v>43508</v>
       </c>
-      <c r="N7" s="51"/>
+      <c r="N7" s="76"/>
       <c r="O7" s="21"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -1829,16 +1823,16 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="45"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
+      <c r="A8" s="70"/>
+      <c r="B8" s="71"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="17"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -1857,16 +1851,16 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="47"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="17"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -1885,16 +1879,16 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="47"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="71"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="17"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -1913,23 +1907,23 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="A11" s="70"/>
+      <c r="B11" s="71"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="41"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="66"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -1943,16 +1937,16 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="47"/>
+      <c r="A12" s="70"/>
+      <c r="B12" s="71"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="19"/>
       <c r="L12" s="24" t="s">
         <v>6</v>
@@ -1979,16 +1973,16 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="47"/>
+      <c r="A13" s="70"/>
+      <c r="B13" s="71"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="19"/>
       <c r="L13" s="25" t="s">
         <v>36</v>
@@ -2015,16 +2009,16 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="19"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
@@ -2043,16 +2037,16 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="47"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71"/>
+      <c r="I15" s="71"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="19"/>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
@@ -2071,16 +2065,16 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="45"/>
-      <c r="B16" s="46"/>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="46"/>
-      <c r="G16" s="46"/>
-      <c r="H16" s="46"/>
-      <c r="I16" s="46"/>
-      <c r="J16" s="47"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="71"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="19"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
@@ -2099,16 +2093,16 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
-      <c r="B17" s="46"/>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="46"/>
-      <c r="G17" s="46"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="46"/>
-      <c r="J17" s="47"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="19"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
@@ -2127,16 +2121,16 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="71"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="19"/>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
@@ -2155,16 +2149,16 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="19"/>
       <c r="L19" s="31"/>
       <c r="M19" s="32"/>
@@ -2183,16 +2177,16 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="71"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="19"/>
       <c r="L20" s="31"/>
       <c r="M20" s="32"/>
@@ -29966,533 +29960,538 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H30" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="86" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="88" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="65" style="54" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="6.42578125" style="60" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="65" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="A2" s="86">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="86" t="s">
         <v>70</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="88" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="58" t="s">
+      <c r="F2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="59" t="s">
+      <c r="G2" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="59" t="s">
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="59" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="59" t="s">
+      <c r="H4" s="45"/>
+      <c r="I4" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58" t="s">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H5" s="45"/>
+      <c r="I5" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="59" t="s">
+      <c r="G6" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59" t="s">
+      <c r="H6" s="45"/>
+      <c r="I6" s="44" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="56" t="s">
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="47" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="44" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="60" t="s">
+      <c r="H7" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="44" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
+      <c r="A9" s="80">
         <v>2</v>
       </c>
-      <c r="B9" s="69" t="s">
+      <c r="B9" s="81" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="69" t="s">
+      <c r="C9" s="48"/>
+      <c r="D9" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="69" t="s">
+      <c r="E9" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F9" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="72" t="s">
+      <c r="G9" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="72" t="s">
+      <c r="H9" s="51"/>
+      <c r="I9" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="71" t="s">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="72" t="s">
+      <c r="G10" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="72" t="s">
+      <c r="H10" s="51"/>
+      <c r="I10" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="74"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="71" t="s">
+      <c r="A11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="72" t="s">
+      <c r="G11" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="72" t="s">
+      <c r="H11" s="51"/>
+      <c r="I11" s="50" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="77"/>
-    </row>
-    <row r="13" spans="1:9" s="78" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68">
+      <c r="A12" s="77"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="79"/>
+    </row>
+    <row r="13" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="80">
         <v>3</v>
       </c>
-      <c r="B13" s="68" t="s">
+      <c r="B13" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="70"/>
-      <c r="D13" s="69" t="s">
+      <c r="C13" s="48"/>
+      <c r="D13" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="E13" s="68" t="s">
+      <c r="E13" s="80" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="71" t="s">
+      <c r="F13" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="72" t="s">
+      <c r="G13" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="72" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="71" t="s">
+    <row r="14" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="72" t="s">
+      <c r="G14" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="72" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="78" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71" t="s">
+    <row r="15" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="72" t="s">
+      <c r="G15" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="71" t="s">
+    <row r="16" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="72" t="s">
+      <c r="G16" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="72" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="71" t="s">
+    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="72" t="s">
+      <c r="G17" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="72" t="s">
+      <c r="H17" s="51"/>
+      <c r="I17" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="78" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="71" t="s">
+    <row r="18" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="72" t="s">
+      <c r="G18" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="78" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69" t="s">
+    <row r="19" spans="1:9" s="52" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="E19" s="69" t="s">
+      <c r="E19" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="71" t="s">
+      <c r="F19" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="72" t="s">
+      <c r="G19" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="72" t="s">
+      <c r="H19" s="51"/>
+      <c r="I19" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="78" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="71" t="s">
+    <row r="20" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="81"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="72" t="s">
+      <c r="G20" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="72" t="s">
+      <c r="H20" s="51"/>
+      <c r="I20" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="78" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="69"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="71" t="s">
+    <row r="21" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="81"/>
+      <c r="B21" s="81"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="72" t="s">
+      <c r="G21" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="73"/>
-      <c r="I21" s="72" t="s">
+      <c r="H21" s="51"/>
+      <c r="I21" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="78" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="69"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="71" t="s">
+    <row r="22" spans="1:9" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="81"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="73"/>
-      <c r="I22" s="72" t="s">
+      <c r="H22" s="51"/>
+      <c r="I22" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="78" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="71" t="s">
+    <row r="23" spans="1:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="72" t="s">
+      <c r="G23" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="73"/>
-      <c r="I23" s="72" t="s">
+      <c r="H23" s="51"/>
+      <c r="I23" s="50" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="78" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="74"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="71" t="s">
+    <row r="24" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="82"/>
+      <c r="B24" s="82"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="82"/>
+      <c r="F24" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="72" t="s">
+      <c r="G24" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="73"/>
-      <c r="I24" s="72" t="s">
+      <c r="H24" s="51"/>
+      <c r="I24" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="79"/>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="79"/>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="82"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="82"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="84"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="58"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="84"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="58"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="84"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="58"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="58"/>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -30503,11 +30502,6 @@
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="D19:D24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
     <mergeCell ref="E19:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30520,400 +30514,400 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="86" customWidth="1"/>
-    <col min="2" max="2" width="20" style="87" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="88" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="87" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="89" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" style="54" customWidth="1"/>
-    <col min="8" max="8" width="65" style="54" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="54" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="54"/>
+    <col min="1" max="1" width="6.42578125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="20" style="61" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="61" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="62" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="61" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="63" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="65" style="41" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="53" t="s">
+      <c r="C1" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="D1" s="53" t="s">
+      <c r="D1" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="40" t="s">
         <v>41</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="52" t="s">
+      <c r="I1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="55">
+      <c r="A2" s="86">
         <v>1</v>
       </c>
-      <c r="B2" s="55" t="s">
+      <c r="B2" s="86" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="86" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="88" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="43" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H2" s="45"/>
+      <c r="I2" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="43" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="45"/>
+      <c r="I3" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="45"/>
+      <c r="I5" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="88"/>
+      <c r="F6" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A7" s="89"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H7" s="45"/>
+      <c r="I7" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A9" s="80">
+        <v>2</v>
+      </c>
+      <c r="B9" s="81" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H9" s="51"/>
+      <c r="I9" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="81"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G10" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="51"/>
+      <c r="I10" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A11" s="81"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="49" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" s="51"/>
+      <c r="I11" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="81"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="49" t="s">
+        <v>91</v>
+      </c>
+      <c r="G12" s="50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H12" s="51"/>
+      <c r="I12" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="81"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="58" t="s">
-        <v>55</v>
-      </c>
-      <c r="G2" s="72" t="s">
+      <c r="G13" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H2" s="60"/>
-      <c r="I2" s="59" t="s">
+      <c r="H13" s="51"/>
+      <c r="I13" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="61"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="58" t="s">
-        <v>56</v>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="81"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="49" t="s">
+        <v>96</v>
       </c>
-      <c r="G3" s="72" t="s">
+      <c r="G14" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H3" s="60"/>
-      <c r="I3" s="59" t="s">
+      <c r="H14" s="51"/>
+      <c r="I14" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="58" t="s">
-        <v>57</v>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="81"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="49" t="s">
+        <v>93</v>
       </c>
-      <c r="G4" s="72" t="s">
+      <c r="G15" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H4" s="60"/>
-      <c r="I4" s="59" t="s">
+      <c r="H15" s="51"/>
+      <c r="I15" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="62"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="58" t="s">
-        <v>58</v>
+    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A16" s="81"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="49" t="s">
+        <v>97</v>
       </c>
-      <c r="G5" s="72" t="s">
+      <c r="G16" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="59" t="s">
+      <c r="H16" s="51"/>
+      <c r="I16" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="58" t="s">
-        <v>59</v>
+    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A17" s="81"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="49" t="s">
+        <v>98</v>
       </c>
-      <c r="G6" s="72" t="s">
+      <c r="G17" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="60"/>
-      <c r="I6" s="59" t="s">
+      <c r="H17" s="51"/>
+      <c r="I17" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="62"/>
-      <c r="D7" s="56" t="s">
-        <v>91</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="81"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="49" t="s">
+        <v>99</v>
       </c>
-      <c r="E7" s="62" t="s">
-        <v>89</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G7" s="72" t="s">
+      <c r="G18" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="60"/>
-      <c r="I7" s="59" t="s">
+      <c r="H18" s="51"/>
+      <c r="I18" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="68">
-        <v>2</v>
+    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="81"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="49" t="s">
+        <v>100</v>
       </c>
-      <c r="B9" s="69" t="s">
-        <v>93</v>
-      </c>
-      <c r="C9" s="70"/>
-      <c r="D9" s="69" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="G9" s="72" t="s">
+      <c r="G19" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="73"/>
-      <c r="I9" s="72" t="s">
+      <c r="H19" s="51"/>
+      <c r="I19" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="69"/>
-      <c r="C10" s="70"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="84" t="s">
-        <v>86</v>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="82"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="49" t="s">
+        <v>101</v>
       </c>
-      <c r="G10" s="72" t="s">
-        <v>105</v>
+      <c r="G20" s="50" t="s">
+        <v>49</v>
       </c>
-      <c r="H10" s="73"/>
-      <c r="I10" s="72" t="s">
+      <c r="H20" s="51"/>
+      <c r="I20" s="50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="H11" s="73"/>
-      <c r="I11" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="69"/>
-      <c r="C12" s="70"/>
-      <c r="D12" s="69"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="72" t="s">
-        <v>105</v>
-      </c>
-      <c r="H12" s="73"/>
-      <c r="I12" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="69"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="G13" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="73"/>
-      <c r="I13" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H14" s="73"/>
-      <c r="I14" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="70"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="71" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="73"/>
-      <c r="I15" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="G16" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="73"/>
-      <c r="I16" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="73"/>
-      <c r="I17" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="G18" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="72" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="73"/>
-      <c r="I19" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="G20" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="H20" s="73"/>
-      <c r="I20" s="72" t="s">
-        <v>30</v>
-      </c>
-    </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="75"/>
-      <c r="B21" s="76"/>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="76"/>
-      <c r="I21" s="77"/>
+      <c r="A21" s="77"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="78"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="78"/>
+      <c r="H21" s="78"/>
+      <c r="I21" s="79"/>
     </row>
     <row r="22" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="90">
@@ -30922,205 +30916,201 @@
       <c r="B22" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="81"/>
-      <c r="D22" s="69" t="s">
-        <v>107</v>
+      <c r="C22" s="55"/>
+      <c r="D22" s="81" t="s">
+        <v>104</v>
       </c>
       <c r="E22" s="93"/>
-      <c r="F22" s="83" t="s">
+      <c r="F22" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="72" t="s">
+      <c r="G22" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="91"/>
       <c r="B23" s="91"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="69"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="81"/>
       <c r="E23" s="94"/>
-      <c r="F23" s="84" t="s">
+      <c r="F23" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="83"/>
-      <c r="H23" s="83"/>
-      <c r="I23" s="72" t="s">
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="50" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A24" s="91"/>
       <c r="B24" s="91"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="69"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="81"/>
       <c r="E24" s="94"/>
-      <c r="F24" s="84" t="s">
+      <c r="F24" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="83"/>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
     </row>
     <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A25" s="91"/>
       <c r="B25" s="91"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="69"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="81"/>
       <c r="E25" s="94"/>
-      <c r="F25" s="84" t="s">
+      <c r="F25" s="58" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="83"/>
-      <c r="H25" s="83"/>
-      <c r="I25" s="83"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="91"/>
       <c r="B26" s="91"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="69"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="81"/>
       <c r="E26" s="94"/>
-      <c r="F26" s="84" t="s">
+      <c r="F26" s="58" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="91"/>
       <c r="B27" s="91"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="69"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="81"/>
       <c r="E27" s="94"/>
-      <c r="F27" s="84" t="s">
-        <v>83</v>
+      <c r="F27" s="58" t="s">
+        <v>82</v>
       </c>
-      <c r="G27" s="83"/>
-      <c r="H27" s="83"/>
-      <c r="I27" s="83"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="91"/>
       <c r="B28" s="91"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="69"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="81"/>
       <c r="E28" s="94"/>
-      <c r="F28" s="84" t="s">
+      <c r="F28" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="91"/>
       <c r="B29" s="91"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="69"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="81"/>
       <c r="E29" s="94"/>
-      <c r="F29" s="84" t="s">
-        <v>82</v>
+      <c r="F29" s="58" t="s">
+        <v>105</v>
       </c>
-      <c r="G29" s="83"/>
-      <c r="H29" s="83"/>
-      <c r="I29" s="83"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
     </row>
     <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
       <c r="A30" s="91"/>
       <c r="B30" s="91"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="69"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="81"/>
       <c r="E30" s="94"/>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="91"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="94"/>
+      <c r="F31" s="58" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="83"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
-    </row>
-    <row r="31" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" s="83"/>
-      <c r="H31" s="83"/>
-      <c r="I31" s="83"/>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="91"/>
       <c r="B32" s="91"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="69"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="81"/>
       <c r="E32" s="94"/>
-      <c r="F32" s="84" t="s">
-        <v>86</v>
+      <c r="F32" s="58" t="s">
+        <v>85</v>
       </c>
-      <c r="G32" s="83"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
-    </row>
-    <row r="33" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="91"/>
       <c r="B33" s="91"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="69"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="81"/>
       <c r="E33" s="94"/>
-      <c r="F33" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G33" s="83"/>
-      <c r="H33" s="83"/>
-      <c r="I33" s="83"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="92"/>
       <c r="B34" s="92"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="74"/>
+      <c r="C34" s="55"/>
+      <c r="D34" s="82"/>
       <c r="E34" s="95"/>
-      <c r="F34" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="83"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="F34" s="58"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="83"/>
-      <c r="I35" s="83"/>
+      <c r="A35" s="53"/>
+      <c r="B35" s="54"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="58"/>
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:A20"/>
+    <mergeCell ref="B9:B20"/>
+    <mergeCell ref="D9:D20"/>
+    <mergeCell ref="E9:E20"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A8:I8"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A22:A34"/>
     <mergeCell ref="B22:B34"/>
     <mergeCell ref="D22:D34"/>
     <mergeCell ref="E22:E34"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="E9:E20"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A8C04F-0364-4432-A62F-E71615F59C7D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F766CCA9-0FDE-41BD-ACA7-BD8B3C3D487C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="131">
   <si>
     <t>Project Name:</t>
   </si>
@@ -268,21 +268,6 @@
     <t>Thông tin công ty (Company information)</t>
   </si>
   <si>
-    <t>DD.AI.01</t>
-  </si>
-  <si>
-    <t>DD.AI.02</t>
-  </si>
-  <si>
-    <t>DD.AP.01</t>
-  </si>
-  <si>
-    <t>DD.AS.01</t>
-  </si>
-  <si>
-    <t>DD.AS.02</t>
-  </si>
-  <si>
     <t>Quản lý tài khoản ( Account management)</t>
   </si>
   <si>
@@ -317,12 +302,6 @@
   </si>
   <si>
     <t>Sơ đồ tổ chức (organizational chart)</t>
-  </si>
-  <si>
-    <t>DD.WI.01</t>
-  </si>
-  <si>
-    <t>DD.WI.02</t>
   </si>
   <si>
     <t>Thông tin  (Information)</t>
@@ -367,13 +346,109 @@
     <t>String</t>
   </si>
   <si>
-    <t>DD.WP.01</t>
+    <t>Mật khẩu (password)</t>
   </si>
   <si>
-    <t>DD.WA.01</t>
+    <t>Đăng nhập/ đăng xuất (login/ logout)</t>
   </si>
   <si>
-    <t>Mật khẩu (password)</t>
+    <t>Tên đăng nhập (username)</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu/ thay đổi mật khẩu (forgot password/ change password)</t>
+  </si>
+  <si>
+    <t>Quên mật khẩu (forgot password)</t>
+  </si>
+  <si>
+    <t>FR.14</t>
+  </si>
+  <si>
+    <t>phải có đuôi @gmail (must have @gmail)</t>
+  </si>
+  <si>
+    <t>FR.12</t>
+  </si>
+  <si>
+    <t>DD.WI.001</t>
+  </si>
+  <si>
+    <t>DD.WI.002</t>
+  </si>
+  <si>
+    <t>DD.WP.001</t>
+  </si>
+  <si>
+    <t>DD.WA.001</t>
+  </si>
+  <si>
+    <t>DD.WL.001</t>
+  </si>
+  <si>
+    <t>DD.WF.001</t>
+  </si>
+  <si>
+    <t>DD.AI.001</t>
+  </si>
+  <si>
+    <t>DD.AI.002</t>
+  </si>
+  <si>
+    <t>DD.AP.001</t>
+  </si>
+  <si>
+    <t>DD.AS.001</t>
+  </si>
+  <si>
+    <t>DD.AS.002</t>
+  </si>
+  <si>
+    <t>DD.AL.001</t>
+  </si>
+  <si>
+    <t>FR.09, 10, 11</t>
+  </si>
+  <si>
+    <t>FR.07, 08</t>
+  </si>
+  <si>
+    <t>FR.05</t>
+  </si>
+  <si>
+    <t>Khác (other)</t>
+  </si>
+  <si>
+    <t>Hình ảnh cá nhân (Personal image)</t>
+  </si>
+  <si>
+    <t>Ảnh đại diện (Avatar)</t>
+  </si>
+  <si>
+    <t>DD.AO.001</t>
+  </si>
+  <si>
+    <t>DD.AF.001</t>
+  </si>
+  <si>
+    <t>FR.14.2</t>
+  </si>
+  <si>
+    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19</t>
+  </si>
+  <si>
+    <t>FR.14.1, 14.2</t>
+  </si>
+  <si>
+    <t>Mật khẩu hiện tại (current password)</t>
+  </si>
+  <si>
+    <t>Mật khẩu mới (new password)</t>
+  </si>
+  <si>
+    <t>DD.AF.002</t>
+  </si>
+  <si>
+    <t>FR.01, 02, 05, 06, 08, 12, 14.2</t>
   </si>
 </sst>
 </file>
@@ -513,7 +588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -901,11 +976,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1059,26 +1165,8 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1091,6 +1179,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1131,24 +1222,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1170,23 +1243,59 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,18 +1714,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="64"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -1635,16 +1744,16 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="70"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="72"/>
+      <c r="A2" s="65"/>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="66"/>
+      <c r="I2" s="66"/>
+      <c r="J2" s="67"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1663,24 +1772,24 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70"/>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="72"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="66"/>
+      <c r="H3" s="66"/>
+      <c r="I3" s="66"/>
+      <c r="J3" s="67"/>
       <c r="K3" s="19"/>
       <c r="L3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="73" t="s">
+      <c r="M3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="74"/>
+      <c r="N3" s="69"/>
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -1695,24 +1804,24 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="71"/>
-      <c r="D4" s="71"/>
-      <c r="E4" s="71"/>
-      <c r="F4" s="71"/>
-      <c r="G4" s="71"/>
-      <c r="H4" s="71"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="66"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="66"/>
+      <c r="J4" s="67"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="73" t="s">
+      <c r="M4" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="74"/>
+      <c r="N4" s="69"/>
       <c r="O4" s="21"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -1727,24 +1836,24 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="70"/>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="71"/>
-      <c r="G5" s="71"/>
-      <c r="H5" s="71"/>
-      <c r="I5" s="71"/>
-      <c r="J5" s="72"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="66"/>
+      <c r="C5" s="66"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="66"/>
+      <c r="H5" s="66"/>
+      <c r="I5" s="66"/>
+      <c r="J5" s="67"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="73" t="s">
+      <c r="M5" s="68" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="74"/>
+      <c r="N5" s="69"/>
       <c r="O5" s="21"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -1759,24 +1868,24 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="70"/>
-      <c r="B6" s="71"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="71"/>
-      <c r="E6" s="71"/>
-      <c r="F6" s="71"/>
-      <c r="G6" s="71"/>
-      <c r="H6" s="71"/>
-      <c r="I6" s="71"/>
-      <c r="J6" s="72"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
       <c r="K6" s="19"/>
       <c r="L6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="73" t="s">
+      <c r="M6" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="74"/>
+      <c r="N6" s="69"/>
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1791,24 +1900,24 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="70"/>
-      <c r="B7" s="71"/>
-      <c r="C7" s="71"/>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="72"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="67"/>
       <c r="K7" s="19"/>
       <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="75">
+      <c r="M7" s="70">
         <v>43508</v>
       </c>
-      <c r="N7" s="76"/>
+      <c r="N7" s="71"/>
       <c r="O7" s="21"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -1823,16 +1932,16 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="70"/>
-      <c r="B8" s="71"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="71"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="71"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="71"/>
-      <c r="I8" s="71"/>
-      <c r="J8" s="72"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="66"/>
+      <c r="J8" s="67"/>
       <c r="K8" s="17"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -1851,16 +1960,16 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="70"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="71"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="71"/>
-      <c r="J9" s="72"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="67"/>
       <c r="K9" s="17"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -1879,16 +1988,16 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
-      <c r="B10" s="71"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="71"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="71"/>
-      <c r="I10" s="71"/>
-      <c r="J10" s="72"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="67"/>
       <c r="K10" s="17"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -1907,23 +2016,23 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="70"/>
-      <c r="B11" s="71"/>
-      <c r="C11" s="71"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="71"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="71"/>
-      <c r="I11" s="71"/>
-      <c r="J11" s="72"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="66"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="66"/>
+      <c r="G11" s="66"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
+      <c r="J11" s="67"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="64" t="s">
+      <c r="L11" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="66"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="61"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -1937,16 +2046,16 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="71"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="71"/>
-      <c r="J12" s="72"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="66"/>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="66"/>
+      <c r="F12" s="66"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="66"/>
+      <c r="I12" s="66"/>
+      <c r="J12" s="67"/>
       <c r="K12" s="19"/>
       <c r="L12" s="24" t="s">
         <v>6</v>
@@ -1973,16 +2082,16 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="70"/>
-      <c r="B13" s="71"/>
-      <c r="C13" s="71"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="72"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="66"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="66"/>
+      <c r="J13" s="67"/>
       <c r="K13" s="19"/>
       <c r="L13" s="25" t="s">
         <v>36</v>
@@ -2009,16 +2118,16 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="70"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="71"/>
-      <c r="I14" s="71"/>
-      <c r="J14" s="72"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="66"/>
+      <c r="C14" s="66"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="66"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="66"/>
+      <c r="J14" s="67"/>
       <c r="K14" s="19"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
@@ -2037,16 +2146,16 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="71"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="71"/>
-      <c r="J15" s="72"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="66"/>
+      <c r="J15" s="67"/>
       <c r="K15" s="19"/>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
@@ -2065,16 +2174,16 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="70"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="71"/>
-      <c r="J16" s="72"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="66"/>
+      <c r="C16" s="66"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="66"/>
+      <c r="I16" s="66"/>
+      <c r="J16" s="67"/>
       <c r="K16" s="19"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
@@ -2093,16 +2202,16 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="70"/>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="72"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="66"/>
+      <c r="C17" s="66"/>
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="66"/>
+      <c r="I17" s="66"/>
+      <c r="J17" s="67"/>
       <c r="K17" s="19"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
@@ -2121,16 +2230,16 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="70"/>
-      <c r="B18" s="71"/>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="72"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="67"/>
       <c r="K18" s="19"/>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
@@ -2149,16 +2258,16 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="70"/>
-      <c r="B19" s="71"/>
-      <c r="C19" s="71"/>
-      <c r="D19" s="71"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="71"/>
-      <c r="G19" s="71"/>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
-      <c r="J19" s="72"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="67"/>
       <c r="K19" s="19"/>
       <c r="L19" s="31"/>
       <c r="M19" s="32"/>
@@ -2177,16 +2286,16 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="70"/>
-      <c r="B20" s="71"/>
-      <c r="C20" s="71"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
-      <c r="J20" s="72"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
       <c r="K20" s="19"/>
       <c r="L20" s="31"/>
       <c r="M20" s="32"/>
@@ -29958,19 +30067,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="60" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="61" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="54" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="57" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
@@ -30007,17 +30116,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="86">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="86" t="s">
-        <v>70</v>
+      <c r="C2" s="77" t="s">
+        <v>103</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="75" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="43" t="s">
@@ -30032,11 +30143,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
@@ -30049,11 +30160,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
@@ -30066,11 +30177,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="43" t="s">
         <v>58</v>
       </c>
@@ -30083,11 +30194,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
@@ -30100,11 +30211,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="46" t="s">
+        <v>118</v>
+      </c>
       <c r="D7" s="42" t="s">
-        <v>71</v>
+        <v>111</v>
       </c>
       <c r="E7" s="47" t="s">
         <v>43</v>
@@ -30123,28 +30236,28 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="82">
         <v>2</v>
       </c>
-      <c r="B9" s="81" t="s">
+      <c r="B9" s="83" t="s">
         <v>64</v>
       </c>
       <c r="C9" s="48"/>
-      <c r="D9" s="81" t="s">
-        <v>72</v>
+      <c r="D9" s="83" t="s">
+        <v>112</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="83" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="49" t="s">
@@ -30159,11 +30272,11 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="49" t="s">
         <v>66</v>
       </c>
@@ -30176,11 +30289,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="82"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="49" t="s">
         <v>68</v>
       </c>
@@ -30193,28 +30306,28 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="79"/>
+      <c r="A12" s="79"/>
+      <c r="B12" s="80"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="80"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
     </row>
     <row r="13" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="80">
+      <c r="A13" s="82">
         <v>3</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="82" t="s">
         <v>44</v>
       </c>
       <c r="C13" s="48"/>
-      <c r="D13" s="81" t="s">
-        <v>73</v>
+      <c r="D13" s="87" t="s">
+        <v>113</v>
       </c>
-      <c r="E13" s="80" t="s">
+      <c r="E13" s="82" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="49" t="s">
@@ -30229,11 +30342,11 @@
       </c>
     </row>
     <row r="14" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="49" t="s">
         <v>47</v>
       </c>
@@ -30246,11 +30359,11 @@
       </c>
     </row>
     <row r="15" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="48"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="49" t="s">
         <v>48</v>
       </c>
@@ -30263,11 +30376,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="49" t="s">
         <v>51</v>
       </c>
@@ -30280,11 +30393,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="49" t="s">
         <v>52</v>
       </c>
@@ -30297,11 +30410,11 @@
       </c>
     </row>
     <row r="18" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="49" t="s">
         <v>53</v>
       </c>
@@ -30314,13 +30427,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" s="52" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="48"/>
-      <c r="D19" s="81" t="s">
-        <v>74</v>
+      <c r="D19" s="87" t="s">
+        <v>114</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="83" t="s">
         <v>54</v>
       </c>
       <c r="F19" s="49" t="s">
@@ -30335,11 +30448,11 @@
       </c>
     </row>
     <row r="20" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="81"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="83"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="49" t="s">
         <v>47</v>
       </c>
@@ -30352,11 +30465,11 @@
       </c>
     </row>
     <row r="21" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="81"/>
-      <c r="B21" s="81"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="48"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="83"/>
       <c r="F21" s="49" t="s">
         <v>48</v>
       </c>
@@ -30369,11 +30482,11 @@
       </c>
     </row>
     <row r="22" spans="1:9" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="81"/>
-      <c r="B22" s="81"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="48"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="49" t="s">
         <v>51</v>
       </c>
@@ -30386,11 +30499,11 @@
       </c>
     </row>
     <row r="23" spans="1:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="48"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="83"/>
       <c r="F23" s="49" t="s">
         <v>52</v>
       </c>
@@ -30403,11 +30516,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="48"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="82"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="84"/>
       <c r="F24" s="49" t="s">
         <v>53</v>
       </c>
@@ -30419,79 +30532,179 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="56"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="57"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="53"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="56"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="53"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="56"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="53"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="54"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="53"/>
-      <c r="B30" s="54"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="58"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
+    <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="72"/>
+      <c r="B25" s="73"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="74"/>
+    </row>
+    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A26" s="82">
+        <v>4</v>
+      </c>
+      <c r="B26" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="83" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="83" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="83"/>
+      <c r="B27" s="83"/>
+      <c r="C27" s="83"/>
+      <c r="D27" s="83"/>
+      <c r="E27" s="83"/>
+      <c r="F27" s="49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="50"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="72"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="73"/>
+      <c r="G28" s="73"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="74"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="75">
+        <v>5</v>
+      </c>
+      <c r="B29" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="95" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="95" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="50"/>
+      <c r="H29" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="75" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>129</v>
+      </c>
+      <c r="E30" s="88"/>
+      <c r="F30" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="50"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="G31" s="50"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="93"/>
+      <c r="G32" s="93"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="94"/>
+    </row>
+    <row r="33" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="58">
+        <v>6</v>
+      </c>
+      <c r="B33" s="91" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="58"/>
+      <c r="D33" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="G33" s="50"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="50" t="s">
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
+  <mergeCells count="30">
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
     <mergeCell ref="A12:I12"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="B9:B11"/>
@@ -30503,7 +30716,13 @@
     <mergeCell ref="D13:D18"/>
     <mergeCell ref="D19:D24"/>
     <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
   </mergeCells>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -30512,20 +30731,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="60" customWidth="1"/>
-    <col min="2" max="2" width="20" style="61" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="61" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="62" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="61" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="63" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="54" customWidth="1"/>
+    <col min="2" max="2" width="20" style="55" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="56" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="55" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="57" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
@@ -30562,17 +30781,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="86">
+      <c r="A2" s="75">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
-        <v>89</v>
+      <c r="B2" s="75" t="s">
+        <v>82</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="86" t="s">
-        <v>87</v>
+      <c r="C2" s="77" t="s">
+        <v>116</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="D2" s="75" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="77" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="43" t="s">
@@ -30587,11 +30808,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="88"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="76"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="77"/>
       <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
@@ -30604,11 +30825,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="88"/>
+      <c r="A4" s="76"/>
+      <c r="B4" s="76"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="77"/>
       <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
@@ -30621,11 +30842,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="88"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="76"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="77"/>
       <c r="F5" s="43" t="s">
         <v>58</v>
       </c>
@@ -30638,11 +30859,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="87"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="88"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="77"/>
       <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
@@ -30655,17 +30876,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A7" s="89"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="76"/>
+      <c r="C7" s="58" t="s">
+        <v>117</v>
+      </c>
       <c r="D7" s="42" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F7" s="43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G7" s="50" t="s">
         <v>60</v>
@@ -30676,32 +30899,32 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
-      <c r="B8" s="84"/>
-      <c r="C8" s="84"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="74"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="80">
+      <c r="A9" s="82">
         <v>2</v>
       </c>
-      <c r="B9" s="81" t="s">
-        <v>90</v>
+      <c r="B9" s="83" t="s">
+        <v>83</v>
       </c>
       <c r="C9" s="48"/>
-      <c r="D9" s="81" t="s">
-        <v>103</v>
+      <c r="D9" s="83" t="s">
+        <v>106</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="83" t="s">
         <v>65</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="G9" s="50" t="s">
         <v>60</v>
@@ -30712,16 +30935,16 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
-      <c r="B10" s="81"/>
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="48"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="58" t="s">
-        <v>84</v>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="53" t="s">
+        <v>79</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H10" s="51"/>
       <c r="I10" s="50" t="s">
@@ -30729,16 +30952,16 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
-      <c r="B11" s="81"/>
+      <c r="A11" s="83"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="48"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="49" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H11" s="51"/>
       <c r="I11" s="50" t="s">
@@ -30746,16 +30969,16 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
-      <c r="B12" s="81"/>
+      <c r="A12" s="83"/>
+      <c r="B12" s="83"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="49" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="H12" s="51"/>
       <c r="I12" s="50" t="s">
@@ -30763,13 +30986,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
-      <c r="B13" s="81"/>
+      <c r="A13" s="83"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="48"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="49" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G13" s="50" t="s">
         <v>60</v>
@@ -30780,13 +31003,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
-      <c r="B14" s="81"/>
+      <c r="A14" s="83"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="48"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="49" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G14" s="50" t="s">
         <v>60</v>
@@ -30797,13 +31020,13 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
-      <c r="B15" s="81"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="48"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="49" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G15" s="50" t="s">
         <v>60</v>
@@ -30814,13 +31037,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
-      <c r="B16" s="81"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="48"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="49" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G16" s="50" t="s">
         <v>60</v>
@@ -30831,13 +31054,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
-      <c r="B17" s="81"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="48"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
       <c r="F17" s="49" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G17" s="50" t="s">
         <v>60</v>
@@ -30848,13 +31071,13 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
-      <c r="B18" s="81"/>
+      <c r="A18" s="83"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="48"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="49" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G18" s="50" t="s">
         <v>60</v>
@@ -30865,13 +31088,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="81"/>
-      <c r="B19" s="81"/>
+      <c r="A19" s="83"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="48"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="83"/>
       <c r="F19" s="49" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G19" s="50" t="s">
         <v>60</v>
@@ -30882,13 +31105,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="82"/>
-      <c r="B20" s="81"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="48"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
+      <c r="D20" s="83"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="49" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="G20" s="50" t="s">
         <v>49</v>
@@ -30899,204 +31122,285 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="79"/>
+      <c r="A21" s="79"/>
+      <c r="B21" s="80"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="80"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="80"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="81"/>
     </row>
     <row r="22" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="90">
+      <c r="A22" s="75">
         <v>3</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="85"/>
+      <c r="D22" s="76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="76"/>
+      <c r="B23" s="76"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="45"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="44" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A24" s="76"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+    </row>
+    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A25" s="76"/>
+      <c r="B25" s="76"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="76"/>
+      <c r="F25" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="45"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="81" t="s">
-        <v>104</v>
+      <c r="G26" s="45"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="45"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="76"/>
+      <c r="B27" s="76"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="76"/>
+      <c r="F27" s="43" t="s">
+        <v>77</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="57" t="s">
+      <c r="G27" s="45"/>
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="76"/>
+      <c r="B28" s="76"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="50" t="s">
-        <v>60</v>
+      <c r="G28" s="45"/>
+      <c r="H28" s="45"/>
+      <c r="I28" s="45"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="76"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="43" t="s">
+        <v>96</v>
       </c>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="91"/>
-      <c r="B23" s="91"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="50" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="94"/>
-      <c r="F24" s="58" t="s">
+      <c r="G29" s="45"/>
+      <c r="H29" s="45"/>
+      <c r="I29" s="45"/>
+    </row>
+    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A30" s="76"/>
+      <c r="B30" s="76"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-    </row>
-    <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="91"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="94"/>
-      <c r="F25" s="58" t="s">
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="76"/>
+      <c r="B31" s="76"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="91"/>
-      <c r="B26" s="91"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="94"/>
-      <c r="F26" s="58" t="s">
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="76"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="91"/>
-      <c r="B27" s="91"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="94"/>
-      <c r="F27" s="58" t="s">
-        <v>82</v>
+      <c r="G32" s="45"/>
+      <c r="H32" s="45"/>
+      <c r="I32" s="45"/>
+    </row>
+    <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="79"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="81"/>
+    </row>
+    <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.25">
+      <c r="A34" s="87">
+        <v>4</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="91"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="58" t="s">
-        <v>81</v>
+      <c r="B34" s="87" t="s">
+        <v>97</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="91"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="55"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="94"/>
-      <c r="F29" s="58" t="s">
-        <v>105</v>
+      <c r="C34" s="82" t="s">
+        <v>125</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-    </row>
-    <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="91"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="55"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="58" t="s">
-        <v>83</v>
+      <c r="D34" s="87" t="s">
+        <v>108</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="91"/>
-      <c r="B31" s="91"/>
-      <c r="C31" s="55"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="94"/>
-      <c r="F31" s="58" t="s">
-        <v>84</v>
+      <c r="E34" s="87" t="s">
+        <v>97</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="91"/>
-      <c r="B32" s="91"/>
-      <c r="C32" s="55"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="94"/>
-      <c r="F32" s="58" t="s">
-        <v>85</v>
+      <c r="F34" s="43" t="s">
+        <v>98</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="91"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="58"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="92"/>
-      <c r="B34" s="92"/>
-      <c r="C34" s="55"/>
-      <c r="D34" s="82"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="54"/>
-      <c r="C35" s="55"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="58"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="87"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="84"/>
+      <c r="D35" s="87"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" s="44"/>
+      <c r="H35" s="45"/>
+      <c r="I35" s="44" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="79"/>
+      <c r="B36" s="80"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
+      <c r="E36" s="80"/>
+      <c r="F36" s="80"/>
+      <c r="G36" s="80"/>
+      <c r="H36" s="80"/>
+      <c r="I36" s="81"/>
+    </row>
+    <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.25">
+      <c r="A37" s="58">
+        <v>5</v>
+      </c>
+      <c r="B37" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="C37" s="58" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E37" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="49" t="s">
+        <v>75</v>
+      </c>
+      <c r="G37" s="50"/>
+      <c r="H37" s="90" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="50" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="86"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="50"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="50"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="22">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="E22:E32"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -31106,11 +31410,7 @@
     <mergeCell ref="D2:D6"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="D22:D34"/>
-    <mergeCell ref="E22:E34"/>
+    <mergeCell ref="C2:C6"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F766CCA9-0FDE-41BD-ACA7-BD8B3C3D487C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A63090CE-33AB-40B9-8F01-2B11C443437A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="137">
   <si>
     <t>Project Name:</t>
   </si>
@@ -433,9 +433,6 @@
     <t>FR.14.2</t>
   </si>
   <si>
-    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19</t>
-  </si>
-  <si>
     <t>FR.14.1, 14.2</t>
   </si>
   <si>
@@ -448,7 +445,28 @@
     <t>DD.AF.002</t>
   </si>
   <si>
-    <t>FR.01, 02, 05, 06, 08, 12, 14.2</t>
+    <t>FR.25</t>
+  </si>
+  <si>
+    <t>FR.14.1</t>
+  </si>
+  <si>
+    <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44</t>
+  </si>
+  <si>
+    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 46, 47</t>
+  </si>
+  <si>
+    <t>FR.27, 28</t>
+  </si>
+  <si>
+    <t>FR.17, 18</t>
+  </si>
+  <si>
+    <t>FR.34, 36, 38</t>
+  </si>
+  <si>
+    <t>FR.40, 42, 44</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1029,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1150,9 +1168,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1182,6 +1197,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1222,6 +1249,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1231,16 +1282,13 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1252,50 +1300,11 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1714,18 +1723,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="64"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="67"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -1744,16 +1753,16 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="65"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="70"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -1772,24 +1781,24 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="67"/>
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="70"/>
       <c r="K3" s="19"/>
       <c r="L3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="68" t="s">
+      <c r="M3" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="69"/>
+      <c r="N3" s="72"/>
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -1804,24 +1813,24 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="65"/>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="67"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="70"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="68" t="s">
+      <c r="M4" s="71" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="69"/>
+      <c r="N4" s="72"/>
       <c r="O4" s="21"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -1836,24 +1845,24 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65"/>
-      <c r="B5" s="66"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
-      <c r="G5" s="66"/>
-      <c r="H5" s="66"/>
-      <c r="I5" s="66"/>
-      <c r="J5" s="67"/>
+      <c r="A5" s="68"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="68" t="s">
+      <c r="M5" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="69"/>
+      <c r="N5" s="72"/>
       <c r="O5" s="21"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -1868,24 +1877,24 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="65"/>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
+      <c r="A6" s="68"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="19"/>
       <c r="L6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="68" t="s">
+      <c r="M6" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="69"/>
+      <c r="N6" s="72"/>
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -1900,24 +1909,24 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="65"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="66"/>
-      <c r="I7" s="66"/>
-      <c r="J7" s="67"/>
+      <c r="A7" s="68"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
       <c r="K7" s="19"/>
       <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="70">
+      <c r="M7" s="73">
         <v>43508</v>
       </c>
-      <c r="N7" s="71"/>
+      <c r="N7" s="74"/>
       <c r="O7" s="21"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -1932,16 +1941,16 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="65"/>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="66"/>
-      <c r="J8" s="67"/>
+      <c r="A8" s="68"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="69"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
       <c r="K8" s="17"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -1960,16 +1969,16 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="65"/>
-      <c r="B9" s="66"/>
-      <c r="C9" s="66"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="66"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="66"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="66"/>
-      <c r="J9" s="67"/>
+      <c r="A9" s="68"/>
+      <c r="B9" s="69"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="17"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -1988,16 +1997,16 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="65"/>
-      <c r="B10" s="66"/>
-      <c r="C10" s="66"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="67"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
       <c r="K10" s="17"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -2016,23 +2025,23 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="66"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
-      <c r="H11" s="66"/>
-      <c r="I11" s="66"/>
-      <c r="J11" s="67"/>
+      <c r="A11" s="68"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="59" t="s">
+      <c r="L11" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="60"/>
-      <c r="N11" s="60"/>
-      <c r="O11" s="61"/>
+      <c r="M11" s="63"/>
+      <c r="N11" s="63"/>
+      <c r="O11" s="64"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -2046,16 +2055,16 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="65"/>
-      <c r="B12" s="66"/>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="66"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="66"/>
-      <c r="I12" s="66"/>
-      <c r="J12" s="67"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
       <c r="K12" s="19"/>
       <c r="L12" s="24" t="s">
         <v>6</v>
@@ -2082,16 +2091,16 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="66"/>
-      <c r="J13" s="67"/>
+      <c r="A13" s="68"/>
+      <c r="B13" s="69"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
       <c r="K13" s="19"/>
       <c r="L13" s="25" t="s">
         <v>36</v>
@@ -2118,16 +2127,16 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="65"/>
-      <c r="B14" s="66"/>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="66"/>
-      <c r="J14" s="67"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
       <c r="K14" s="19"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
@@ -2146,16 +2155,16 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="65"/>
-      <c r="B15" s="66"/>
-      <c r="C15" s="66"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="66"/>
-      <c r="F15" s="66"/>
-      <c r="G15" s="66"/>
-      <c r="H15" s="66"/>
-      <c r="I15" s="66"/>
-      <c r="J15" s="67"/>
+      <c r="A15" s="68"/>
+      <c r="B15" s="69"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="69"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
       <c r="K15" s="19"/>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
@@ -2174,16 +2183,16 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
-      <c r="B16" s="66"/>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
-      <c r="H16" s="66"/>
-      <c r="I16" s="66"/>
-      <c r="J16" s="67"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
       <c r="K16" s="19"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
@@ -2202,16 +2211,16 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="65"/>
-      <c r="B17" s="66"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
-      <c r="H17" s="66"/>
-      <c r="I17" s="66"/>
-      <c r="J17" s="67"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="69"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
       <c r="K17" s="19"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
@@ -2230,16 +2239,16 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="65"/>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="67"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="69"/>
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="19"/>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
@@ -2258,16 +2267,16 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="67"/>
+      <c r="A19" s="68"/>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="19"/>
       <c r="L19" s="31"/>
       <c r="M19" s="32"/>
@@ -2286,16 +2295,16 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="65"/>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
+      <c r="D20" s="69"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="19"/>
       <c r="L20" s="31"/>
       <c r="M20" s="32"/>
@@ -30069,17 +30078,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="54" customWidth="1"/>
-    <col min="2" max="3" width="17.5703125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="53" customWidth="1"/>
+    <col min="2" max="3" width="17.5703125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="56" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
@@ -30116,19 +30125,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="78" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="81" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="43" t="s">
@@ -30143,11 +30152,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
@@ -30160,11 +30169,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
@@ -30177,11 +30186,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="43" t="s">
         <v>58</v>
       </c>
@@ -30194,11 +30203,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
@@ -30211,8 +30220,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="76"/>
+      <c r="A7" s="82"/>
+      <c r="B7" s="86"/>
       <c r="C7" s="46" t="s">
         <v>118</v>
       </c>
@@ -30236,468 +30245,479 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="87" t="s">
+        <v>129</v>
+      </c>
+      <c r="D9" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="49" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="48" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50" t="s">
+      <c r="H10" s="50"/>
+      <c r="I10" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="49" t="s">
+      <c r="A11" s="92"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="79"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="80"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="80"/>
-      <c r="G12" s="80"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-    </row>
-    <row r="13" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="82">
+      <c r="A12" s="89"/>
+      <c r="B12" s="90"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="91"/>
+    </row>
+    <row r="13" spans="1:9" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="88">
         <v>3</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="48"/>
-      <c r="D13" s="87" t="s">
+      <c r="C13" s="93" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="93" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="49" t="s">
+      <c r="F13" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="49" t="s">
+    <row r="14" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="49" t="s">
+    <row r="15" spans="1:9" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="49" t="s">
+    <row r="16" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="49" t="s">
+    <row r="17" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="50" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="49" t="s">
+    <row r="18" spans="1:9" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="50" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="52" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="87" t="s">
+    <row r="19" spans="1:9" s="51" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="93" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="83" t="s">
+      <c r="E19" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="F19" s="49" t="s">
+      <c r="F19" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="83"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="49" t="s">
+    <row r="20" spans="1:9" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50" t="s">
+      <c r="H20" s="50"/>
+      <c r="I20" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="52" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="83"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="49" t="s">
+    <row r="21" spans="1:9" s="51" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G21" s="50" t="s">
+      <c r="G21" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="H21" s="51"/>
-      <c r="I21" s="50" t="s">
+      <c r="H21" s="50"/>
+      <c r="I21" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="52" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="49" t="s">
+    <row r="22" spans="1:9" s="51" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="G22" s="50" t="s">
+      <c r="G22" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H22" s="51"/>
-      <c r="I22" s="50" t="s">
+      <c r="H22" s="50"/>
+      <c r="I22" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="52" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="49" t="s">
+    <row r="23" spans="1:9" s="51" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H23" s="51"/>
-      <c r="I23" s="50" t="s">
+      <c r="H23" s="50"/>
+      <c r="I23" s="49" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="49" t="s">
+    <row r="24" spans="1:9" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="51"/>
-      <c r="I24" s="50" t="s">
+      <c r="H24" s="50"/>
+      <c r="I24" s="49" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="74"/>
-    </row>
-    <row r="26" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="82">
+      <c r="A25" s="83"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="84"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="85"/>
+    </row>
+    <row r="26" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="88">
         <v>4</v>
       </c>
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="87" t="s">
         <v>97</v>
       </c>
-      <c r="C26" s="83" t="s">
+      <c r="C26" s="87" t="s">
+        <v>131</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>115</v>
+      </c>
+      <c r="E26" s="87" t="s">
+        <v>97</v>
+      </c>
+      <c r="F26" s="48" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="49"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="87"/>
+      <c r="E27" s="87"/>
+      <c r="F27" s="48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" s="49"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="83"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="84"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="85"/>
+    </row>
+    <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78">
+        <v>5</v>
+      </c>
+      <c r="B29" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="60" t="s">
+        <v>125</v>
+      </c>
+      <c r="D29" s="60" t="s">
+        <v>123</v>
+      </c>
+      <c r="E29" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="48" t="s">
+        <v>75</v>
+      </c>
+      <c r="G29" s="49"/>
+      <c r="H29" s="59" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="86"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="78" t="s">
+        <v>124</v>
+      </c>
+      <c r="D30" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="79"/>
+      <c r="F30" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="49"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="82"/>
+      <c r="B31" s="80"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="G31" s="49"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="49" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="75"/>
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+    </row>
+    <row r="33" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57">
+        <v>6</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="83" t="s">
-        <v>115</v>
-      </c>
-      <c r="E26" s="83" t="s">
-        <v>97</v>
-      </c>
-      <c r="F26" s="49" t="s">
-        <v>98</v>
-      </c>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="83"/>
-      <c r="B27" s="83"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="49" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="50"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="73"/>
-      <c r="G28" s="73"/>
-      <c r="H28" s="73"/>
-      <c r="I28" s="74"/>
-    </row>
-    <row r="29" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="75">
-        <v>5</v>
-      </c>
-      <c r="B29" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="C29" s="95" t="s">
-        <v>126</v>
-      </c>
-      <c r="D29" s="95" t="s">
-        <v>123</v>
-      </c>
-      <c r="E29" s="75" t="s">
-        <v>99</v>
-      </c>
-      <c r="F29" s="49" t="s">
-        <v>75</v>
-      </c>
-      <c r="G29" s="50"/>
-      <c r="H29" s="90" t="s">
-        <v>102</v>
-      </c>
-      <c r="I29" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="75" t="s">
-        <v>124</v>
-      </c>
-      <c r="D30" s="77" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="88"/>
-      <c r="F30" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="51"/>
-      <c r="I30" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="89"/>
-      <c r="F31" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="51"/>
-      <c r="I31" s="50" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="92"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="94"/>
-    </row>
-    <row r="33" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="58">
-        <v>6</v>
-      </c>
-      <c r="B33" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="C33" s="58"/>
-      <c r="D33" s="58" t="s">
+      <c r="D33" s="57" t="s">
         <v>122</v>
       </c>
       <c r="E33" s="44" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="49" t="s">
+      <c r="F33" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="G33" s="50"/>
-      <c r="H33" s="96"/>
-      <c r="I33" s="50" t="s">
+      <c r="G33" s="49"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="49" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+  <mergeCells count="33">
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -30714,13 +30734,13 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -30731,20 +30751,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
-  <dimension ref="A1:I38"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.42578125" style="54" customWidth="1"/>
-    <col min="2" max="2" width="20" style="55" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="55" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="56" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" style="55" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="57" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="53" customWidth="1"/>
+    <col min="2" max="2" width="20" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="54" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="55" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="56" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
     <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
@@ -30781,25 +30801,25 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A2" s="75">
+      <c r="A2" s="78">
         <v>1</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="77" t="s">
+      <c r="C2" s="81" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="81" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H2" s="45"/>
@@ -30808,15 +30828,15 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
-      <c r="B3" s="76"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="77"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="81"/>
       <c r="F3" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H3" s="45"/>
@@ -30825,15 +30845,15 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
-      <c r="B4" s="76"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="77"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="81"/>
       <c r="F4" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H4" s="45"/>
@@ -30842,15 +30862,15 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="77"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="81"/>
       <c r="F5" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H5" s="45"/>
@@ -30859,15 +30879,15 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="77"/>
+      <c r="A6" s="86"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="81"/>
       <c r="F6" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H6" s="45"/>
@@ -30876,9 +30896,9 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
-      <c r="B7" s="76"/>
-      <c r="C7" s="58" t="s">
+      <c r="A7" s="82"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="57" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="42" t="s">
@@ -30890,7 +30910,7 @@
       <c r="F7" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="49" t="s">
         <v>60</v>
       </c>
       <c r="H7" s="45"/>
@@ -30899,251 +30919,255 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="73"/>
-      <c r="C8" s="73"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="74"/>
+      <c r="A8" s="83"/>
+      <c r="B8" s="84"/>
+      <c r="C8" s="84"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
     </row>
     <row r="9" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A9" s="82">
+      <c r="A9" s="88">
         <v>2</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="83" t="s">
+      <c r="C9" s="87" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E9" s="83" t="s">
+      <c r="E9" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="F9" s="49" t="s">
+      <c r="F9" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50" t="s">
+      <c r="H9" s="50"/>
+      <c r="I9" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="83"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="53" t="s">
+      <c r="A10" s="87"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H10" s="51"/>
-      <c r="I10" s="50" t="s">
+      <c r="H10" s="50"/>
+      <c r="I10" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
-      <c r="B11" s="83"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="49" t="s">
+      <c r="A11" s="87"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H11" s="51"/>
-      <c r="I11" s="50" t="s">
+      <c r="H11" s="50"/>
+      <c r="I11" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
-      <c r="B12" s="83"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="49" t="s">
+      <c r="A12" s="87"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="H12" s="51"/>
-      <c r="I12" s="50" t="s">
+      <c r="H12" s="50"/>
+      <c r="I12" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
-      <c r="B13" s="83"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="49" t="s">
+      <c r="A13" s="87"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H13" s="51"/>
-      <c r="I13" s="50" t="s">
+      <c r="H13" s="50"/>
+      <c r="I13" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="49" t="s">
+      <c r="A14" s="87"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H14" s="51"/>
-      <c r="I14" s="50" t="s">
+      <c r="H14" s="50"/>
+      <c r="I14" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
-      <c r="B15" s="83"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="49" t="s">
+      <c r="A15" s="87"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="48" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="50" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="49" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H16" s="51"/>
-      <c r="I16" s="50" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
-      <c r="B17" s="83"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="49" t="s">
+      <c r="A17" s="87"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="51"/>
-      <c r="I17" s="50" t="s">
+      <c r="H17" s="50"/>
+      <c r="I17" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="49" t="s">
+      <c r="A18" s="87"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="48" t="s">
         <v>92</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H18" s="51"/>
-      <c r="I18" s="50" t="s">
+      <c r="H18" s="50"/>
+      <c r="I18" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A19" s="83"/>
-      <c r="B19" s="83"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="49" t="s">
+      <c r="A19" s="87"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="H19" s="51"/>
-      <c r="I19" s="50" t="s">
+      <c r="H19" s="50"/>
+      <c r="I19" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="83"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="49" t="s">
+      <c r="A20" s="92"/>
+      <c r="B20" s="87"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="G20" s="50" t="s">
+      <c r="G20" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="H20" s="51"/>
-      <c r="I20" s="50" t="s">
+      <c r="H20" s="50"/>
+      <c r="I20" s="49" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="79"/>
-      <c r="B21" s="80"/>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="81"/>
+      <c r="A21" s="89"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="91"/>
     </row>
     <row r="22" spans="1:9" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="75">
+      <c r="A22" s="78">
         <v>3</v>
       </c>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="78" t="s">
         <v>70</v>
       </c>
-      <c r="C22" s="85"/>
-      <c r="D22" s="76" t="s">
+      <c r="C22" s="78" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="75" t="s">
+      <c r="E22" s="78" t="s">
         <v>70</v>
       </c>
       <c r="F22" s="45" t="s">
@@ -31153,14 +31177,16 @@
         <v>60</v>
       </c>
       <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
+      <c r="I22" s="49" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="76"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
       <c r="F23" s="43" t="s">
         <v>72</v>
       </c>
@@ -31171,11 +31197,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
       <c r="F24" s="43" t="s">
         <v>73</v>
       </c>
@@ -31184,11 +31210,11 @@
       <c r="I24" s="45"/>
     </row>
     <row r="25" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="76"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
+      <c r="A25" s="86"/>
+      <c r="B25" s="86"/>
+      <c r="C25" s="86"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
       <c r="F25" s="43" t="s">
         <v>74</v>
       </c>
@@ -31197,11 +31223,11 @@
       <c r="I25" s="45"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="76"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="A26" s="86"/>
+      <c r="B26" s="86"/>
+      <c r="C26" s="86"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
       <c r="F26" s="43" t="s">
         <v>75</v>
       </c>
@@ -31210,11 +31236,11 @@
       <c r="I26" s="45"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="76"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
+      <c r="A27" s="86"/>
+      <c r="B27" s="86"/>
+      <c r="C27" s="86"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
       <c r="F27" s="43" t="s">
         <v>77</v>
       </c>
@@ -31223,11 +31249,11 @@
       <c r="I27" s="45"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="76"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="A28" s="86"/>
+      <c r="B28" s="86"/>
+      <c r="C28" s="86"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
       <c r="F28" s="43" t="s">
         <v>76</v>
       </c>
@@ -31236,24 +31262,26 @@
       <c r="I28" s="45"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
+      <c r="A29" s="86"/>
+      <c r="B29" s="86"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
       <c r="F29" s="43" t="s">
         <v>96</v>
       </c>
       <c r="G29" s="45"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="45"/>
+      <c r="I29" s="44" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="76"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="A30" s="86"/>
+      <c r="B30" s="86"/>
+      <c r="C30" s="86"/>
+      <c r="D30" s="86"/>
+      <c r="E30" s="86"/>
       <c r="F30" s="43" t="s">
         <v>78</v>
       </c>
@@ -31262,11 +31290,11 @@
       <c r="I30" s="45"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="76"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="86"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="86"/>
+      <c r="E31" s="86"/>
       <c r="F31" s="43" t="s">
         <v>79</v>
       </c>
@@ -31275,11 +31303,11 @@
       <c r="I31" s="45"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="76"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="A32" s="86"/>
+      <c r="B32" s="86"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="86"/>
+      <c r="E32" s="86"/>
       <c r="F32" s="43" t="s">
         <v>80</v>
       </c>
@@ -31288,30 +31316,30 @@
       <c r="I32" s="45"/>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="81"/>
+      <c r="A33" s="89"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
     </row>
     <row r="34" spans="1:9" ht="36" x14ac:dyDescent="0.25">
-      <c r="A34" s="87">
+      <c r="A34" s="93">
         <v>4</v>
       </c>
-      <c r="B34" s="87" t="s">
+      <c r="B34" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="82" t="s">
-        <v>125</v>
+      <c r="C34" s="88" t="s">
+        <v>132</v>
       </c>
-      <c r="D34" s="87" t="s">
+      <c r="D34" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E34" s="87" t="s">
+      <c r="E34" s="93" t="s">
         <v>97</v>
       </c>
       <c r="F34" s="43" t="s">
@@ -31323,12 +31351,12 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="87"/>
-      <c r="B35" s="87"/>
-      <c r="C35" s="84"/>
-      <c r="D35" s="87"/>
-      <c r="E35" s="87"/>
+    <row r="35" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="43" t="s">
         <v>96</v>
       </c>
@@ -31339,68 +31367,45 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="80"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="I36" s="81"/>
+      <c r="A36" s="89"/>
+      <c r="B36" s="90"/>
+      <c r="C36" s="90"/>
+      <c r="D36" s="90"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="90"/>
+      <c r="G36" s="90"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="91"/>
     </row>
     <row r="37" spans="1:9" ht="54" x14ac:dyDescent="0.25">
-      <c r="A37" s="58">
+      <c r="A37" s="57">
         <v>5</v>
       </c>
-      <c r="B37" s="58" t="s">
+      <c r="B37" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="58" t="s">
+      <c r="D37" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="E37" s="58" t="s">
+      <c r="E37" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F37" s="49" t="s">
+      <c r="F37" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="G37" s="50"/>
-      <c r="H37" s="90" t="s">
+      <c r="G37" s="49"/>
+      <c r="H37" s="59" t="s">
         <v>102</v>
       </c>
-      <c r="I37" s="50" t="s">
+      <c r="I37" s="49" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="86"/>
-      <c r="B38" s="44"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="51"/>
-      <c r="I38" s="50"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="E22:E32"/>
+  <mergeCells count="24">
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -31411,8 +31416,23 @@
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C2:C6"/>
+    <mergeCell ref="C9:C20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5075B4A-22FD-45C2-9370-46367FBB5A33}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD17926-CCF3-4BB9-BC80-DCF165C0BB17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -1635,25 +1635,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1668,7 +1653,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,6 +1664,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -30458,7 +30458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
@@ -30506,19 +30506,19 @@
       </c>
     </row>
     <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="87">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="84" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30576,11 +30576,11 @@
       <c r="AZ2" s="66"/>
     </row>
     <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="90"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -30636,11 +30636,11 @@
       <c r="AZ3" s="66"/>
     </row>
     <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="90"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -30696,11 +30696,11 @@
       <c r="AZ4" s="66"/>
     </row>
     <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="90"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -30756,11 +30756,11 @@
       <c r="AZ5" s="66"/>
     </row>
     <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -30816,8 +30816,8 @@
       <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="91"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="50" t="s">
         <v>114</v>
       </c>
@@ -30884,30 +30884,30 @@
       <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="87">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="85" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="85" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="85" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="85" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30922,11 +30922,11 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
@@ -30939,11 +30939,11 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="86"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
@@ -30956,30 +30956,30 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
+      <c r="A12" s="91"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="93"/>
     </row>
     <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="87">
+      <c r="A13" s="90">
         <v>3</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="84" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="90" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -31037,11 +31037,11 @@
       <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="95"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="84"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
@@ -31097,11 +31097,11 @@
       <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
@@ -31157,11 +31157,11 @@
       <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="84"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
@@ -31217,11 +31217,11 @@
       <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
@@ -31277,11 +31277,11 @@
       <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="95"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="42" t="s">
         <v>51</v>
       </c>
@@ -31337,15 +31337,15 @@
       <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="90" t="s">
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="84" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="85" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -31403,11 +31403,11 @@
       <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="95"/>
+      <c r="A20" s="85"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="42" t="s">
         <v>47</v>
       </c>
@@ -31463,11 +31463,11 @@
       <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="95"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="85"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="85"/>
       <c r="F21" s="42" t="s">
         <v>48</v>
       </c>
@@ -31523,11 +31523,11 @@
       <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="95"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
@@ -31583,11 +31583,11 @@
       <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="95"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="42" t="s">
         <v>50</v>
       </c>
@@ -31643,11 +31643,11 @@
       <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="86"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="86"/>
       <c r="F24" s="42" t="s">
         <v>51</v>
       </c>
@@ -31703,30 +31703,30 @@
       <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
+      <c r="A25" s="87"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="87">
+      <c r="A26" s="90">
         <v>4</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="85" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="95" t="s">
+      <c r="C26" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="95" t="s">
+      <c r="D26" s="85" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="85" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -31741,11 +31741,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -31758,21 +31758,21 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
+      <c r="A28" s="87"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="88"/>
+      <c r="F28" s="88"/>
+      <c r="G28" s="88"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="87">
+      <c r="A29" s="90">
         <v>5</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="90" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -31781,7 +31781,7 @@
       <c r="D29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="90" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -31841,15 +31841,15 @@
       <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87" t="s">
+      <c r="A30" s="85"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="84" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="97"/>
       <c r="F30" s="42" t="s">
         <v>122</v>
       </c>
@@ -31905,11 +31905,11 @@
       <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="86"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="86"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="98"/>
       <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
@@ -31965,15 +31965,15 @@
       <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
+      <c r="A32" s="94"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="95"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="96"/>
     </row>
     <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A33" s="52">
@@ -33071,16 +33071,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -33097,13 +33094,16 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33116,8 +33116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C35"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33164,19 +33164,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="87">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="84" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33191,11 +33191,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="90"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="84"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33208,11 +33208,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="90"/>
+      <c r="A4" s="85"/>
+      <c r="B4" s="85"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="84"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33225,11 +33225,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="90"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="84"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33242,11 +33242,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="85"/>
+      <c r="B6" s="85"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="84"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -33259,8 +33259,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="91"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="86"/>
+      <c r="B7" s="85"/>
       <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
@@ -33282,30 +33282,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="87"/>
+      <c r="B8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="88"/>
+      <c r="F8" s="88"/>
+      <c r="G8" s="88"/>
+      <c r="H8" s="88"/>
+      <c r="I8" s="89"/>
     </row>
     <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="87">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="85" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="85" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -33320,11 +33320,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="85"/>
+      <c r="B10" s="85"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
       <c r="F10" s="42" t="s">
         <v>75</v>
       </c>
@@ -33337,11 +33337,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="85"/>
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
@@ -33354,11 +33354,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="85"/>
+      <c r="B12" s="85"/>
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="85"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
@@ -33371,11 +33371,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="A13" s="85"/>
+      <c r="B13" s="85"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="85"/>
       <c r="F13" s="42" t="s">
         <v>81</v>
       </c>
@@ -33388,11 +33388,11 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="A14" s="85"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
       <c r="F14" s="42" t="s">
         <v>85</v>
       </c>
@@ -33405,11 +33405,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="85"/>
+      <c r="B15" s="85"/>
+      <c r="C15" s="85"/>
+      <c r="D15" s="85"/>
+      <c r="E15" s="85"/>
       <c r="F15" s="42" t="s">
         <v>82</v>
       </c>
@@ -33422,11 +33422,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="85"/>
+      <c r="D16" s="85"/>
+      <c r="E16" s="85"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
@@ -33439,11 +33439,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="85"/>
+      <c r="B17" s="85"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
@@ -33456,11 +33456,11 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
+      <c r="A18" s="85"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
       <c r="F18" s="42" t="s">
         <v>88</v>
       </c>
@@ -33473,11 +33473,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
+      <c r="A19" s="85"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
       <c r="F19" s="42" t="s">
         <v>89</v>
       </c>
@@ -33490,11 +33490,11 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="91"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
+      <c r="A20" s="86"/>
+      <c r="B20" s="85"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="85"/>
+      <c r="E20" s="85"/>
       <c r="F20" s="42" t="s">
         <v>90</v>
       </c>
@@ -33507,30 +33507,30 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
+      <c r="A21" s="91"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="93"/>
     </row>
     <row r="22" spans="1:9" ht="72" customHeight="1">
-      <c r="A22" s="87">
+      <c r="A22" s="90">
         <v>3</v>
       </c>
-      <c r="B22" s="87" t="s">
+      <c r="B22" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="85" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="90" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="44" t="s">
@@ -33545,11 +33545,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="85"/>
+      <c r="C23" s="85"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="85"/>
       <c r="F23" s="42" t="s">
         <v>68</v>
       </c>
@@ -33562,11 +33562,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
+      <c r="A24" s="85"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
       <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
@@ -33579,11 +33579,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
+      <c r="A25" s="85"/>
+      <c r="B25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="85"/>
+      <c r="E25" s="85"/>
       <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
@@ -33596,11 +33596,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
+      <c r="A26" s="85"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
       <c r="F26" s="42" t="s">
         <v>71</v>
       </c>
@@ -33613,11 +33613,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="A27" s="85"/>
+      <c r="B27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="85"/>
+      <c r="E27" s="85"/>
       <c r="F27" s="42" t="s">
         <v>73</v>
       </c>
@@ -33630,11 +33630,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
+      <c r="A28" s="85"/>
+      <c r="B28" s="85"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="85"/>
       <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
@@ -33647,11 +33647,11 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
+      <c r="A29" s="85"/>
+      <c r="B29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="85"/>
       <c r="F29" s="42" t="s">
         <v>92</v>
       </c>
@@ -33664,11 +33664,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
+      <c r="A30" s="85"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
       <c r="F30" s="42" t="s">
         <v>74</v>
       </c>
@@ -33681,11 +33681,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="95"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
+      <c r="A31" s="85"/>
+      <c r="B31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="85"/>
+      <c r="E31" s="85"/>
       <c r="F31" s="42" t="s">
         <v>75</v>
       </c>
@@ -33698,11 +33698,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
+      <c r="A32" s="85"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="86"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
       <c r="F32" s="42" t="s">
         <v>76</v>
       </c>
@@ -33715,30 +33715,30 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
+      <c r="A33" s="91"/>
+      <c r="B33" s="92"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="92"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="92"/>
+      <c r="I33" s="93"/>
     </row>
     <row r="34" spans="1:9" ht="36">
-      <c r="A34" s="90">
+      <c r="A34" s="84">
         <v>4</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B34" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="87" t="s">
+      <c r="C34" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="90" t="s">
+      <c r="D34" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E34" s="84" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="42" t="s">
@@ -33755,11 +33755,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="86"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
       <c r="F35" s="42" t="s">
         <v>92</v>
       </c>
@@ -33774,15 +33774,15 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
+      <c r="A36" s="91"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
     </row>
     <row r="37" spans="1:9" ht="54">
       <c r="A37" s="52">
@@ -33815,6 +33815,19 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="C22:C32"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -33826,19 +33839,6 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="C22:C32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33850,7 +33850,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CEB4A1F-040F-4CD7-91E7-04F63F0A3110}">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B5"/>
     </sheetView>
   </sheetViews>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FD17926-CCF3-4BB9-BC80-DCF165C0BB17}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637AE26-8ABA-4D05-9739-40D4A242BFE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="187">
   <si>
     <t>Project Name:</t>
   </si>
@@ -757,6 +757,27 @@
   </si>
   <si>
     <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 46</t>
+  </si>
+  <si>
+    <t>Statistic - reports (Thống kê báo cáo</t>
+  </si>
+  <si>
+    <t>FR.46</t>
+  </si>
+  <si>
+    <t>DD.WS.001</t>
+  </si>
+  <si>
+    <t>Import</t>
+  </si>
+  <si>
+    <t>Qúy (precious)</t>
+  </si>
+  <si>
+    <t>Năm (Year)</t>
+  </si>
+  <si>
+    <t>Mặc định (Default)</t>
   </si>
 </sst>
 </file>
@@ -1635,10 +1656,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1653,7 +1689,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1664,21 +1700,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -30458,8 +30479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -30506,19 +30527,19 @@
       </c>
     </row>
     <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="87">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="87" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="90" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30576,11 +30597,11 @@
       <c r="AZ2" s="66"/>
     </row>
     <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -30636,11 +30657,11 @@
       <c r="AZ3" s="66"/>
     </row>
     <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -30696,11 +30717,11 @@
       <c r="AZ4" s="66"/>
     </row>
     <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -30756,11 +30777,11 @@
       <c r="AZ5" s="66"/>
     </row>
     <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -30816,8 +30837,8 @@
       <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="86"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="50" t="s">
         <v>114</v>
       </c>
@@ -30884,30 +30905,30 @@
       <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="90">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="95" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="95" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30922,11 +30943,11 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
@@ -30939,11 +30960,11 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="86"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="A11" s="91"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
@@ -30956,30 +30977,30 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="91"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="92"/>
-      <c r="H12" s="92"/>
-      <c r="I12" s="93"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="90">
+      <c r="A13" s="87">
         <v>3</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="84" t="s">
+      <c r="C13" s="90" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="84" t="s">
+      <c r="D13" s="90" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="87" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -31037,11 +31058,11 @@
       <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
@@ -31097,11 +31118,11 @@
       <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="85"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
@@ -31157,11 +31178,11 @@
       <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
@@ -31217,11 +31238,11 @@
       <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="85"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
@@ -31277,11 +31298,11 @@
       <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="85"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="42" t="s">
         <v>51</v>
       </c>
@@ -31337,15 +31358,15 @@
       <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="84" t="s">
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="90" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="84" t="s">
+      <c r="D19" s="90" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="85" t="s">
+      <c r="E19" s="95" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -31403,11 +31424,11 @@
       <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="85"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="84"/>
-      <c r="D20" s="84"/>
-      <c r="E20" s="85"/>
+      <c r="A20" s="95"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="90"/>
+      <c r="D20" s="90"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="42" t="s">
         <v>47</v>
       </c>
@@ -31463,11 +31484,11 @@
       <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="84"/>
-      <c r="D21" s="84"/>
-      <c r="E21" s="85"/>
+      <c r="A21" s="95"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="95"/>
       <c r="F21" s="42" t="s">
         <v>48</v>
       </c>
@@ -31523,11 +31544,11 @@
       <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="85"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="85"/>
+      <c r="A22" s="95"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="95"/>
       <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
@@ -31583,11 +31604,11 @@
       <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="84"/>
-      <c r="D23" s="84"/>
-      <c r="E23" s="85"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="42" t="s">
         <v>50</v>
       </c>
@@ -31643,11 +31664,11 @@
       <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="86"/>
-      <c r="B24" s="86"/>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="86"/>
+      <c r="A24" s="91"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="91"/>
       <c r="F24" s="42" t="s">
         <v>51</v>
       </c>
@@ -31703,30 +31724,30 @@
       <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="87"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="89"/>
+      <c r="A25" s="92"/>
+      <c r="B25" s="93"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="93"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="93"/>
+      <c r="G25" s="93"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="94"/>
     </row>
     <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="90">
+      <c r="A26" s="87">
         <v>4</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="95" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="85" t="s">
+      <c r="C26" s="95" t="s">
         <v>178</v>
       </c>
-      <c r="D26" s="85" t="s">
+      <c r="D26" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="85" t="s">
+      <c r="E26" s="95" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -31741,11 +31762,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -31758,21 +31779,21 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="87"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
-      <c r="H28" s="88"/>
-      <c r="I28" s="89"/>
+      <c r="A28" s="92"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="93"/>
+      <c r="G28" s="93"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="94"/>
     </row>
     <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="90">
+      <c r="A29" s="87">
         <v>5</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="87" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -31781,7 +31802,7 @@
       <c r="D29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="90" t="s">
+      <c r="E29" s="87" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -31841,15 +31862,15 @@
       <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="85"/>
-      <c r="B30" s="97"/>
-      <c r="C30" s="90" t="s">
+      <c r="A30" s="95"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="84" t="s">
+      <c r="D30" s="90" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="97"/>
+      <c r="E30" s="88"/>
       <c r="F30" s="42" t="s">
         <v>122</v>
       </c>
@@ -31905,11 +31926,11 @@
       <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="86"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="86"/>
-      <c r="D31" s="84"/>
-      <c r="E31" s="98"/>
+      <c r="A31" s="91"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="89"/>
       <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
@@ -31965,15 +31986,15 @@
       <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="94"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="96"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="85"/>
+      <c r="E32" s="85"/>
+      <c r="F32" s="85"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="86"/>
     </row>
     <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A33" s="52">
@@ -33071,13 +33092,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -33094,16 +33118,13 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33114,10 +33135,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33164,19 +33185,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="87">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="87" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="84" t="s">
+      <c r="C2" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="87" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="84" t="s">
+      <c r="E2" s="90" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33191,11 +33212,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="85"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="84"/>
+      <c r="A3" s="95"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33208,11 +33229,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="85"/>
-      <c r="B4" s="85"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="84"/>
+      <c r="A4" s="95"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="90"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33225,11 +33246,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="84"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="95"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33242,11 +33263,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="85"/>
-      <c r="B6" s="85"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="84"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="90"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -33259,8 +33280,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="86"/>
-      <c r="B7" s="85"/>
+      <c r="A7" s="91"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
@@ -33282,30 +33303,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="87"/>
-      <c r="B8" s="88"/>
-      <c r="C8" s="88"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="88"/>
-      <c r="F8" s="88"/>
-      <c r="G8" s="88"/>
-      <c r="H8" s="88"/>
-      <c r="I8" s="89"/>
+      <c r="A8" s="92"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="93"/>
+      <c r="I8" s="94"/>
     </row>
     <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="90">
+      <c r="A9" s="87">
         <v>2</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="95" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="95" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="95" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -33320,11 +33341,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="85"/>
-      <c r="B10" s="85"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
+      <c r="A10" s="95"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="95"/>
       <c r="F10" s="42" t="s">
         <v>75</v>
       </c>
@@ -33337,11 +33358,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="85"/>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
+      <c r="A11" s="95"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="95"/>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
@@ -33354,11 +33375,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="85"/>
-      <c r="B12" s="85"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
+      <c r="A12" s="95"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
@@ -33371,11 +33392,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="85"/>
-      <c r="B13" s="85"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
+      <c r="A13" s="95"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="95"/>
       <c r="F13" s="42" t="s">
         <v>81</v>
       </c>
@@ -33388,11 +33409,11 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
+      <c r="A14" s="95"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
       <c r="F14" s="42" t="s">
         <v>85</v>
       </c>
@@ -33405,11 +33426,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="85"/>
-      <c r="B15" s="85"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
+      <c r="A15" s="95"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
       <c r="F15" s="42" t="s">
         <v>82</v>
       </c>
@@ -33422,11 +33443,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="85"/>
-      <c r="B16" s="85"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
+      <c r="A16" s="95"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
@@ -33439,11 +33460,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="85"/>
-      <c r="B17" s="85"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
+      <c r="A17" s="95"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
@@ -33456,11 +33477,11 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="85"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="95"/>
       <c r="F18" s="42" t="s">
         <v>88</v>
       </c>
@@ -33473,11 +33494,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="85"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
+      <c r="A19" s="95"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
       <c r="F19" s="42" t="s">
         <v>89</v>
       </c>
@@ -33490,11 +33511,11 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="86"/>
-      <c r="B20" s="85"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="95"/>
       <c r="F20" s="42" t="s">
         <v>90</v>
       </c>
@@ -33507,30 +33528,30 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="91"/>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
-      <c r="D21" s="92"/>
-      <c r="E21" s="92"/>
-      <c r="F21" s="92"/>
-      <c r="G21" s="92"/>
-      <c r="H21" s="92"/>
-      <c r="I21" s="93"/>
-    </row>
-    <row r="22" spans="1:9" ht="72" customHeight="1">
-      <c r="A22" s="90">
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="98"/>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22" s="87">
         <v>3</v>
       </c>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="85" t="s">
+      <c r="D22" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="90" t="s">
+      <c r="E22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="44" t="s">
@@ -33545,11 +33566,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="85"/>
-      <c r="B23" s="85"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
+      <c r="A23" s="95"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="42" t="s">
         <v>68</v>
       </c>
@@ -33562,11 +33583,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="85"/>
-      <c r="B24" s="85"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
+      <c r="A24" s="95"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
       <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
@@ -33579,11 +33600,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="85"/>
-      <c r="B25" s="85"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="95"/>
       <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
@@ -33596,11 +33617,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="85"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
+      <c r="A26" s="95"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
       <c r="F26" s="42" t="s">
         <v>71</v>
       </c>
@@ -33613,11 +33634,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="85"/>
-      <c r="B27" s="85"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
+      <c r="A27" s="95"/>
+      <c r="B27" s="95"/>
+      <c r="C27" s="95"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="95"/>
       <c r="F27" s="42" t="s">
         <v>73</v>
       </c>
@@ -33630,11 +33651,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="85"/>
-      <c r="B28" s="85"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
       <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
@@ -33647,28 +33668,30 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="85"/>
-      <c r="B29" s="85"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="95"/>
+      <c r="C29" s="95"/>
+      <c r="D29" s="95"/>
+      <c r="E29" s="95"/>
       <c r="F29" s="42" t="s">
         <v>92</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H29" s="44"/>
+      <c r="H29" s="44" t="s">
+        <v>186</v>
+      </c>
       <c r="I29" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="85"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
+      <c r="A30" s="95"/>
+      <c r="B30" s="95"/>
+      <c r="C30" s="95"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="95"/>
       <c r="F30" s="42" t="s">
         <v>74</v>
       </c>
@@ -33681,11 +33704,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="85"/>
-      <c r="B31" s="85"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
+      <c r="A31" s="95"/>
+      <c r="B31" s="95"/>
+      <c r="C31" s="95"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="95"/>
       <c r="F31" s="42" t="s">
         <v>75</v>
       </c>
@@ -33698,11 +33721,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="85"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="86"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
+      <c r="A32" s="95"/>
+      <c r="B32" s="95"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="95"/>
       <c r="F32" s="42" t="s">
         <v>76</v>
       </c>
@@ -33715,30 +33738,30 @@
       </c>
     </row>
     <row r="33" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A33" s="91"/>
-      <c r="B33" s="92"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="92"/>
-      <c r="H33" s="92"/>
-      <c r="I33" s="93"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="97"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
+      <c r="I33" s="98"/>
     </row>
     <row r="34" spans="1:9" ht="36">
-      <c r="A34" s="84">
+      <c r="A34" s="90">
         <v>4</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="90" t="s">
+      <c r="C34" s="87" t="s">
         <v>179</v>
       </c>
-      <c r="D34" s="84" t="s">
+      <c r="D34" s="90" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="84" t="s">
+      <c r="E34" s="90" t="s">
         <v>93</v>
       </c>
       <c r="F34" s="42" t="s">
@@ -33755,11 +33778,11 @@
       </c>
     </row>
     <row r="35" spans="1:9" ht="105" customHeight="1">
-      <c r="A35" s="84"/>
-      <c r="B35" s="84"/>
-      <c r="C35" s="86"/>
-      <c r="D35" s="84"/>
-      <c r="E35" s="84"/>
+      <c r="A35" s="90"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="90"/>
+      <c r="E35" s="90"/>
       <c r="F35" s="42" t="s">
         <v>92</v>
       </c>
@@ -33774,15 +33797,15 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A36" s="91"/>
-      <c r="B36" s="92"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
-      <c r="E36" s="92"/>
-      <c r="F36" s="92"/>
-      <c r="G36" s="92"/>
-      <c r="H36" s="92"/>
-      <c r="I36" s="93"/>
+      <c r="A36" s="96"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="97"/>
+      <c r="F36" s="97"/>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" ht="54">
       <c r="A37" s="52">
@@ -33813,21 +33836,256 @@
         <v>30</v>
       </c>
     </row>
+    <row r="38" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A38" s="96"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="97"/>
+      <c r="D38" s="97"/>
+      <c r="E38" s="97"/>
+      <c r="F38" s="97"/>
+      <c r="G38" s="97"/>
+      <c r="H38" s="97"/>
+      <c r="I38" s="98"/>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39" s="87">
+        <v>6</v>
+      </c>
+      <c r="B39" s="87" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>182</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>183</v>
+      </c>
+      <c r="F39" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="95"/>
+      <c r="B40" s="95"/>
+      <c r="C40" s="95"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H40" s="53"/>
+      <c r="I40" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41" s="95"/>
+      <c r="B41" s="95"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="95"/>
+      <c r="F41" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="95"/>
+      <c r="B42" s="95"/>
+      <c r="C42" s="95"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="95"/>
+      <c r="F42" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H42" s="44"/>
+      <c r="I42" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="95"/>
+      <c r="B43" s="95"/>
+      <c r="C43" s="95"/>
+      <c r="D43" s="95"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="44"/>
+      <c r="I43" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="36">
+      <c r="A44" s="95"/>
+      <c r="B44" s="95"/>
+      <c r="C44" s="95"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H44" s="44"/>
+      <c r="I44" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="36">
+      <c r="A45" s="95"/>
+      <c r="B45" s="95"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H45" s="44"/>
+      <c r="I45" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="95"/>
+      <c r="B46" s="95"/>
+      <c r="C46" s="95"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="95"/>
+      <c r="F46" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="95"/>
+      <c r="B47" s="95"/>
+      <c r="C47" s="95"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="95"/>
+      <c r="F47" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="95"/>
+      <c r="B48" s="95"/>
+      <c r="C48" s="95"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="95"/>
+      <c r="F48" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="36">
+      <c r="A49" s="95"/>
+      <c r="B49" s="95"/>
+      <c r="C49" s="95"/>
+      <c r="D49" s="95"/>
+      <c r="E49" s="95"/>
+      <c r="F49" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
+      <c r="A50" s="95"/>
+      <c r="B50" s="95"/>
+      <c r="C50" s="95"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="95"/>
+      <c r="F50" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
+      <c r="A51" s="91"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="91"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="91"/>
+      <c r="F51" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="C22:C32"/>
+  <mergeCells count="30">
+    <mergeCell ref="A38:I38"/>
+    <mergeCell ref="A39:A51"/>
+    <mergeCell ref="B39:B51"/>
+    <mergeCell ref="C39:C51"/>
+    <mergeCell ref="D39:D51"/>
+    <mergeCell ref="E39:E51"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -33839,6 +34097,19 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C20"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A33:I33"/>
+    <mergeCell ref="A22:A32"/>
+    <mergeCell ref="B22:B32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="C34:C35"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637AE26-8ABA-4D05-9739-40D4A242BFE9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA5DAF-1369-4F07-B1E8-D9D3FF62632D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="196">
   <si>
     <t>Project Name:</t>
   </si>
@@ -753,16 +753,7 @@
     </r>
   </si>
   <si>
-    <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 47</t>
-  </si>
-  <si>
-    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 46</t>
-  </si>
-  <si>
     <t>Statistic - reports (Thống kê báo cáo</t>
-  </si>
-  <si>
-    <t>FR.46</t>
   </si>
   <si>
     <t>DD.WS.001</t>
@@ -778,6 +769,42 @@
   </si>
   <si>
     <t>Mặc định (Default)</t>
+  </si>
+  <si>
+    <t>Quản lý tài khoản (Account management)</t>
+  </si>
+  <si>
+    <t>FR.20.1</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Search account</t>
+  </si>
+  <si>
+    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 20.1, 20.2, 47, 48</t>
+  </si>
+  <si>
+    <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 46</t>
+  </si>
+  <si>
+    <t>Tên phòng ban</t>
+  </si>
+  <si>
+    <t>Tên nhóm</t>
+  </si>
+  <si>
+    <t>Add, Edit Phòng ban</t>
+  </si>
+  <si>
+    <t>FR.45</t>
+  </si>
+  <si>
+    <t>FR.48</t>
+  </si>
+  <si>
+    <t>DD.WS.002</t>
   </si>
 </sst>
 </file>
@@ -1411,7 +1438,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1617,6 +1644,15 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1656,25 +1692,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1689,7 +1710,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1700,6 +1721,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2124,18 +2160,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="76"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
       <c r="K1" s="17"/>
       <c r="L1" s="17"/>
       <c r="M1" s="17"/>
@@ -2154,16 +2190,16 @@
       <c r="Z1" s="17"/>
     </row>
     <row r="2" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="79"/>
+      <c r="A2" s="80"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="82"/>
       <c r="K2" s="17"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
@@ -2182,24 +2218,24 @@
       <c r="Z2" s="17"/>
     </row>
     <row r="3" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="79"/>
+      <c r="A3" s="80"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="82"/>
       <c r="K3" s="19"/>
       <c r="L3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="M3" s="80" t="s">
+      <c r="M3" s="83" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="81"/>
+      <c r="N3" s="84"/>
       <c r="O3" s="21"/>
       <c r="P3" s="17"/>
       <c r="Q3" s="17"/>
@@ -2214,24 +2250,24 @@
       <c r="Z3" s="17"/>
     </row>
     <row r="4" spans="1:26" ht="17.25" thickBot="1">
-      <c r="A4" s="77"/>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="82"/>
       <c r="K4" s="19"/>
       <c r="L4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="M4" s="80" t="s">
+      <c r="M4" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="N4" s="81"/>
+      <c r="N4" s="84"/>
       <c r="O4" s="21"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
@@ -2246,24 +2282,24 @@
       <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A5" s="77"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="79"/>
+      <c r="A5" s="80"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
       <c r="K5" s="19"/>
       <c r="L5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="80" t="s">
+      <c r="M5" s="83" t="s">
         <v>38</v>
       </c>
-      <c r="N5" s="81"/>
+      <c r="N5" s="84"/>
       <c r="O5" s="21"/>
       <c r="P5" s="17"/>
       <c r="Q5" s="17"/>
@@ -2278,24 +2314,24 @@
       <c r="Z5" s="17"/>
     </row>
     <row r="6" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A6" s="77"/>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="78"/>
-      <c r="I6" s="78"/>
-      <c r="J6" s="79"/>
+      <c r="A6" s="80"/>
+      <c r="B6" s="81"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="82"/>
       <c r="K6" s="19"/>
       <c r="L6" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="M6" s="80" t="s">
+      <c r="M6" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="N6" s="81"/>
+      <c r="N6" s="84"/>
       <c r="O6" s="21"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17"/>
@@ -2310,24 +2346,24 @@
       <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="32.25" thickBot="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
-      <c r="H7" s="78"/>
-      <c r="I7" s="78"/>
-      <c r="J7" s="79"/>
+      <c r="A7" s="80"/>
+      <c r="B7" s="81"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="82"/>
       <c r="K7" s="19"/>
       <c r="L7" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="82">
+      <c r="M7" s="85">
         <v>43508</v>
       </c>
-      <c r="N7" s="83"/>
+      <c r="N7" s="86"/>
       <c r="O7" s="21"/>
       <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
@@ -2342,16 +2378,16 @@
       <c r="Z7" s="17"/>
     </row>
     <row r="8" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-      <c r="H8" s="78"/>
-      <c r="I8" s="78"/>
-      <c r="J8" s="79"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
+      <c r="I8" s="81"/>
+      <c r="J8" s="82"/>
       <c r="K8" s="17"/>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -2370,16 +2406,16 @@
       <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A9" s="77"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="78"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="78"/>
-      <c r="J9" s="79"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="82"/>
       <c r="K9" s="17"/>
       <c r="L9" s="21"/>
       <c r="M9" s="21"/>
@@ -2398,16 +2434,16 @@
       <c r="Z9" s="17"/>
     </row>
     <row r="10" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="78"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="78"/>
-      <c r="H10" s="78"/>
-      <c r="I10" s="78"/>
-      <c r="J10" s="79"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="82"/>
       <c r="K10" s="17"/>
       <c r="L10" s="23"/>
       <c r="M10" s="23"/>
@@ -2426,23 +2462,23 @@
       <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="78"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="78"/>
-      <c r="H11" s="78"/>
-      <c r="I11" s="78"/>
-      <c r="J11" s="79"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="81"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="82"/>
       <c r="K11" s="19"/>
-      <c r="L11" s="71" t="s">
+      <c r="L11" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="M11" s="72"/>
-      <c r="N11" s="72"/>
-      <c r="O11" s="73"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="76"/>
       <c r="P11" s="17"/>
       <c r="Q11" s="17"/>
       <c r="R11" s="17"/>
@@ -2456,16 +2492,16 @@
       <c r="Z11" s="17"/>
     </row>
     <row r="12" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="78"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78"/>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="79"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="81"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="82"/>
       <c r="K12" s="19"/>
       <c r="L12" s="24" t="s">
         <v>6</v>
@@ -2492,16 +2528,16 @@
       <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="31.5" thickBot="1">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="78"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="78"/>
-      <c r="H13" s="78"/>
-      <c r="I13" s="78"/>
-      <c r="J13" s="79"/>
+      <c r="A13" s="80"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="81"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="82"/>
       <c r="K13" s="19"/>
       <c r="L13" s="25" t="s">
         <v>36</v>
@@ -2528,16 +2564,16 @@
       <c r="Z13" s="17"/>
     </row>
     <row r="14" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="78"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="79"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="82"/>
       <c r="K14" s="19"/>
       <c r="L14" s="29"/>
       <c r="M14" s="30"/>
@@ -2556,16 +2592,16 @@
       <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="16.5" thickBot="1">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="78"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="78"/>
-      <c r="H15" s="78"/>
-      <c r="I15" s="78"/>
-      <c r="J15" s="79"/>
+      <c r="A15" s="80"/>
+      <c r="B15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="82"/>
       <c r="K15" s="19"/>
       <c r="L15" s="29"/>
       <c r="M15" s="30"/>
@@ -2584,16 +2620,16 @@
       <c r="Z15" s="17"/>
     </row>
     <row r="16" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="79"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="81"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="82"/>
       <c r="K16" s="19"/>
       <c r="L16" s="31"/>
       <c r="M16" s="32"/>
@@ -2612,16 +2648,16 @@
       <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="78"/>
-      <c r="J17" s="79"/>
+      <c r="A17" s="80"/>
+      <c r="B17" s="81"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="81"/>
+      <c r="H17" s="81"/>
+      <c r="I17" s="81"/>
+      <c r="J17" s="82"/>
       <c r="K17" s="19"/>
       <c r="L17" s="31"/>
       <c r="M17" s="32"/>
@@ -2640,16 +2676,16 @@
       <c r="Z17" s="17"/>
     </row>
     <row r="18" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="78"/>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="78"/>
-      <c r="J18" s="79"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="82"/>
       <c r="K18" s="19"/>
       <c r="L18" s="31"/>
       <c r="M18" s="32"/>
@@ -2668,16 +2704,16 @@
       <c r="Z18" s="17"/>
     </row>
     <row r="19" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78"/>
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="78"/>
-      <c r="I19" s="78"/>
-      <c r="J19" s="79"/>
+      <c r="A19" s="80"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="81"/>
+      <c r="H19" s="81"/>
+      <c r="I19" s="81"/>
+      <c r="J19" s="82"/>
       <c r="K19" s="19"/>
       <c r="L19" s="31"/>
       <c r="M19" s="32"/>
@@ -2696,16 +2732,16 @@
       <c r="Z19" s="17"/>
     </row>
     <row r="20" spans="1:26" ht="15.75" thickBot="1">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="79"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="81"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="81"/>
+      <c r="H20" s="81"/>
+      <c r="I20" s="81"/>
+      <c r="J20" s="82"/>
       <c r="K20" s="19"/>
       <c r="L20" s="31"/>
       <c r="M20" s="32"/>
@@ -30479,8 +30515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -30527,19 +30563,19 @@
       </c>
     </row>
     <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="87">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="87" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30597,11 +30633,11 @@
       <c r="AZ2" s="66"/>
     </row>
     <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="90"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -30657,11 +30693,11 @@
       <c r="AZ3" s="66"/>
     </row>
     <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="90"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -30717,11 +30753,11 @@
       <c r="AZ4" s="66"/>
     </row>
     <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="90"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -30777,11 +30813,11 @@
       <c r="AZ5" s="66"/>
     </row>
     <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -30837,8 +30873,8 @@
       <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="91"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="50" t="s">
         <v>114</v>
       </c>
@@ -30905,30 +30941,30 @@
       <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="87">
+      <c r="A9" s="93">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="88" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30943,11 +30979,11 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
@@ -30960,11 +30996,11 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="91"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
@@ -30977,30 +31013,30 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="97"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="98"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="87">
+      <c r="A13" s="93">
         <v>3</v>
       </c>
-      <c r="B13" s="87" t="s">
+      <c r="B13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="90" t="s">
+      <c r="C13" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="93" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -31058,11 +31094,11 @@
       <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="95"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
@@ -31118,11 +31154,11 @@
       <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
@@ -31178,11 +31214,11 @@
       <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
@@ -31238,11 +31274,11 @@
       <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="90"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
@@ -31298,11 +31334,11 @@
       <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="95"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="42" t="s">
         <v>51</v>
       </c>
@@ -31358,15 +31394,15 @@
       <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="90" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="90" t="s">
+      <c r="D19" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="95" t="s">
+      <c r="E19" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -31424,11 +31460,11 @@
       <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="95"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="90"/>
-      <c r="D20" s="90"/>
-      <c r="E20" s="95"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="42" t="s">
         <v>47</v>
       </c>
@@ -31484,11 +31520,11 @@
       <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="95"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="95"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="42" t="s">
         <v>48</v>
       </c>
@@ -31544,11 +31580,11 @@
       <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="95"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="90"/>
-      <c r="E22" s="95"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
@@ -31604,11 +31640,11 @@
       <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90"/>
-      <c r="E23" s="95"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="42" t="s">
         <v>50</v>
       </c>
@@ -31664,11 +31700,11 @@
       <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="91"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="91"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="42" t="s">
         <v>51</v>
       </c>
@@ -31724,30 +31760,30 @@
       <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="92"/>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="94"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="87">
+      <c r="A26" s="93">
         <v>4</v>
       </c>
-      <c r="B26" s="95" t="s">
+      <c r="B26" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="95" t="s">
-        <v>178</v>
-      </c>
-      <c r="D26" s="95" t="s">
+      <c r="C26" s="88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="95" t="s">
+      <c r="E26" s="88" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -31762,11 +31798,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -31779,21 +31815,21 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="92"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="94"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="87">
+      <c r="A29" s="93">
         <v>5</v>
       </c>
-      <c r="B29" s="87" t="s">
+      <c r="B29" s="93" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -31802,7 +31838,7 @@
       <c r="D29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="87" t="s">
+      <c r="E29" s="93" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -31862,15 +31898,15 @@
       <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="95"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="90" t="s">
+      <c r="D30" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="88"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="42" t="s">
         <v>122</v>
       </c>
@@ -31926,11 +31962,11 @@
       <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="91"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="91"/>
-      <c r="D31" s="90"/>
-      <c r="E31" s="89"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
@@ -31986,15 +32022,15 @@
       <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="84"/>
-      <c r="B32" s="85"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
     </row>
     <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A33" s="52">
@@ -33092,16 +33128,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -33118,13 +33151,16 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33135,10 +33171,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33185,19 +33221,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="87">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="90" t="s">
+      <c r="C2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="87" t="s">
+      <c r="D2" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="87" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33212,11 +33248,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="95"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="90"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33229,11 +33265,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="90"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="90"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33246,11 +33282,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="95"/>
-      <c r="B5" s="95"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="90"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33263,11 +33299,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="95"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="90"/>
-      <c r="D6" s="91"/>
-      <c r="E6" s="90"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -33280,8 +33316,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="91"/>
-      <c r="B7" s="95"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
@@ -33303,30 +33339,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="93"/>
-      <c r="F8" s="93"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="87">
+      <c r="A9" s="93">
         <v>2</v>
       </c>
-      <c r="B9" s="95" t="s">
+      <c r="B9" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="95" t="s">
+      <c r="C9" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="95" t="s">
+      <c r="D9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="95" t="s">
+      <c r="E9" s="88" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -33341,11 +33377,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="95"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="42" t="s">
         <v>75</v>
       </c>
@@ -33358,11 +33394,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="95"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="95"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
@@ -33375,11 +33411,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="95"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
@@ -33392,11 +33428,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="95"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="95"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="42" t="s">
         <v>81</v>
       </c>
@@ -33409,11 +33445,11 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="95"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="42" t="s">
         <v>85</v>
       </c>
@@ -33426,11 +33462,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="95"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="42" t="s">
         <v>82</v>
       </c>
@@ -33443,11 +33479,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="95"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
@@ -33460,11 +33496,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="95"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
@@ -33477,11 +33513,11 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="42" t="s">
         <v>88</v>
       </c>
@@ -33494,11 +33530,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="95"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="42" t="s">
         <v>89</v>
       </c>
@@ -33511,11 +33547,11 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="91"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="95"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="42" t="s">
         <v>90</v>
       </c>
@@ -33528,27 +33564,27 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="97"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="97"/>
-      <c r="I21" s="98"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="87">
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
+    </row>
+    <row r="22" spans="1:9" ht="18" customHeight="1">
+      <c r="A22" s="93">
         <v>3</v>
       </c>
-      <c r="B22" s="87" t="s">
-        <v>66</v>
+      <c r="B22" s="93" t="s">
+        <v>184</v>
       </c>
       <c r="C22" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="95" t="s">
+      <c r="D22" s="88" t="s">
         <v>103</v>
       </c>
       <c r="E22" s="87" t="s">
@@ -33566,11 +33602,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="95"/>
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="95"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="42" t="s">
         <v>68</v>
       </c>
@@ -33583,11 +33619,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="95"/>
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="95"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
@@ -33600,11 +33636,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="95"/>
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="95"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
@@ -33617,11 +33653,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="95"/>
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
-      <c r="D26" s="95"/>
-      <c r="E26" s="95"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="42" t="s">
         <v>71</v>
       </c>
@@ -33634,11 +33670,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="95"/>
-      <c r="B27" s="95"/>
-      <c r="C27" s="95"/>
-      <c r="D27" s="95"/>
-      <c r="E27" s="95"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="42" t="s">
         <v>73</v>
       </c>
@@ -33651,11 +33687,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
@@ -33668,11 +33704,11 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="42" t="s">
         <v>92</v>
       </c>
@@ -33680,18 +33716,18 @@
         <v>91</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="95"/>
-      <c r="B30" s="95"/>
-      <c r="C30" s="95"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="95"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="42" t="s">
         <v>74</v>
       </c>
@@ -33704,11 +33740,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="95"/>
-      <c r="B31" s="95"/>
-      <c r="C31" s="95"/>
-      <c r="D31" s="95"/>
-      <c r="E31" s="95"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="42" t="s">
         <v>75</v>
       </c>
@@ -33721,11 +33757,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="95"/>
-      <c r="B32" s="95"/>
-      <c r="C32" s="91"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="95"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="42" t="s">
         <v>76</v>
       </c>
@@ -33737,151 +33773,159 @@
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A33" s="96"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="97"/>
-      <c r="G33" s="97"/>
-      <c r="H33" s="97"/>
-      <c r="I33" s="98"/>
-    </row>
-    <row r="34" spans="1:9" ht="36">
-      <c r="A34" s="90">
+    <row r="33" spans="1:9">
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D33" s="71" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" s="73" t="s">
+        <v>187</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="H33" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
+    </row>
+    <row r="35" spans="1:9" ht="36">
+      <c r="A35" s="87">
         <v>4</v>
       </c>
-      <c r="B34" s="90" t="s">
+      <c r="B35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C34" s="87" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="90" t="s">
+      <c r="C35" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="D35" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E34" s="90" t="s">
+      <c r="E35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="F34" s="42" t="s">
+      <c r="F35" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G35" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H34" s="44" t="s">
+      <c r="H35" s="44" t="s">
         <v>133</v>
-      </c>
-      <c r="I34" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="105" customHeight="1">
-      <c r="A35" s="90"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>134</v>
       </c>
       <c r="I35" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A36" s="96"/>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="97"/>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="98"/>
-    </row>
-    <row r="37" spans="1:9" ht="54">
-      <c r="A37" s="52">
+    <row r="36" spans="1:9" ht="105" customHeight="1">
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>134</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
+    </row>
+    <row r="38" spans="1:9" ht="54">
+      <c r="A38" s="52">
         <v>5</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B38" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C38" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D38" s="52" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E38" s="52" t="s">
         <v>96</v>
       </c>
-      <c r="F37" s="42" t="s">
+      <c r="F38" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="G37" s="43" t="s">
+      <c r="G38" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="53" t="s">
+      <c r="H38" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="I37" s="43" t="s">
+      <c r="I38" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A38" s="96"/>
-      <c r="B38" s="97"/>
-      <c r="C38" s="97"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="97"/>
-      <c r="I38" s="98"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="87">
+    <row r="39" spans="1:9" ht="28.5" customHeight="1">
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="96"/>
+    </row>
+    <row r="40" spans="1:9" ht="18" customHeight="1">
+      <c r="A40" s="93">
         <v>6</v>
       </c>
-      <c r="B39" s="87" t="s">
+      <c r="B40" s="93" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>193</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>179</v>
+      </c>
+      <c r="E40" s="93" t="s">
         <v>180</v>
       </c>
-      <c r="C39" s="87" t="s">
+      <c r="F40" s="42" t="s">
         <v>181</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>182</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>183</v>
-      </c>
-      <c r="F39" s="42" t="s">
-        <v>184</v>
-      </c>
-      <c r="G39" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H39" s="53"/>
-      <c r="I39" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="95"/>
-      <c r="B40" s="95"/>
-      <c r="C40" s="95"/>
-      <c r="D40" s="95"/>
-      <c r="E40" s="95"/>
-      <c r="F40" s="42" t="s">
-        <v>51</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>91</v>
@@ -33892,13 +33936,13 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="95"/>
-      <c r="B41" s="95"/>
-      <c r="C41" s="95"/>
-      <c r="D41" s="95"/>
-      <c r="E41" s="95"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
       <c r="F41" s="42" t="s">
-        <v>185</v>
+        <v>51</v>
       </c>
       <c r="G41" s="43" t="s">
         <v>91</v>
@@ -33909,47 +33953,47 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="95"/>
-      <c r="B42" s="95"/>
-      <c r="C42" s="95"/>
-      <c r="D42" s="95"/>
-      <c r="E42" s="95"/>
-      <c r="F42" s="44" t="s">
-        <v>67</v>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
+      <c r="F42" s="42" t="s">
+        <v>182</v>
       </c>
       <c r="G42" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H42" s="44"/>
+        <v>91</v>
+      </c>
+      <c r="H42" s="53"/>
       <c r="I42" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="95"/>
-      <c r="B43" s="95"/>
-      <c r="C43" s="95"/>
-      <c r="D43" s="95"/>
-      <c r="E43" s="95"/>
-      <c r="F43" s="42" t="s">
-        <v>68</v>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
+      <c r="F43" s="44" t="s">
+        <v>67</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="H43" s="44"/>
       <c r="I43" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="36">
-      <c r="A44" s="95"/>
-      <c r="B44" s="95"/>
-      <c r="C44" s="95"/>
-      <c r="D44" s="95"/>
-      <c r="E44" s="95"/>
+    <row r="44" spans="1:9">
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
       <c r="F44" s="42" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>91</v>
@@ -33960,13 +34004,13 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="36">
-      <c r="A45" s="95"/>
-      <c r="B45" s="95"/>
-      <c r="C45" s="95"/>
-      <c r="D45" s="95"/>
-      <c r="E45" s="95"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G45" s="43" t="s">
         <v>91</v>
@@ -33976,14 +34020,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
-      <c r="A46" s="95"/>
-      <c r="B46" s="95"/>
-      <c r="C46" s="95"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="95"/>
+    <row r="46" spans="1:9" ht="36">
+      <c r="A46" s="88"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G46" s="43" t="s">
         <v>91</v>
@@ -33994,13 +34038,13 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="95"/>
-      <c r="B47" s="95"/>
-      <c r="C47" s="95"/>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G47" s="43" t="s">
         <v>91</v>
@@ -34011,13 +34055,13 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="95"/>
-      <c r="B48" s="95"/>
-      <c r="C48" s="95"/>
-      <c r="D48" s="95"/>
-      <c r="E48" s="95"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>91</v>
@@ -34027,14 +34071,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="36">
-      <c r="A49" s="95"/>
-      <c r="B49" s="95"/>
-      <c r="C49" s="95"/>
-      <c r="D49" s="95"/>
-      <c r="E49" s="95"/>
+    <row r="49" spans="1:9">
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>91</v>
@@ -34044,14 +34088,14 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
-      <c r="A50" s="95"/>
-      <c r="B50" s="95"/>
-      <c r="C50" s="95"/>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95"/>
+    <row r="50" spans="1:9" ht="36">
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
       <c r="F50" s="42" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G50" s="43" t="s">
         <v>91</v>
@@ -34062,13 +34106,13 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="91"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="91"/>
-      <c r="E51" s="91"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
       <c r="F51" s="42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>91</v>
@@ -34078,14 +34122,83 @@
         <v>30</v>
       </c>
     </row>
+    <row r="52" spans="1:9">
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
+      <c r="F52" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>195</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>192</v>
+      </c>
+      <c r="F53" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H53" s="53"/>
+      <c r="I53" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
+      <c r="F54" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="G54" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H54" s="53"/>
+      <c r="I54" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="A38:I38"/>
-    <mergeCell ref="A39:A51"/>
-    <mergeCell ref="B39:B51"/>
-    <mergeCell ref="C39:C51"/>
-    <mergeCell ref="D39:D51"/>
-    <mergeCell ref="E39:E51"/>
+  <mergeCells count="33">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="C22:C32"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -34097,19 +34210,10 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A33:I33"/>
-    <mergeCell ref="A22:A32"/>
-    <mergeCell ref="B22:B32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="C22:C32"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="A36:I36"/>
-    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:C52"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="E40:E52"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34145,10 +34249,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="102" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="103" t="s">
         <v>139</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -34156,22 +34260,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A3" s="99"/>
-      <c r="B3" s="100"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="58" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A4" s="99"/>
-      <c r="B4" s="100"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="58" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" thickBot="1">
-      <c r="A5" s="99"/>
-      <c r="B5" s="100"/>
+      <c r="A5" s="102"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="59" t="s">
         <v>174</v>
       </c>
@@ -34243,10 +34347,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="102" t="s">
         <v>158</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="103" t="s">
         <v>159</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -34254,57 +34358,57 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" thickBot="1">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
+      <c r="A13" s="102"/>
+      <c r="B13" s="103"/>
       <c r="C13" s="58" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="58" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
+      <c r="A15" s="102"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="61" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
+      <c r="A16" s="102"/>
+      <c r="B16" s="103"/>
       <c r="C16" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
+      <c r="A17" s="102"/>
+      <c r="B17" s="103"/>
       <c r="C17" s="61" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
+      <c r="A18" s="102"/>
+      <c r="B18" s="103"/>
       <c r="C18" s="61" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
+      <c r="A19" s="102"/>
+      <c r="B19" s="103"/>
       <c r="C19" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
+      <c r="A20" s="102"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="62" t="s">
         <v>167</v>
       </c>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FA5DAF-1369-4F07-B1E8-D9D3FF62632D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B400F-BC9F-4B54-9372-5C9145E12FC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Data Dictionary Website" sheetId="8" r:id="rId4"/>
     <sheet name="Data Dictionary Website &lt;NOTE&gt;" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <fileRecoveryPr autoRecover="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -783,28 +783,28 @@
     <t>Search account</t>
   </si>
   <si>
-    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 20.1, 20.2, 47, 48</t>
-  </si>
-  <si>
-    <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 46</t>
-  </si>
-  <si>
     <t>Tên phòng ban</t>
   </si>
   <si>
     <t>Tên nhóm</t>
   </si>
   <si>
-    <t>Add, Edit Phòng ban</t>
-  </si>
-  <si>
     <t>FR.45</t>
   </si>
   <si>
-    <t>FR.48</t>
+    <t>DD.WS.002</t>
   </si>
   <si>
-    <t>DD.WS.002</t>
+    <t>Add, Edit Phòng ban (Add, Edit Room)</t>
+  </si>
+  <si>
+    <t>FR.48, 49</t>
+  </si>
+  <si>
+    <t>FR.03, 04, 07, 09, 10, 11, 13, 14, 15, 16, 17, 18, 19, 26, 27, 28, 45, 20.1, 20.2, 47, 48, 49, 50, 51</t>
+  </si>
+  <si>
+    <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 46, 52</t>
   </si>
 </sst>
 </file>
@@ -1692,10 +1692,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1710,7 +1725,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,21 +1736,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -30515,8 +30515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -30563,19 +30563,19 @@
       </c>
     </row>
     <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="93">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30633,11 +30633,11 @@
       <c r="AZ2" s="66"/>
     </row>
     <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -30693,11 +30693,11 @@
       <c r="AZ3" s="66"/>
     </row>
     <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -30753,11 +30753,11 @@
       <c r="AZ4" s="66"/>
     </row>
     <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="87"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -30813,11 +30813,11 @@
       <c r="AZ5" s="66"/>
     </row>
     <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -30873,8 +30873,8 @@
       <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="89"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="50" t="s">
         <v>114</v>
       </c>
@@ -30941,30 +30941,30 @@
       <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="93">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="98" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="98" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="98" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30979,11 +30979,11 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
@@ -30996,11 +30996,11 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="89"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="A11" s="94"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
@@ -31013,30 +31013,30 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="101"/>
     </row>
     <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="93">
+      <c r="A13" s="90">
         <v>3</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="87" t="s">
+      <c r="C13" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="90" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -31094,11 +31094,11 @@
       <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
@@ -31154,11 +31154,11 @@
       <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
@@ -31214,11 +31214,11 @@
       <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
@@ -31274,11 +31274,11 @@
       <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
@@ -31334,11 +31334,11 @@
       <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="42" t="s">
         <v>51</v>
       </c>
@@ -31394,15 +31394,15 @@
       <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="87" t="s">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="87" t="s">
+      <c r="D19" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="98" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -31460,11 +31460,11 @@
       <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="42" t="s">
         <v>47</v>
       </c>
@@ -31520,11 +31520,11 @@
       <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="42" t="s">
         <v>48</v>
       </c>
@@ -31580,11 +31580,11 @@
       <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
@@ -31640,11 +31640,11 @@
       <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="42" t="s">
         <v>50</v>
       </c>
@@ -31700,11 +31700,11 @@
       <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="89"/>
+      <c r="A24" s="94"/>
+      <c r="B24" s="94"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="93"/>
+      <c r="E24" s="94"/>
       <c r="F24" s="42" t="s">
         <v>51</v>
       </c>
@@ -31760,30 +31760,30 @@
       <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92"/>
+      <c r="A25" s="95"/>
+      <c r="B25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="96"/>
+      <c r="F25" s="96"/>
+      <c r="G25" s="96"/>
+      <c r="H25" s="96"/>
+      <c r="I25" s="97"/>
     </row>
     <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="93">
+      <c r="A26" s="90">
         <v>4</v>
       </c>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="98" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="88" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" s="88" t="s">
+      <c r="C26" s="98" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="98" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="88" t="s">
+      <c r="E26" s="98" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -31798,11 +31798,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="98"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -31815,21 +31815,21 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
+      <c r="A28" s="95"/>
+      <c r="B28" s="96"/>
+      <c r="C28" s="96"/>
+      <c r="D28" s="96"/>
+      <c r="E28" s="96"/>
+      <c r="F28" s="96"/>
+      <c r="G28" s="96"/>
+      <c r="H28" s="96"/>
+      <c r="I28" s="97"/>
     </row>
     <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="93">
+      <c r="A29" s="90">
         <v>5</v>
       </c>
-      <c r="B29" s="93" t="s">
+      <c r="B29" s="90" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -31838,7 +31838,7 @@
       <c r="D29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="90" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -31898,15 +31898,15 @@
       <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="93" t="s">
+      <c r="A30" s="98"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="87" t="s">
+      <c r="D30" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="100"/>
+      <c r="E30" s="91"/>
       <c r="F30" s="42" t="s">
         <v>122</v>
       </c>
@@ -31962,11 +31962,11 @@
       <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="101"/>
+      <c r="A31" s="94"/>
+      <c r="B31" s="92"/>
+      <c r="C31" s="94"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
@@ -32022,15 +32022,15 @@
       <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
+      <c r="A32" s="87"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="88"/>
+      <c r="E32" s="88"/>
+      <c r="F32" s="88"/>
+      <c r="G32" s="88"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="89"/>
     </row>
     <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A33" s="52">
@@ -33128,13 +33128,16 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -33151,16 +33154,13 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33173,8 +33173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33221,19 +33221,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="93">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="87" t="s">
+      <c r="C2" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="93" t="s">
+      <c r="D2" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33248,11 +33248,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33265,11 +33265,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="87"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33282,11 +33282,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="87"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33299,11 +33299,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -33316,8 +33316,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="89"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="94"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
@@ -33339,30 +33339,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="97"/>
     </row>
     <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="93">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="98" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="88" t="s">
+      <c r="D9" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="98" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -33377,11 +33377,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="42" t="s">
         <v>75</v>
       </c>
@@ -33394,11 +33394,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
@@ -33411,11 +33411,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
@@ -33428,11 +33428,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="42" t="s">
         <v>81</v>
       </c>
@@ -33445,11 +33445,11 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="42" t="s">
         <v>85</v>
       </c>
@@ -33462,11 +33462,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="42" t="s">
         <v>82</v>
       </c>
@@ -33479,11 +33479,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
@@ -33496,11 +33496,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
@@ -33513,11 +33513,11 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="42" t="s">
         <v>88</v>
       </c>
@@ -33530,11 +33530,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="42" t="s">
         <v>89</v>
       </c>
@@ -33547,11 +33547,11 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="89"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
+      <c r="A20" s="94"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="42" t="s">
         <v>90</v>
       </c>
@@ -33564,30 +33564,30 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="96"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="101"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="93">
+      <c r="A22" s="90">
         <v>3</v>
       </c>
-      <c r="B22" s="93" t="s">
+      <c r="B22" s="90" t="s">
         <v>184</v>
       </c>
-      <c r="C22" s="87" t="s">
+      <c r="C22" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="88" t="s">
+      <c r="D22" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="87" t="s">
+      <c r="E22" s="93" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="44" t="s">
@@ -33602,11 +33602,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="87"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="42" t="s">
         <v>68</v>
       </c>
@@ -33619,11 +33619,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="87"/>
+      <c r="A24" s="98"/>
+      <c r="B24" s="98"/>
+      <c r="C24" s="93"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="93"/>
       <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
@@ -33636,11 +33636,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
+      <c r="A25" s="98"/>
+      <c r="B25" s="98"/>
+      <c r="C25" s="93"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="93"/>
       <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
@@ -33653,11 +33653,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="42" t="s">
         <v>71</v>
       </c>
@@ -33670,11 +33670,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="42" t="s">
         <v>73</v>
       </c>
@@ -33687,11 +33687,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="87"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
@@ -33704,11 +33704,11 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="87"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="42" t="s">
         <v>92</v>
       </c>
@@ -33723,11 +33723,11 @@
       </c>
     </row>
     <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="87"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="42" t="s">
         <v>74</v>
       </c>
@@ -33740,11 +33740,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="42" t="s">
         <v>75</v>
       </c>
@@ -33757,11 +33757,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="87"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="94"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="42" t="s">
         <v>76</v>
       </c>
@@ -33774,8 +33774,8 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
       <c r="C33" s="72" t="s">
         <v>185</v>
       </c>
@@ -33799,30 +33799,30 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
+      <c r="A34" s="99"/>
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="100"/>
+      <c r="F34" s="100"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="100"/>
+      <c r="I34" s="101"/>
     </row>
     <row r="35" spans="1:9" ht="36">
-      <c r="A35" s="87">
+      <c r="A35" s="93">
         <v>4</v>
       </c>
-      <c r="B35" s="87" t="s">
+      <c r="B35" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="D35" s="87" t="s">
+      <c r="C35" s="90" t="s">
+        <v>194</v>
+      </c>
+      <c r="D35" s="93" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="87" t="s">
+      <c r="E35" s="93" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="42" t="s">
@@ -33839,11 +33839,11 @@
       </c>
     </row>
     <row r="36" spans="1:9" ht="105" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
+      <c r="C36" s="94"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
       <c r="F36" s="42" t="s">
         <v>92</v>
       </c>
@@ -33858,15 +33858,15 @@
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="101"/>
     </row>
     <row r="38" spans="1:9" ht="54">
       <c r="A38" s="52">
@@ -33898,30 +33898,30 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="96"/>
+      <c r="A39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
+      <c r="E39" s="100"/>
+      <c r="F39" s="100"/>
+      <c r="G39" s="100"/>
+      <c r="H39" s="100"/>
+      <c r="I39" s="101"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="93">
+      <c r="A40" s="90">
         <v>6</v>
       </c>
-      <c r="B40" s="93" t="s">
+      <c r="B40" s="90" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="93" t="s">
-        <v>193</v>
-      </c>
-      <c r="D40" s="93" t="s">
+      <c r="C40" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D40" s="90" t="s">
         <v>179</v>
       </c>
-      <c r="E40" s="93" t="s">
+      <c r="E40" s="90" t="s">
         <v>180</v>
       </c>
       <c r="F40" s="42" t="s">
@@ -33936,11 +33936,11 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
+      <c r="A41" s="98"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
       <c r="F41" s="42" t="s">
         <v>51</v>
       </c>
@@ -33953,11 +33953,11 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
+      <c r="A42" s="98"/>
+      <c r="B42" s="98"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="98"/>
       <c r="F42" s="42" t="s">
         <v>182</v>
       </c>
@@ -33970,11 +33970,11 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
+      <c r="A43" s="98"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="98"/>
       <c r="F43" s="44" t="s">
         <v>67</v>
       </c>
@@ -33987,11 +33987,11 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="42" t="s">
         <v>68</v>
       </c>
@@ -34004,11 +34004,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="36">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="42" t="s">
         <v>69</v>
       </c>
@@ -34021,11 +34021,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="42" t="s">
         <v>70</v>
       </c>
@@ -34038,11 +34038,11 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="42" t="s">
         <v>71</v>
       </c>
@@ -34055,11 +34055,11 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
       <c r="F48" s="42" t="s">
         <v>73</v>
       </c>
@@ -34072,11 +34072,11 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
       <c r="F49" s="42" t="s">
         <v>72</v>
       </c>
@@ -34089,11 +34089,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="36">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="42" t="s">
         <v>74</v>
       </c>
@@ -34106,11 +34106,11 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="42" t="s">
         <v>75</v>
       </c>
@@ -34123,11 +34123,11 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="94"/>
+      <c r="D52" s="94"/>
+      <c r="E52" s="94"/>
       <c r="F52" s="42" t="s">
         <v>76</v>
       </c>
@@ -34140,19 +34140,19 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="93" t="s">
-        <v>194</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>195</v>
-      </c>
-      <c r="E53" s="93" t="s">
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="90" t="s">
+        <v>193</v>
+      </c>
+      <c r="D53" s="90" t="s">
+        <v>191</v>
+      </c>
+      <c r="E53" s="90" t="s">
         <v>192</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G53" s="43" t="s">
         <v>91</v>
@@ -34163,13 +34163,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
+      <c r="A54" s="94"/>
+      <c r="B54" s="94"/>
+      <c r="C54" s="94"/>
+      <c r="D54" s="94"/>
+      <c r="E54" s="94"/>
       <c r="F54" s="42" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G54" s="43" t="s">
         <v>91</v>
@@ -34181,24 +34181,10 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="A39:I39"/>
+    <mergeCell ref="C40:C52"/>
+    <mergeCell ref="D40:D52"/>
+    <mergeCell ref="E40:E52"/>
     <mergeCell ref="A9:A20"/>
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
@@ -34210,10 +34196,24 @@
     <mergeCell ref="A8:I8"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C20"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:C52"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="E40:E52"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A34:I34"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="B22:B33"/>
+    <mergeCell ref="E22:E32"/>
+    <mergeCell ref="D22:D32"/>
+    <mergeCell ref="C22:C32"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="D53:D54"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87B400F-BC9F-4B54-9372-5C9145E12FC2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A1FA3-61E2-4EFA-BA6B-372226C9F0CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="194">
   <si>
     <t>Project Name:</t>
   </si>
@@ -463,13 +463,7 @@
     <t>Map/String</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
     <t>Tên đăng nhập đồng thời là Email</t>
-  </si>
-  <si>
-    <t>Mật khẩu mặc định: "123123"</t>
   </si>
   <si>
     <t>Data type</t>
@@ -768,9 +762,6 @@
     <t>Năm (Year)</t>
   </si>
   <si>
-    <t>Mặc định (Default)</t>
-  </si>
-  <si>
     <t>Quản lý tài khoản (Account management)</t>
   </si>
   <si>
@@ -805,6 +796,9 @@
   </si>
   <si>
     <t>FR.01, 02, 05, 06, 08, 12, 14.2, 21, 22, 23, 24, 25, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 46, 52</t>
+  </si>
+  <si>
+    <t>Mặc định 123123(Default)</t>
   </si>
 </sst>
 </file>
@@ -1692,25 +1686,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1725,7 +1704,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1736,6 +1715,21 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -30515,7 +30509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
@@ -30563,19 +30557,19 @@
       </c>
     </row>
     <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="87" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="87" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30633,11 +30627,11 @@
       <c r="AZ2" s="66"/>
     </row>
     <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -30693,11 +30687,11 @@
       <c r="AZ3" s="66"/>
     </row>
     <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -30753,11 +30747,11 @@
       <c r="AZ4" s="66"/>
     </row>
     <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -30813,11 +30807,11 @@
       <c r="AZ5" s="66"/>
     </row>
     <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -30873,8 +30867,8 @@
       <c r="AZ6" s="66"/>
     </row>
     <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="94"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="50" t="s">
         <v>114</v>
       </c>
@@ -30941,30 +30935,30 @@
       <c r="AZ7" s="66"/>
     </row>
     <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="90">
+      <c r="A9" s="93">
         <v>2</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="88" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="88" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="88" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30979,11 +30973,11 @@
       </c>
     </row>
     <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
@@ -30996,11 +30990,11 @@
       </c>
     </row>
     <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="94"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="89"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
@@ -31013,30 +31007,30 @@
       </c>
     </row>
     <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="101"/>
+      <c r="A12" s="94"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="95"/>
+      <c r="G12" s="95"/>
+      <c r="H12" s="95"/>
+      <c r="I12" s="96"/>
     </row>
     <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="90">
+      <c r="A13" s="93">
         <v>3</v>
       </c>
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="93" t="s">
+      <c r="C13" s="87" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="93" t="s">
+      <c r="D13" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="93" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="42" t="s">
@@ -31094,11 +31088,11 @@
       <c r="AZ13" s="66"/>
     </row>
     <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="98"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="42" t="s">
         <v>47</v>
       </c>
@@ -31154,11 +31148,11 @@
       <c r="AZ14" s="66"/>
     </row>
     <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="87"/>
+      <c r="D15" s="87"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="42" t="s">
         <v>48</v>
       </c>
@@ -31214,11 +31208,11 @@
       <c r="AZ15" s="66"/>
     </row>
     <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="98"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="42" t="s">
         <v>49</v>
       </c>
@@ -31274,11 +31268,11 @@
       <c r="AZ16" s="66"/>
     </row>
     <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="42" t="s">
         <v>50</v>
       </c>
@@ -31334,11 +31328,11 @@
       <c r="AZ17" s="66"/>
     </row>
     <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="98"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="42" t="s">
         <v>51</v>
       </c>
@@ -31394,15 +31388,15 @@
       <c r="AZ18" s="66"/>
     </row>
     <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="93" t="s">
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="87" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="93" t="s">
+      <c r="D19" s="87" t="s">
         <v>110</v>
       </c>
-      <c r="E19" s="98" t="s">
+      <c r="E19" s="88" t="s">
         <v>52</v>
       </c>
       <c r="F19" s="42" t="s">
@@ -31460,11 +31454,11 @@
       <c r="AZ19" s="66"/>
     </row>
     <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="88"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="42" t="s">
         <v>47</v>
       </c>
@@ -31520,11 +31514,11 @@
       <c r="AZ20" s="66"/>
     </row>
     <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="98"/>
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="88"/>
       <c r="F21" s="42" t="s">
         <v>48</v>
       </c>
@@ -31580,11 +31574,11 @@
       <c r="AZ21" s="66"/>
     </row>
     <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="98"/>
+      <c r="A22" s="88"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="88"/>
       <c r="F22" s="42" t="s">
         <v>49</v>
       </c>
@@ -31640,11 +31634,11 @@
       <c r="AZ22" s="66"/>
     </row>
     <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="98"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="88"/>
       <c r="F23" s="42" t="s">
         <v>50</v>
       </c>
@@ -31700,11 +31694,11 @@
       <c r="AZ23" s="66"/>
     </row>
     <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="94"/>
-      <c r="B24" s="94"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="93"/>
-      <c r="E24" s="94"/>
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="89"/>
       <c r="F24" s="42" t="s">
         <v>51</v>
       </c>
@@ -31760,30 +31754,30 @@
       <c r="AZ24" s="66"/>
     </row>
     <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96"/>
-      <c r="C25" s="96"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="96"/>
-      <c r="F25" s="96"/>
-      <c r="G25" s="96"/>
-      <c r="H25" s="96"/>
-      <c r="I25" s="97"/>
+      <c r="A25" s="90"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="91"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="91"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="92"/>
     </row>
     <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="90">
+      <c r="A26" s="93">
         <v>4</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="88" t="s">
         <v>93</v>
       </c>
-      <c r="C26" s="98" t="s">
-        <v>195</v>
-      </c>
-      <c r="D26" s="98" t="s">
+      <c r="C26" s="88" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" s="88" t="s">
         <v>111</v>
       </c>
-      <c r="E26" s="98" t="s">
+      <c r="E26" s="88" t="s">
         <v>93</v>
       </c>
       <c r="F26" s="42" t="s">
@@ -31798,11 +31792,11 @@
       </c>
     </row>
     <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="98"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="98"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
       <c r="F27" s="42" t="s">
         <v>92</v>
       </c>
@@ -31815,21 +31809,21 @@
       </c>
     </row>
     <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="95"/>
-      <c r="B28" s="96"/>
-      <c r="C28" s="96"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="96"/>
-      <c r="F28" s="96"/>
-      <c r="G28" s="96"/>
-      <c r="H28" s="96"/>
-      <c r="I28" s="97"/>
+      <c r="A28" s="90"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="92"/>
     </row>
     <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="90">
+      <c r="A29" s="93">
         <v>5</v>
       </c>
-      <c r="B29" s="90" t="s">
+      <c r="B29" s="93" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="64" t="s">
@@ -31838,7 +31832,7 @@
       <c r="D29" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="E29" s="90" t="s">
+      <c r="E29" s="93" t="s">
         <v>95</v>
       </c>
       <c r="F29" s="42" t="s">
@@ -31898,15 +31892,15 @@
       <c r="AZ29" s="66"/>
     </row>
     <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="91"/>
-      <c r="C30" s="90" t="s">
+      <c r="A30" s="88"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="93" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="93" t="s">
+      <c r="D30" s="87" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="91"/>
+      <c r="E30" s="100"/>
       <c r="F30" s="42" t="s">
         <v>122</v>
       </c>
@@ -31962,11 +31956,11 @@
       <c r="AZ30" s="66"/>
     </row>
     <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="94"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="94"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="92"/>
+      <c r="A31" s="89"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="87"/>
+      <c r="E31" s="101"/>
       <c r="F31" s="42" t="s">
         <v>123</v>
       </c>
@@ -32022,15 +32016,15 @@
       <c r="AZ31" s="66"/>
     </row>
     <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="87"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="88"/>
-      <c r="E32" s="88"/>
-      <c r="F32" s="88"/>
-      <c r="G32" s="88"/>
-      <c r="H32" s="88"/>
-      <c r="I32" s="89"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="99"/>
     </row>
     <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A33" s="52">
@@ -33128,16 +33122,13 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="A32:I32"/>
+    <mergeCell ref="E29:E31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A28:I28"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="A29:A31"/>
     <mergeCell ref="C26:C27"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A25:I25"/>
@@ -33154,13 +33145,16 @@
     <mergeCell ref="A13:A24"/>
     <mergeCell ref="D9:D11"/>
     <mergeCell ref="D13:D18"/>
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="D19:D24"/>
+    <mergeCell ref="E19:E24"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C11"/>
+    <mergeCell ref="C13:C18"/>
+    <mergeCell ref="C19:C24"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33173,8 +33167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35:C36"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33221,19 +33215,19 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="93">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="87" t="s">
         <v>112</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="87" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33248,11 +33242,11 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="87"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33265,11 +33259,11 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="88"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="87"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33282,11 +33276,11 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="87"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33299,11 +33293,11 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="88"/>
+      <c r="B6" s="88"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="87"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
@@ -33316,8 +33310,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="94"/>
-      <c r="B7" s="98"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="52" t="s">
         <v>113</v>
       </c>
@@ -33339,30 +33333,30 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="97"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="E8" s="91"/>
+      <c r="F8" s="91"/>
+      <c r="G8" s="91"/>
+      <c r="H8" s="91"/>
+      <c r="I8" s="92"/>
     </row>
     <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="90">
+      <c r="A9" s="93">
         <v>2</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="88" t="s">
         <v>127</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="88" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="88" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -33377,11 +33371,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="88"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
       <c r="F10" s="42" t="s">
         <v>75</v>
       </c>
@@ -33394,11 +33388,11 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="88"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
       <c r="F11" s="42" t="s">
         <v>84</v>
       </c>
@@ -33411,11 +33405,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="88"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
@@ -33428,11 +33422,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="88"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
       <c r="F13" s="42" t="s">
         <v>81</v>
       </c>
@@ -33445,11 +33439,11 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+      <c r="A14" s="88"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
       <c r="F14" s="42" t="s">
         <v>85</v>
       </c>
@@ -33462,11 +33456,11 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="88"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
       <c r="F15" s="42" t="s">
         <v>82</v>
       </c>
@@ -33479,11 +33473,11 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="A16" s="88"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="88"/>
+      <c r="E16" s="88"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
@@ -33496,11 +33490,11 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="88"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
@@ -33513,11 +33507,11 @@
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="A18" s="88"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
       <c r="F18" s="42" t="s">
         <v>88</v>
       </c>
@@ -33530,11 +33524,11 @@
       </c>
     </row>
     <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="A19" s="88"/>
+      <c r="B19" s="88"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
       <c r="F19" s="42" t="s">
         <v>89</v>
       </c>
@@ -33547,11 +33541,11 @@
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="94"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="89"/>
+      <c r="B20" s="88"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
       <c r="F20" s="42" t="s">
         <v>90</v>
       </c>
@@ -33564,30 +33558,30 @@
       </c>
     </row>
     <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
+      <c r="A21" s="94"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="H21" s="95"/>
+      <c r="I21" s="96"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="90">
+      <c r="A22" s="93">
         <v>3</v>
       </c>
-      <c r="B22" s="90" t="s">
-        <v>184</v>
-      </c>
-      <c r="C22" s="93" t="s">
+      <c r="B22" s="93" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="D22" s="98" t="s">
+      <c r="D22" s="88" t="s">
         <v>103</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="87" t="s">
         <v>66</v>
       </c>
       <c r="F22" s="44" t="s">
@@ -33602,11 +33596,11 @@
       </c>
     </row>
     <row r="23" spans="1:9">
-      <c r="A23" s="98"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="93"/>
+      <c r="A23" s="88"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="88"/>
+      <c r="E23" s="87"/>
       <c r="F23" s="42" t="s">
         <v>68</v>
       </c>
@@ -33619,11 +33613,11 @@
       </c>
     </row>
     <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="98"/>
-      <c r="B24" s="98"/>
-      <c r="C24" s="93"/>
-      <c r="D24" s="98"/>
-      <c r="E24" s="93"/>
+      <c r="A24" s="88"/>
+      <c r="B24" s="88"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="87"/>
       <c r="F24" s="42" t="s">
         <v>69</v>
       </c>
@@ -33636,11 +33630,11 @@
       </c>
     </row>
     <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="98"/>
-      <c r="B25" s="98"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="93"/>
+      <c r="A25" s="88"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="87"/>
       <c r="F25" s="42" t="s">
         <v>70</v>
       </c>
@@ -33653,11 +33647,11 @@
       </c>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="88"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="87"/>
       <c r="F26" s="42" t="s">
         <v>71</v>
       </c>
@@ -33670,11 +33664,11 @@
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="88"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="87"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="87"/>
       <c r="F27" s="42" t="s">
         <v>73</v>
       </c>
@@ -33687,11 +33681,11 @@
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="93"/>
+      <c r="A28" s="88"/>
+      <c r="B28" s="88"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="88"/>
+      <c r="E28" s="87"/>
       <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
@@ -33704,11 +33698,11 @@
       </c>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="93"/>
+      <c r="A29" s="88"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="88"/>
+      <c r="E29" s="87"/>
       <c r="F29" s="42" t="s">
         <v>92</v>
       </c>
@@ -33716,18 +33710,18 @@
         <v>91</v>
       </c>
       <c r="H29" s="44" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="93"/>
+      <c r="A30" s="88"/>
+      <c r="B30" s="88"/>
+      <c r="C30" s="87"/>
+      <c r="D30" s="88"/>
+      <c r="E30" s="87"/>
       <c r="F30" s="42" t="s">
         <v>74</v>
       </c>
@@ -33740,11 +33734,11 @@
       </c>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="93"/>
+      <c r="A31" s="88"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="87"/>
+      <c r="D31" s="88"/>
+      <c r="E31" s="87"/>
       <c r="F31" s="42" t="s">
         <v>75</v>
       </c>
@@ -33757,11 +33751,11 @@
       </c>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="94"/>
-      <c r="E32" s="93"/>
+      <c r="A32" s="88"/>
+      <c r="B32" s="88"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="89"/>
+      <c r="E32" s="87"/>
       <c r="F32" s="42" t="s">
         <v>76</v>
       </c>
@@ -33774,22 +33768,22 @@
       </c>
     </row>
     <row r="33" spans="1:9">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
+      <c r="A33" s="88"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="72" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D33" s="71" t="s">
         <v>101</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F33" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G33" s="43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H33" s="44" t="s">
         <v>59</v>
@@ -33799,30 +33793,30 @@
       </c>
     </row>
     <row r="34" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A34" s="99"/>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100"/>
-      <c r="E34" s="100"/>
-      <c r="F34" s="100"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
+      <c r="A34" s="94"/>
+      <c r="B34" s="95"/>
+      <c r="C34" s="95"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="95"/>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="H34" s="95"/>
+      <c r="I34" s="96"/>
     </row>
     <row r="35" spans="1:9" ht="36">
-      <c r="A35" s="93">
+      <c r="A35" s="87">
         <v>4</v>
       </c>
-      <c r="B35" s="93" t="s">
+      <c r="B35" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="90" t="s">
-        <v>194</v>
-      </c>
-      <c r="D35" s="93" t="s">
+      <c r="C35" s="93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D35" s="87" t="s">
         <v>104</v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="E35" s="87" t="s">
         <v>93</v>
       </c>
       <c r="F35" s="42" t="s">
@@ -33832,41 +33826,39 @@
         <v>91</v>
       </c>
       <c r="H35" s="44" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I35" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="105" customHeight="1">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
+      <c r="A36" s="87"/>
+      <c r="B36" s="87"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="87"/>
+      <c r="E36" s="87"/>
       <c r="F36" s="42" t="s">
         <v>92</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H36" s="44" t="s">
-        <v>134</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H36" s="44"/>
       <c r="I36" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A37" s="99"/>
-      <c r="B37" s="100"/>
-      <c r="C37" s="100"/>
-      <c r="D37" s="100"/>
-      <c r="E37" s="100"/>
-      <c r="F37" s="100"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="100"/>
-      <c r="I37" s="101"/>
+      <c r="A37" s="94"/>
+      <c r="B37" s="95"/>
+      <c r="C37" s="95"/>
+      <c r="D37" s="95"/>
+      <c r="E37" s="95"/>
+      <c r="F37" s="95"/>
+      <c r="G37" s="95"/>
+      <c r="H37" s="95"/>
+      <c r="I37" s="96"/>
     </row>
     <row r="38" spans="1:9" ht="54">
       <c r="A38" s="52">
@@ -33898,34 +33890,34 @@
       </c>
     </row>
     <row r="39" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A39" s="99"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="100"/>
-      <c r="F39" s="100"/>
-      <c r="G39" s="100"/>
-      <c r="H39" s="100"/>
-      <c r="I39" s="101"/>
+      <c r="A39" s="94"/>
+      <c r="B39" s="95"/>
+      <c r="C39" s="95"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="95"/>
+      <c r="G39" s="95"/>
+      <c r="H39" s="95"/>
+      <c r="I39" s="96"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="90">
+      <c r="A40" s="93">
         <v>6</v>
       </c>
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="93" t="s">
+        <v>176</v>
+      </c>
+      <c r="C40" s="93" t="s">
+        <v>187</v>
+      </c>
+      <c r="D40" s="93" t="s">
+        <v>177</v>
+      </c>
+      <c r="E40" s="93" t="s">
         <v>178</v>
       </c>
-      <c r="C40" s="90" t="s">
-        <v>190</v>
-      </c>
-      <c r="D40" s="90" t="s">
+      <c r="F40" s="42" t="s">
         <v>179</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>180</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>181</v>
       </c>
       <c r="G40" s="43" t="s">
         <v>91</v>
@@ -33936,11 +33928,11 @@
       </c>
     </row>
     <row r="41" spans="1:9">
-      <c r="A41" s="98"/>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
+      <c r="A41" s="88"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="88"/>
+      <c r="E41" s="88"/>
       <c r="F41" s="42" t="s">
         <v>51</v>
       </c>
@@ -33953,13 +33945,13 @@
       </c>
     </row>
     <row r="42" spans="1:9">
-      <c r="A42" s="98"/>
-      <c r="B42" s="98"/>
-      <c r="C42" s="98"/>
-      <c r="D42" s="98"/>
-      <c r="E42" s="98"/>
+      <c r="A42" s="88"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="88"/>
+      <c r="E42" s="88"/>
       <c r="F42" s="42" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>91</v>
@@ -33970,11 +33962,11 @@
       </c>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="98"/>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="98"/>
+      <c r="A43" s="88"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="88"/>
+      <c r="E43" s="88"/>
       <c r="F43" s="44" t="s">
         <v>67</v>
       </c>
@@ -33987,11 +33979,11 @@
       </c>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
+      <c r="A44" s="88"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
       <c r="F44" s="42" t="s">
         <v>68</v>
       </c>
@@ -34004,11 +33996,11 @@
       </c>
     </row>
     <row r="45" spans="1:9" ht="36">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
+      <c r="A45" s="88"/>
+      <c r="B45" s="88"/>
+      <c r="C45" s="88"/>
+      <c r="D45" s="88"/>
+      <c r="E45" s="88"/>
       <c r="F45" s="42" t="s">
         <v>69</v>
       </c>
@@ -34021,11 +34013,11 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
+      <c r="A46" s="88"/>
+      <c r="B46" s="88"/>
+      <c r="C46" s="88"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="88"/>
       <c r="F46" s="42" t="s">
         <v>70</v>
       </c>
@@ -34038,11 +34030,11 @@
       </c>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+      <c r="A47" s="88"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="88"/>
+      <c r="E47" s="88"/>
       <c r="F47" s="42" t="s">
         <v>71</v>
       </c>
@@ -34055,11 +34047,11 @@
       </c>
     </row>
     <row r="48" spans="1:9">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
+      <c r="A48" s="88"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="88"/>
+      <c r="E48" s="88"/>
       <c r="F48" s="42" t="s">
         <v>73</v>
       </c>
@@ -34072,11 +34064,11 @@
       </c>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
+      <c r="A49" s="88"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="88"/>
+      <c r="E49" s="88"/>
       <c r="F49" s="42" t="s">
         <v>72</v>
       </c>
@@ -34089,11 +34081,11 @@
       </c>
     </row>
     <row r="50" spans="1:9" ht="36">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
+      <c r="A50" s="88"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="88"/>
+      <c r="E50" s="88"/>
       <c r="F50" s="42" t="s">
         <v>74</v>
       </c>
@@ -34106,11 +34098,11 @@
       </c>
     </row>
     <row r="51" spans="1:9">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+      <c r="A51" s="88"/>
+      <c r="B51" s="88"/>
+      <c r="C51" s="88"/>
+      <c r="D51" s="88"/>
+      <c r="E51" s="88"/>
       <c r="F51" s="42" t="s">
         <v>75</v>
       </c>
@@ -34123,11 +34115,11 @@
       </c>
     </row>
     <row r="52" spans="1:9">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="94"/>
-      <c r="D52" s="94"/>
-      <c r="E52" s="94"/>
+      <c r="A52" s="88"/>
+      <c r="B52" s="88"/>
+      <c r="C52" s="89"/>
+      <c r="D52" s="89"/>
+      <c r="E52" s="89"/>
       <c r="F52" s="42" t="s">
         <v>76</v>
       </c>
@@ -34140,19 +34132,19 @@
       </c>
     </row>
     <row r="53" spans="1:9">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="90" t="s">
-        <v>193</v>
-      </c>
-      <c r="D53" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="E53" s="90" t="s">
-        <v>192</v>
+      <c r="A53" s="88"/>
+      <c r="B53" s="88"/>
+      <c r="C53" s="93" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="93" t="s">
+        <v>188</v>
+      </c>
+      <c r="E53" s="93" t="s">
+        <v>189</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G53" s="43" t="s">
         <v>91</v>
@@ -34163,13 +34155,13 @@
       </c>
     </row>
     <row r="54" spans="1:9">
-      <c r="A54" s="94"/>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94"/>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
+      <c r="A54" s="89"/>
+      <c r="B54" s="89"/>
+      <c r="C54" s="89"/>
+      <c r="D54" s="89"/>
+      <c r="E54" s="89"/>
       <c r="F54" s="42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="G54" s="43" t="s">
         <v>91</v>
@@ -34181,6 +34173,23 @@
     </row>
   </sheetData>
   <mergeCells count="33">
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B40:B54"/>
+    <mergeCell ref="A40:A54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="A37:I37"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="C2:C6"/>
     <mergeCell ref="A39:I39"/>
     <mergeCell ref="C40:C52"/>
     <mergeCell ref="D40:D52"/>
@@ -34189,12 +34198,6 @@
     <mergeCell ref="B9:B20"/>
     <mergeCell ref="D9:D20"/>
     <mergeCell ref="E9:E20"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C2:C6"/>
     <mergeCell ref="C9:C20"/>
     <mergeCell ref="A21:I21"/>
     <mergeCell ref="A34:I34"/>
@@ -34203,17 +34206,6 @@
     <mergeCell ref="E22:E32"/>
     <mergeCell ref="D22:D32"/>
     <mergeCell ref="C22:C32"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="D53:D54"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34239,200 +34231,200 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="55" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="55" t="s">
         <v>135</v>
-      </c>
-      <c r="B1" s="55" t="s">
-        <v>136</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="102" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>137</v>
+      </c>
+      <c r="C2" s="57" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="103" t="s">
-        <v>139</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" thickBot="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="58" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75.75" thickBot="1">
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" thickBot="1">
       <c r="A5" s="102"/>
       <c r="B5" s="103"/>
       <c r="C5" s="59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="54" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B6" s="60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C6" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1">
       <c r="A7" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>145</v>
-      </c>
-      <c r="B7" s="55" t="s">
-        <v>146</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1">
       <c r="A8" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>151</v>
-      </c>
-      <c r="B9" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="54" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C10" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="54" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B11" s="55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" thickBot="1">
       <c r="A12" s="102" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>158</v>
-      </c>
-      <c r="B12" s="103" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" thickBot="1">
       <c r="A13" s="102"/>
       <c r="B13" s="103"/>
       <c r="C13" s="58" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75.75" thickBot="1">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="58" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="102"/>
       <c r="B15" s="103"/>
       <c r="C15" s="61" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="102"/>
       <c r="B16" s="103"/>
       <c r="C16" s="61" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="102"/>
       <c r="B17" s="103"/>
       <c r="C17" s="61" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="102"/>
       <c r="B18" s="103"/>
       <c r="C18" s="61" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="102"/>
       <c r="B19" s="103"/>
       <c r="C19" s="61" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="102"/>
       <c r="B20" s="103"/>
       <c r="C20" s="62" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="54" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="55" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C21" s="55" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="47.25" thickBot="1">
       <c r="A22" s="54" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C22" s="55" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" thickBot="1">
@@ -34440,10 +34432,10 @@
         <v>91</v>
       </c>
       <c r="B23" s="55" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C23" s="55" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8A1FA3-61E2-4EFA-BA6B-372226C9F0CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A320F04A-610B-4A77-856D-A3C4767D42B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="200">
   <si>
     <t>Project Name:</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>Dự án bất động sản (Project management)</t>
-  </si>
-  <si>
-    <t>Số tiền (money)</t>
   </si>
   <si>
     <t>Tổng quan (overview)</t>
@@ -799,6 +796,27 @@
   </si>
   <si>
     <t>Mặc định 123123(Default)</t>
+  </si>
+  <si>
+    <t>Số tiền (Price)</t>
+  </si>
+  <si>
+    <t>ID Room</t>
+  </si>
+  <si>
+    <t>ID Project</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Chỉ được xem (just to see)</t>
+  </si>
+  <si>
+    <t>Lựa chọn trạng thái dự án (project status selection)</t>
+  </si>
+  <si>
+    <t>Không giới hạn ký tự (no character limit)</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1620,9 +1638,6 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1646,6 +1661,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1686,10 +1704,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1704,7 +1737,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1716,26 +1749,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1767,13 +1794,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>9294</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -30507,10 +30534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AZ161"/>
+  <dimension ref="A1:BA173"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -30522,12 +30549,13 @@
     <col min="6" max="6" width="30.28515625" style="49" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
-    <col min="10" max="52" width="9.140625" style="66"/>
-    <col min="53" max="16384" width="9.140625" style="41"/>
+    <col min="9" max="9" width="34.85546875" style="41" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="41" customWidth="1"/>
+    <col min="11" max="53" width="9.140625" style="65"/>
+    <col min="54" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52">
+    <row r="1" spans="1:53">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -30553,327 +30581,327 @@
         <v>29</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A2" s="93">
+    <row r="2" spans="1:53" s="45" customFormat="1" ht="54">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2" s="87" t="s">
+      <c r="C2" s="93" t="s">
+        <v>98</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
-      <c r="P2" s="66"/>
-      <c r="Q2" s="66"/>
-      <c r="R2" s="66"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="66"/>
-      <c r="U2" s="66"/>
-      <c r="V2" s="66"/>
-      <c r="W2" s="66"/>
-      <c r="X2" s="66"/>
-      <c r="Y2" s="66"/>
-      <c r="Z2" s="66"/>
-      <c r="AA2" s="66"/>
-      <c r="AB2" s="66"/>
-      <c r="AC2" s="66"/>
-      <c r="AD2" s="66"/>
-      <c r="AE2" s="66"/>
-      <c r="AF2" s="66"/>
-      <c r="AG2" s="66"/>
-      <c r="AH2" s="66"/>
-      <c r="AI2" s="66"/>
-      <c r="AJ2" s="66"/>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="66"/>
-      <c r="AP2" s="66"/>
-      <c r="AQ2" s="66"/>
-      <c r="AR2" s="66"/>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="66"/>
-      <c r="AU2" s="66"/>
-      <c r="AV2" s="66"/>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-    </row>
-    <row r="3" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87"/>
+        <v>130</v>
+      </c>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="104"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
+      <c r="AO2" s="65"/>
+      <c r="AP2" s="65"/>
+      <c r="AQ2" s="65"/>
+      <c r="AR2" s="65"/>
+      <c r="AS2" s="65"/>
+      <c r="AT2" s="65"/>
+      <c r="AU2" s="65"/>
+      <c r="AV2" s="65"/>
+      <c r="AW2" s="65"/>
+      <c r="AX2" s="65"/>
+      <c r="AY2" s="65"/>
+      <c r="AZ2" s="65"/>
+      <c r="BA2" s="65"/>
+    </row>
+    <row r="3" spans="1:53" s="45" customFormat="1" ht="36">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="66"/>
-      <c r="K3" s="66"/>
-      <c r="L3" s="66"/>
-      <c r="M3" s="66"/>
-      <c r="N3" s="66"/>
-      <c r="O3" s="66"/>
-      <c r="P3" s="66"/>
-      <c r="Q3" s="66"/>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
-      <c r="AO3" s="66"/>
-      <c r="AP3" s="66"/>
-      <c r="AQ3" s="66"/>
-      <c r="AR3" s="66"/>
-      <c r="AS3" s="66"/>
-      <c r="AT3" s="66"/>
-      <c r="AU3" s="66"/>
-      <c r="AV3" s="66"/>
-      <c r="AW3" s="66"/>
-      <c r="AX3" s="66"/>
-      <c r="AY3" s="66"/>
-      <c r="AZ3" s="66"/>
-    </row>
-    <row r="4" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="87"/>
+        <v>130</v>
+      </c>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
+      <c r="AO3" s="65"/>
+      <c r="AP3" s="65"/>
+      <c r="AQ3" s="65"/>
+      <c r="AR3" s="65"/>
+      <c r="AS3" s="65"/>
+      <c r="AT3" s="65"/>
+      <c r="AU3" s="65"/>
+      <c r="AV3" s="65"/>
+      <c r="AW3" s="65"/>
+      <c r="AX3" s="65"/>
+      <c r="AY3" s="65"/>
+      <c r="AZ3" s="65"/>
+      <c r="BA3" s="65"/>
+    </row>
+    <row r="4" spans="1:53" s="45" customFormat="1" ht="36">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="66"/>
-      <c r="AO4" s="66"/>
-      <c r="AP4" s="66"/>
-      <c r="AQ4" s="66"/>
-      <c r="AR4" s="66"/>
-      <c r="AS4" s="66"/>
-      <c r="AT4" s="66"/>
-      <c r="AU4" s="66"/>
-      <c r="AV4" s="66"/>
-      <c r="AW4" s="66"/>
-      <c r="AX4" s="66"/>
-      <c r="AY4" s="66"/>
-      <c r="AZ4" s="66"/>
-    </row>
-    <row r="5" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="87"/>
+        <v>130</v>
+      </c>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
+      <c r="AB4" s="65"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="65"/>
+      <c r="AE4" s="65"/>
+      <c r="AF4" s="65"/>
+      <c r="AG4" s="65"/>
+      <c r="AH4" s="65"/>
+      <c r="AI4" s="65"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="65"/>
+      <c r="AL4" s="65"/>
+      <c r="AM4" s="65"/>
+      <c r="AN4" s="65"/>
+      <c r="AO4" s="65"/>
+      <c r="AP4" s="65"/>
+      <c r="AQ4" s="65"/>
+      <c r="AR4" s="65"/>
+      <c r="AS4" s="65"/>
+      <c r="AT4" s="65"/>
+      <c r="AU4" s="65"/>
+      <c r="AV4" s="65"/>
+      <c r="AW4" s="65"/>
+      <c r="AX4" s="65"/>
+      <c r="AY4" s="65"/>
+      <c r="AZ4" s="65"/>
+      <c r="BA4" s="65"/>
+    </row>
+    <row r="5" spans="1:53" s="45" customFormat="1" ht="54">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="66"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="66"/>
-      <c r="M5" s="66"/>
-      <c r="N5" s="66"/>
-      <c r="O5" s="66"/>
-      <c r="P5" s="66"/>
-      <c r="Q5" s="66"/>
-      <c r="R5" s="66"/>
-      <c r="S5" s="66"/>
-      <c r="T5" s="66"/>
-      <c r="U5" s="66"/>
-      <c r="V5" s="66"/>
-      <c r="W5" s="66"/>
-      <c r="X5" s="66"/>
-      <c r="Y5" s="66"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="66"/>
-      <c r="AB5" s="66"/>
-      <c r="AC5" s="66"/>
-      <c r="AD5" s="66"/>
-      <c r="AE5" s="66"/>
-      <c r="AF5" s="66"/>
-      <c r="AG5" s="66"/>
-      <c r="AH5" s="66"/>
-      <c r="AI5" s="66"/>
-      <c r="AJ5" s="66"/>
-      <c r="AK5" s="66"/>
-      <c r="AL5" s="66"/>
-      <c r="AM5" s="66"/>
-      <c r="AN5" s="66"/>
-      <c r="AO5" s="66"/>
-      <c r="AP5" s="66"/>
-      <c r="AQ5" s="66"/>
-      <c r="AR5" s="66"/>
-      <c r="AS5" s="66"/>
-      <c r="AT5" s="66"/>
-      <c r="AU5" s="66"/>
-      <c r="AV5" s="66"/>
-      <c r="AW5" s="66"/>
-      <c r="AX5" s="66"/>
-      <c r="AY5" s="66"/>
-      <c r="AZ5" s="66"/>
-    </row>
-    <row r="6" spans="1:52" s="45" customFormat="1" ht="54">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
+        <v>130</v>
+      </c>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
+      <c r="K5" s="65"/>
+      <c r="L5" s="65"/>
+      <c r="M5" s="65"/>
+      <c r="N5" s="65"/>
+      <c r="O5" s="65"/>
+      <c r="P5" s="65"/>
+      <c r="Q5" s="65"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="65"/>
+      <c r="U5" s="65"/>
+      <c r="V5" s="65"/>
+      <c r="W5" s="65"/>
+      <c r="X5" s="65"/>
+      <c r="Y5" s="65"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="65"/>
+      <c r="AB5" s="65"/>
+      <c r="AC5" s="65"/>
+      <c r="AD5" s="65"/>
+      <c r="AE5" s="65"/>
+      <c r="AF5" s="65"/>
+      <c r="AG5" s="65"/>
+      <c r="AH5" s="65"/>
+      <c r="AI5" s="65"/>
+      <c r="AJ5" s="65"/>
+      <c r="AK5" s="65"/>
+      <c r="AL5" s="65"/>
+      <c r="AM5" s="65"/>
+      <c r="AN5" s="65"/>
+      <c r="AO5" s="65"/>
+      <c r="AP5" s="65"/>
+      <c r="AQ5" s="65"/>
+      <c r="AR5" s="65"/>
+      <c r="AS5" s="65"/>
+      <c r="AT5" s="65"/>
+      <c r="AU5" s="65"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+    </row>
+    <row r="6" spans="1:53" s="45" customFormat="1" ht="54">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
-      <c r="AD6" s="66"/>
-      <c r="AE6" s="66"/>
-      <c r="AF6" s="66"/>
-      <c r="AG6" s="66"/>
-      <c r="AH6" s="66"/>
-      <c r="AI6" s="66"/>
-      <c r="AJ6" s="66"/>
-      <c r="AK6" s="66"/>
-      <c r="AL6" s="66"/>
-      <c r="AM6" s="66"/>
-      <c r="AN6" s="66"/>
-      <c r="AO6" s="66"/>
-      <c r="AP6" s="66"/>
-      <c r="AQ6" s="66"/>
-      <c r="AR6" s="66"/>
-      <c r="AS6" s="66"/>
-      <c r="AT6" s="66"/>
-      <c r="AU6" s="66"/>
-      <c r="AV6" s="66"/>
-      <c r="AW6" s="66"/>
-      <c r="AX6" s="66"/>
-      <c r="AY6" s="66"/>
-      <c r="AZ6" s="66"/>
-    </row>
-    <row r="7" spans="1:52" s="45" customFormat="1" ht="36">
-      <c r="A7" s="89"/>
-      <c r="B7" s="88"/>
+        <v>130</v>
+      </c>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="65"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
+      <c r="AB6" s="65"/>
+      <c r="AC6" s="65"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="65"/>
+      <c r="AF6" s="65"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="65"/>
+      <c r="AI6" s="65"/>
+      <c r="AJ6" s="65"/>
+      <c r="AK6" s="65"/>
+      <c r="AL6" s="65"/>
+      <c r="AM6" s="65"/>
+      <c r="AN6" s="65"/>
+      <c r="AO6" s="65"/>
+      <c r="AP6" s="65"/>
+      <c r="AQ6" s="65"/>
+      <c r="AR6" s="65"/>
+      <c r="AS6" s="65"/>
+      <c r="AT6" s="65"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+    </row>
+    <row r="7" spans="1:53" s="45" customFormat="1" ht="36">
+      <c r="A7" s="94"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="63" t="s">
         <v>43</v>
@@ -30882,2279 +30910,2507 @@
         <v>58</v>
       </c>
       <c r="G7" s="43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I7" s="43" t="s">
+        <v>199</v>
+      </c>
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="66"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="66"/>
-      <c r="M7" s="66"/>
-      <c r="N7" s="66"/>
-      <c r="O7" s="66"/>
-      <c r="P7" s="66"/>
-      <c r="Q7" s="66"/>
-      <c r="R7" s="66"/>
-      <c r="S7" s="66"/>
-      <c r="T7" s="66"/>
-      <c r="U7" s="66"/>
-      <c r="V7" s="66"/>
-      <c r="W7" s="66"/>
-      <c r="X7" s="66"/>
-      <c r="Y7" s="66"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="66"/>
-      <c r="AB7" s="66"/>
-      <c r="AC7" s="66"/>
-      <c r="AD7" s="66"/>
-      <c r="AE7" s="66"/>
-      <c r="AF7" s="66"/>
-      <c r="AG7" s="66"/>
-      <c r="AH7" s="66"/>
-      <c r="AI7" s="66"/>
-      <c r="AJ7" s="66"/>
-      <c r="AK7" s="66"/>
-      <c r="AL7" s="66"/>
-      <c r="AM7" s="66"/>
-      <c r="AN7" s="66"/>
-      <c r="AO7" s="66"/>
-      <c r="AP7" s="66"/>
-      <c r="AQ7" s="66"/>
-      <c r="AR7" s="66"/>
-      <c r="AS7" s="66"/>
-      <c r="AT7" s="66"/>
-      <c r="AU7" s="66"/>
-      <c r="AV7" s="66"/>
-      <c r="AW7" s="66"/>
-      <c r="AX7" s="66"/>
-      <c r="AY7" s="66"/>
-      <c r="AZ7" s="66"/>
-    </row>
-    <row r="8" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="1:52" ht="36">
-      <c r="A9" s="93">
+      <c r="K7" s="65"/>
+      <c r="L7" s="65"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="65"/>
+      <c r="O7" s="65"/>
+      <c r="P7" s="65"/>
+      <c r="Q7" s="65"/>
+      <c r="R7" s="65"/>
+      <c r="S7" s="65"/>
+      <c r="T7" s="65"/>
+      <c r="U7" s="65"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="65"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="65"/>
+      <c r="AB7" s="65"/>
+      <c r="AC7" s="65"/>
+      <c r="AD7" s="65"/>
+      <c r="AE7" s="65"/>
+      <c r="AF7" s="65"/>
+      <c r="AG7" s="65"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="65"/>
+      <c r="AJ7" s="65"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="65"/>
+      <c r="AM7" s="65"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="65"/>
+      <c r="AP7" s="65"/>
+      <c r="AQ7" s="65"/>
+      <c r="AR7" s="65"/>
+      <c r="AS7" s="65"/>
+      <c r="AT7" s="65"/>
+      <c r="AU7" s="65"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="65"/>
+    </row>
+    <row r="8" spans="1:53" ht="28.5" customHeight="1">
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="97"/>
+    </row>
+    <row r="9" spans="1:53" ht="36">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="88" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>108</v>
-      </c>
-      <c r="E9" s="88" t="s">
+      <c r="C9" s="98" t="s">
+        <v>124</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="98" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>63</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:52" ht="36">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
+        <v>130</v>
+      </c>
+      <c r="H9" s="104"/>
+      <c r="I9" s="104" t="s">
+        <v>198</v>
+      </c>
+      <c r="J9" s="104"/>
+    </row>
+    <row r="10" spans="1:53" ht="36">
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:52" ht="36">
-      <c r="A11" s="89"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
+        <v>130</v>
+      </c>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
+    </row>
+    <row r="11" spans="1:53" ht="36">
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91"/>
+    </row>
+    <row r="12" spans="1:53">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H12" s="91"/>
+      <c r="I12" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="J12" s="91"/>
+    </row>
+    <row r="13" spans="1:53">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
+    </row>
+    <row r="14" spans="1:53">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
+    </row>
+    <row r="15" spans="1:53" ht="36">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
+    </row>
+    <row r="16" spans="1:53" ht="36">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
+    </row>
+    <row r="17" spans="1:53">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+    </row>
+    <row r="18" spans="1:53">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+    </row>
+    <row r="19" spans="1:53" ht="36">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
+    </row>
+    <row r="20" spans="1:53" ht="36">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+    </row>
+    <row r="21" spans="1:53">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
+    </row>
+    <row r="22" spans="1:53" ht="36">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
+    </row>
+    <row r="23" spans="1:53">
+      <c r="A23" s="94"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+    </row>
+    <row r="24" spans="1:53" ht="28.5" customHeight="1">
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+    </row>
+    <row r="25" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A25" s="90">
+        <v>3</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="D25" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="E25" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="104"/>
+      <c r="I25" s="104"/>
+      <c r="J25" s="43" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A12" s="94"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="95"/>
-      <c r="G12" s="95"/>
-      <c r="H12" s="95"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A13" s="93">
-        <v>3</v>
-      </c>
-      <c r="B13" s="93" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="87" t="s">
+      <c r="K25" s="65"/>
+      <c r="L25" s="65"/>
+      <c r="M25" s="65"/>
+      <c r="N25" s="65"/>
+      <c r="O25" s="65"/>
+      <c r="P25" s="65"/>
+      <c r="Q25" s="65"/>
+      <c r="R25" s="65"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="65"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="65"/>
+      <c r="AG25" s="65"/>
+      <c r="AH25" s="65"/>
+      <c r="AI25" s="65"/>
+      <c r="AJ25" s="65"/>
+      <c r="AK25" s="65"/>
+      <c r="AL25" s="65"/>
+      <c r="AM25" s="65"/>
+      <c r="AN25" s="65"/>
+      <c r="AO25" s="65"/>
+      <c r="AP25" s="65"/>
+      <c r="AQ25" s="65"/>
+      <c r="AR25" s="65"/>
+      <c r="AS25" s="65"/>
+      <c r="AT25" s="65"/>
+      <c r="AU25" s="65"/>
+      <c r="AV25" s="65"/>
+      <c r="AW25" s="65"/>
+      <c r="AX25" s="65"/>
+      <c r="AY25" s="65"/>
+      <c r="AZ25" s="65"/>
+      <c r="BA25" s="65"/>
+    </row>
+    <row r="26" spans="1:53" s="45" customFormat="1">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
+      <c r="J26" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K26" s="65"/>
+      <c r="L26" s="65"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="65"/>
+      <c r="O26" s="65"/>
+      <c r="P26" s="65"/>
+      <c r="Q26" s="65"/>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="65"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="65"/>
+      <c r="AG26" s="65"/>
+      <c r="AH26" s="65"/>
+      <c r="AI26" s="65"/>
+      <c r="AJ26" s="65"/>
+      <c r="AK26" s="65"/>
+      <c r="AL26" s="65"/>
+      <c r="AM26" s="65"/>
+      <c r="AN26" s="65"/>
+      <c r="AO26" s="65"/>
+      <c r="AP26" s="65"/>
+      <c r="AQ26" s="65"/>
+      <c r="AR26" s="65"/>
+      <c r="AS26" s="65"/>
+      <c r="AT26" s="65"/>
+      <c r="AU26" s="65"/>
+      <c r="AV26" s="65"/>
+      <c r="AW26" s="65"/>
+      <c r="AX26" s="65"/>
+      <c r="AY26" s="65"/>
+      <c r="AZ26" s="65"/>
+      <c r="BA26" s="65"/>
+    </row>
+    <row r="27" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
+      <c r="J27" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K27" s="65"/>
+      <c r="L27" s="65"/>
+      <c r="M27" s="65"/>
+      <c r="N27" s="65"/>
+      <c r="O27" s="65"/>
+      <c r="P27" s="65"/>
+      <c r="Q27" s="65"/>
+      <c r="R27" s="65"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
+      <c r="Y27" s="65"/>
+      <c r="Z27" s="65"/>
+      <c r="AA27" s="65"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="65"/>
+      <c r="AG27" s="65"/>
+      <c r="AH27" s="65"/>
+      <c r="AI27" s="65"/>
+      <c r="AJ27" s="65"/>
+      <c r="AK27" s="65"/>
+      <c r="AL27" s="65"/>
+      <c r="AM27" s="65"/>
+      <c r="AN27" s="65"/>
+      <c r="AO27" s="65"/>
+      <c r="AP27" s="65"/>
+      <c r="AQ27" s="65"/>
+      <c r="AR27" s="65"/>
+      <c r="AS27" s="65"/>
+      <c r="AT27" s="65"/>
+      <c r="AU27" s="65"/>
+      <c r="AV27" s="65"/>
+      <c r="AW27" s="65"/>
+      <c r="AX27" s="65"/>
+      <c r="AY27" s="65"/>
+      <c r="AZ27" s="65"/>
+      <c r="BA27" s="65"/>
+    </row>
+    <row r="28" spans="1:53" s="45" customFormat="1">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="65"/>
+      <c r="L28" s="65"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="65"/>
+      <c r="O28" s="65"/>
+      <c r="P28" s="65"/>
+      <c r="Q28" s="65"/>
+      <c r="R28" s="65"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="65"/>
+      <c r="X28" s="65"/>
+      <c r="Y28" s="65"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="65"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="65"/>
+      <c r="AG28" s="65"/>
+      <c r="AH28" s="65"/>
+      <c r="AI28" s="65"/>
+      <c r="AJ28" s="65"/>
+      <c r="AK28" s="65"/>
+      <c r="AL28" s="65"/>
+      <c r="AM28" s="65"/>
+      <c r="AN28" s="65"/>
+      <c r="AO28" s="65"/>
+      <c r="AP28" s="65"/>
+      <c r="AQ28" s="65"/>
+      <c r="AR28" s="65"/>
+      <c r="AS28" s="65"/>
+      <c r="AT28" s="65"/>
+      <c r="AU28" s="65"/>
+      <c r="AV28" s="65"/>
+      <c r="AW28" s="65"/>
+      <c r="AX28" s="65"/>
+      <c r="AY28" s="65"/>
+      <c r="AZ28" s="65"/>
+      <c r="BA28" s="65"/>
+    </row>
+    <row r="29" spans="1:53" s="45" customFormat="1">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
+      <c r="J29" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K29" s="65"/>
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="65"/>
+      <c r="R29" s="65"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="65"/>
+      <c r="AH29" s="65"/>
+      <c r="AI29" s="65"/>
+      <c r="AJ29" s="65"/>
+      <c r="AK29" s="65"/>
+      <c r="AL29" s="65"/>
+      <c r="AM29" s="65"/>
+      <c r="AN29" s="65"/>
+      <c r="AO29" s="65"/>
+      <c r="AP29" s="65"/>
+      <c r="AQ29" s="65"/>
+      <c r="AR29" s="65"/>
+      <c r="AS29" s="65"/>
+      <c r="AT29" s="65"/>
+      <c r="AU29" s="65"/>
+      <c r="AV29" s="65"/>
+      <c r="AW29" s="65"/>
+      <c r="AX29" s="65"/>
+      <c r="AY29" s="65"/>
+      <c r="AZ29" s="65"/>
+      <c r="BA29" s="65"/>
+    </row>
+    <row r="30" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K30" s="65"/>
+      <c r="L30" s="65"/>
+      <c r="M30" s="65"/>
+      <c r="N30" s="65"/>
+      <c r="O30" s="65"/>
+      <c r="P30" s="65"/>
+      <c r="Q30" s="65"/>
+      <c r="R30" s="65"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="65"/>
+      <c r="X30" s="65"/>
+      <c r="Y30" s="65"/>
+      <c r="Z30" s="65"/>
+      <c r="AA30" s="65"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="65"/>
+      <c r="AG30" s="65"/>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="65"/>
+      <c r="AJ30" s="65"/>
+      <c r="AK30" s="65"/>
+      <c r="AL30" s="65"/>
+      <c r="AM30" s="65"/>
+      <c r="AN30" s="65"/>
+      <c r="AO30" s="65"/>
+      <c r="AP30" s="65"/>
+      <c r="AQ30" s="65"/>
+      <c r="AR30" s="65"/>
+      <c r="AS30" s="65"/>
+      <c r="AT30" s="65"/>
+      <c r="AU30" s="65"/>
+      <c r="AV30" s="65"/>
+      <c r="AW30" s="65"/>
+      <c r="AX30" s="65"/>
+      <c r="AY30" s="65"/>
+      <c r="AZ30" s="65"/>
+      <c r="BA30" s="65"/>
+    </row>
+    <row r="31" spans="1:53" s="45" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D13" s="87" t="s">
+      <c r="D31" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="42" t="s">
+      <c r="E31" s="98" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="G13" s="43" t="s">
+      <c r="G31" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K31" s="65"/>
+      <c r="L31" s="65"/>
+      <c r="M31" s="65"/>
+      <c r="N31" s="65"/>
+      <c r="O31" s="65"/>
+      <c r="P31" s="65"/>
+      <c r="Q31" s="65"/>
+      <c r="R31" s="65"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="65"/>
+      <c r="X31" s="65"/>
+      <c r="Y31" s="65"/>
+      <c r="Z31" s="65"/>
+      <c r="AA31" s="65"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="65"/>
+      <c r="AG31" s="65"/>
+      <c r="AH31" s="65"/>
+      <c r="AI31" s="65"/>
+      <c r="AJ31" s="65"/>
+      <c r="AK31" s="65"/>
+      <c r="AL31" s="65"/>
+      <c r="AM31" s="65"/>
+      <c r="AN31" s="65"/>
+      <c r="AO31" s="65"/>
+      <c r="AP31" s="65"/>
+      <c r="AQ31" s="65"/>
+      <c r="AR31" s="65"/>
+      <c r="AS31" s="65"/>
+      <c r="AT31" s="65"/>
+      <c r="AU31" s="65"/>
+      <c r="AV31" s="65"/>
+      <c r="AW31" s="65"/>
+      <c r="AX31" s="65"/>
+      <c r="AY31" s="65"/>
+      <c r="AZ31" s="65"/>
+      <c r="BA31" s="65"/>
+    </row>
+    <row r="32" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
+      <c r="J32" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K32" s="65"/>
+      <c r="L32" s="65"/>
+      <c r="M32" s="65"/>
+      <c r="N32" s="65"/>
+      <c r="O32" s="65"/>
+      <c r="P32" s="65"/>
+      <c r="Q32" s="65"/>
+      <c r="R32" s="65"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="65"/>
+      <c r="X32" s="65"/>
+      <c r="Y32" s="65"/>
+      <c r="Z32" s="65"/>
+      <c r="AA32" s="65"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="65"/>
+      <c r="AG32" s="65"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="65"/>
+      <c r="AJ32" s="65"/>
+      <c r="AK32" s="65"/>
+      <c r="AL32" s="65"/>
+      <c r="AM32" s="65"/>
+      <c r="AN32" s="65"/>
+      <c r="AO32" s="65"/>
+      <c r="AP32" s="65"/>
+      <c r="AQ32" s="65"/>
+      <c r="AR32" s="65"/>
+      <c r="AS32" s="65"/>
+      <c r="AT32" s="65"/>
+      <c r="AU32" s="65"/>
+      <c r="AV32" s="65"/>
+      <c r="AW32" s="65"/>
+      <c r="AX32" s="65"/>
+      <c r="AY32" s="65"/>
+      <c r="AZ32" s="65"/>
+      <c r="BA32" s="65"/>
+    </row>
+    <row r="33" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
+      <c r="J33" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K33" s="65"/>
+      <c r="L33" s="65"/>
+      <c r="M33" s="65"/>
+      <c r="N33" s="65"/>
+      <c r="O33" s="65"/>
+      <c r="P33" s="65"/>
+      <c r="Q33" s="65"/>
+      <c r="R33" s="65"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="65"/>
+      <c r="X33" s="65"/>
+      <c r="Y33" s="65"/>
+      <c r="Z33" s="65"/>
+      <c r="AA33" s="65"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="65"/>
+      <c r="AG33" s="65"/>
+      <c r="AH33" s="65"/>
+      <c r="AI33" s="65"/>
+      <c r="AJ33" s="65"/>
+      <c r="AK33" s="65"/>
+      <c r="AL33" s="65"/>
+      <c r="AM33" s="65"/>
+      <c r="AN33" s="65"/>
+      <c r="AO33" s="65"/>
+      <c r="AP33" s="65"/>
+      <c r="AQ33" s="65"/>
+      <c r="AR33" s="65"/>
+      <c r="AS33" s="65"/>
+      <c r="AT33" s="65"/>
+      <c r="AU33" s="65"/>
+      <c r="AV33" s="65"/>
+      <c r="AW33" s="65"/>
+      <c r="AX33" s="65"/>
+      <c r="AY33" s="65"/>
+      <c r="AZ33" s="65"/>
+      <c r="BA33" s="65"/>
+    </row>
+    <row r="34" spans="1:53" s="45" customFormat="1" ht="15" customHeight="1">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
+      <c r="J34" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="K34" s="65"/>
+      <c r="L34" s="65"/>
+      <c r="M34" s="65"/>
+      <c r="N34" s="65"/>
+      <c r="O34" s="65"/>
+      <c r="P34" s="65"/>
+      <c r="Q34" s="65"/>
+      <c r="R34" s="65"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="65"/>
+      <c r="X34" s="65"/>
+      <c r="Y34" s="65"/>
+      <c r="Z34" s="65"/>
+      <c r="AA34" s="65"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="65"/>
+      <c r="AG34" s="65"/>
+      <c r="AH34" s="65"/>
+      <c r="AI34" s="65"/>
+      <c r="AJ34" s="65"/>
+      <c r="AK34" s="65"/>
+      <c r="AL34" s="65"/>
+      <c r="AM34" s="65"/>
+      <c r="AN34" s="65"/>
+      <c r="AO34" s="65"/>
+      <c r="AP34" s="65"/>
+      <c r="AQ34" s="65"/>
+      <c r="AR34" s="65"/>
+      <c r="AS34" s="65"/>
+      <c r="AT34" s="65"/>
+      <c r="AU34" s="65"/>
+      <c r="AV34" s="65"/>
+      <c r="AW34" s="65"/>
+      <c r="AX34" s="65"/>
+      <c r="AY34" s="65"/>
+      <c r="AZ34" s="65"/>
+      <c r="BA34" s="65"/>
+    </row>
+    <row r="35" spans="1:53" s="45" customFormat="1" ht="16.5" customHeight="1">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K35" s="65"/>
+      <c r="L35" s="65"/>
+      <c r="M35" s="65"/>
+      <c r="N35" s="65"/>
+      <c r="O35" s="65"/>
+      <c r="P35" s="65"/>
+      <c r="Q35" s="65"/>
+      <c r="R35" s="65"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="65"/>
+      <c r="X35" s="65"/>
+      <c r="Y35" s="65"/>
+      <c r="Z35" s="65"/>
+      <c r="AA35" s="65"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="65"/>
+      <c r="AG35" s="65"/>
+      <c r="AH35" s="65"/>
+      <c r="AI35" s="65"/>
+      <c r="AJ35" s="65"/>
+      <c r="AK35" s="65"/>
+      <c r="AL35" s="65"/>
+      <c r="AM35" s="65"/>
+      <c r="AN35" s="65"/>
+      <c r="AO35" s="65"/>
+      <c r="AP35" s="65"/>
+      <c r="AQ35" s="65"/>
+      <c r="AR35" s="65"/>
+      <c r="AS35" s="65"/>
+      <c r="AT35" s="65"/>
+      <c r="AU35" s="65"/>
+      <c r="AV35" s="65"/>
+      <c r="AW35" s="65"/>
+      <c r="AX35" s="65"/>
+      <c r="AY35" s="65"/>
+      <c r="AZ35" s="65"/>
+      <c r="BA35" s="65"/>
+    </row>
+    <row r="36" spans="1:53" s="45" customFormat="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="94"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="65"/>
+      <c r="L36" s="65"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="65"/>
+      <c r="P36" s="65"/>
+      <c r="Q36" s="65"/>
+      <c r="R36" s="65"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="65"/>
+      <c r="X36" s="65"/>
+      <c r="Y36" s="65"/>
+      <c r="Z36" s="65"/>
+      <c r="AA36" s="65"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="65"/>
+      <c r="AG36" s="65"/>
+      <c r="AH36" s="65"/>
+      <c r="AI36" s="65"/>
+      <c r="AJ36" s="65"/>
+      <c r="AK36" s="65"/>
+      <c r="AL36" s="65"/>
+      <c r="AM36" s="65"/>
+      <c r="AN36" s="65"/>
+      <c r="AO36" s="65"/>
+      <c r="AP36" s="65"/>
+      <c r="AQ36" s="65"/>
+      <c r="AR36" s="65"/>
+      <c r="AS36" s="65"/>
+      <c r="AT36" s="65"/>
+      <c r="AU36" s="65"/>
+      <c r="AV36" s="65"/>
+      <c r="AW36" s="65"/>
+      <c r="AX36" s="65"/>
+      <c r="AY36" s="65"/>
+      <c r="AZ36" s="65"/>
+      <c r="BA36" s="65"/>
+    </row>
+    <row r="37" spans="1:53" ht="28.5" customHeight="1">
+      <c r="A37" s="95"/>
+      <c r="B37" s="96"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+    </row>
+    <row r="38" spans="1:53" ht="72.75" customHeight="1">
+      <c r="A38" s="90">
+        <v>4</v>
+      </c>
+      <c r="B38" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="98" t="s">
+        <v>191</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="98" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:53" ht="145.5" customHeight="1">
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="43" t="s">
+      <c r="G39" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J13" s="66"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="66"/>
-      <c r="N13" s="66"/>
-      <c r="O13" s="66"/>
-      <c r="P13" s="66"/>
-      <c r="Q13" s="66"/>
-      <c r="R13" s="66"/>
-      <c r="S13" s="66"/>
-      <c r="T13" s="66"/>
-      <c r="U13" s="66"/>
-      <c r="V13" s="66"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="66"/>
-      <c r="AC13" s="66"/>
-      <c r="AD13" s="66"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
-      <c r="AG13" s="66"/>
-      <c r="AH13" s="66"/>
-      <c r="AI13" s="66"/>
-      <c r="AJ13" s="66"/>
-      <c r="AK13" s="66"/>
-      <c r="AL13" s="66"/>
-      <c r="AM13" s="66"/>
-      <c r="AN13" s="66"/>
-      <c r="AO13" s="66"/>
-      <c r="AP13" s="66"/>
-      <c r="AQ13" s="66"/>
-      <c r="AR13" s="66"/>
-      <c r="AS13" s="66"/>
-      <c r="AT13" s="66"/>
-      <c r="AU13" s="66"/>
-      <c r="AV13" s="66"/>
-      <c r="AW13" s="66"/>
-      <c r="AX13" s="66"/>
-      <c r="AY13" s="66"/>
-      <c r="AZ13" s="66"/>
-    </row>
-    <row r="14" spans="1:52" s="45" customFormat="1">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="87"/>
-      <c r="D14" s="87"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="43" t="s">
+    </row>
+    <row r="40" spans="1:53" ht="28.5" customHeight="1">
+      <c r="A40" s="95"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
+      <c r="H40" s="96"/>
+      <c r="I40" s="96"/>
+      <c r="J40" s="97"/>
+    </row>
+    <row r="41" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
+      <c r="A41" s="90">
+        <v>5</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="E41" s="90" t="s">
+        <v>94</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="105"/>
+      <c r="J41" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J14" s="66"/>
-      <c r="K14" s="66"/>
-      <c r="L14" s="66"/>
-      <c r="M14" s="66"/>
-      <c r="N14" s="66"/>
-      <c r="O14" s="66"/>
-      <c r="P14" s="66"/>
-      <c r="Q14" s="66"/>
-      <c r="R14" s="66"/>
-      <c r="S14" s="66"/>
-      <c r="T14" s="66"/>
-      <c r="U14" s="66"/>
-      <c r="V14" s="66"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="66"/>
-      <c r="AC14" s="66"/>
-      <c r="AD14" s="66"/>
-      <c r="AE14" s="66"/>
-      <c r="AF14" s="66"/>
-      <c r="AG14" s="66"/>
-      <c r="AH14" s="66"/>
-      <c r="AI14" s="66"/>
-      <c r="AJ14" s="66"/>
-      <c r="AK14" s="66"/>
-      <c r="AL14" s="66"/>
-      <c r="AM14" s="66"/>
-      <c r="AN14" s="66"/>
-      <c r="AO14" s="66"/>
-      <c r="AP14" s="66"/>
-      <c r="AQ14" s="66"/>
-      <c r="AR14" s="66"/>
-      <c r="AS14" s="66"/>
-      <c r="AT14" s="66"/>
-      <c r="AU14" s="66"/>
-      <c r="AV14" s="66"/>
-      <c r="AW14" s="66"/>
-      <c r="AX14" s="66"/>
-      <c r="AY14" s="66"/>
-      <c r="AZ14" s="66"/>
-    </row>
-    <row r="15" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="87"/>
-      <c r="D15" s="87"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="43" t="s">
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="65"/>
+      <c r="O41" s="65"/>
+      <c r="P41" s="65"/>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="65"/>
+      <c r="X41" s="65"/>
+      <c r="Y41" s="65"/>
+      <c r="Z41" s="65"/>
+      <c r="AA41" s="65"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="65"/>
+      <c r="AG41" s="65"/>
+      <c r="AH41" s="65"/>
+      <c r="AI41" s="65"/>
+      <c r="AJ41" s="65"/>
+      <c r="AK41" s="65"/>
+      <c r="AL41" s="65"/>
+      <c r="AM41" s="65"/>
+      <c r="AN41" s="65"/>
+      <c r="AO41" s="65"/>
+      <c r="AP41" s="65"/>
+      <c r="AQ41" s="65"/>
+      <c r="AR41" s="65"/>
+      <c r="AS41" s="65"/>
+      <c r="AT41" s="65"/>
+      <c r="AU41" s="65"/>
+      <c r="AV41" s="65"/>
+      <c r="AW41" s="65"/>
+      <c r="AX41" s="65"/>
+      <c r="AY41" s="65"/>
+      <c r="AZ41" s="65"/>
+      <c r="BA41" s="65"/>
+    </row>
+    <row r="42" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
+      <c r="A42" s="98"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="D42" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="91"/>
+      <c r="F42" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H42" s="104"/>
+      <c r="I42" s="105"/>
+      <c r="J42" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J15" s="66"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="66"/>
-      <c r="N15" s="66"/>
-      <c r="O15" s="66"/>
-      <c r="P15" s="66"/>
-      <c r="Q15" s="66"/>
-      <c r="R15" s="66"/>
-      <c r="S15" s="66"/>
-      <c r="T15" s="66"/>
-      <c r="U15" s="66"/>
-      <c r="V15" s="66"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="66"/>
-      <c r="AC15" s="66"/>
-      <c r="AD15" s="66"/>
-      <c r="AE15" s="66"/>
-      <c r="AF15" s="66"/>
-      <c r="AG15" s="66"/>
-      <c r="AH15" s="66"/>
-      <c r="AI15" s="66"/>
-      <c r="AJ15" s="66"/>
-      <c r="AK15" s="66"/>
-      <c r="AL15" s="66"/>
-      <c r="AM15" s="66"/>
-      <c r="AN15" s="66"/>
-      <c r="AO15" s="66"/>
-      <c r="AP15" s="66"/>
-      <c r="AQ15" s="66"/>
-      <c r="AR15" s="66"/>
-      <c r="AS15" s="66"/>
-      <c r="AT15" s="66"/>
-      <c r="AU15" s="66"/>
-      <c r="AV15" s="66"/>
-      <c r="AW15" s="66"/>
-      <c r="AX15" s="66"/>
-      <c r="AY15" s="66"/>
-      <c r="AZ15" s="66"/>
-    </row>
-    <row r="16" spans="1:52" s="45" customFormat="1">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="87"/>
-      <c r="D16" s="87"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43" t="s">
+      <c r="K42" s="65"/>
+      <c r="L42" s="65"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="65"/>
+      <c r="O42" s="65"/>
+      <c r="P42" s="65"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="65"/>
+      <c r="X42" s="65"/>
+      <c r="Y42" s="65"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="65"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="65"/>
+      <c r="AG42" s="65"/>
+      <c r="AH42" s="65"/>
+      <c r="AI42" s="65"/>
+      <c r="AJ42" s="65"/>
+      <c r="AK42" s="65"/>
+      <c r="AL42" s="65"/>
+      <c r="AM42" s="65"/>
+      <c r="AN42" s="65"/>
+      <c r="AO42" s="65"/>
+      <c r="AP42" s="65"/>
+      <c r="AQ42" s="65"/>
+      <c r="AR42" s="65"/>
+      <c r="AS42" s="65"/>
+      <c r="AT42" s="65"/>
+      <c r="AU42" s="65"/>
+      <c r="AV42" s="65"/>
+      <c r="AW42" s="65"/>
+      <c r="AX42" s="65"/>
+      <c r="AY42" s="65"/>
+      <c r="AZ42" s="65"/>
+      <c r="BA42" s="65"/>
+    </row>
+    <row r="43" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
+      <c r="A43" s="94"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="94"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="42" t="s">
+        <v>122</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="92"/>
+      <c r="I43" s="106"/>
+      <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J16" s="66"/>
-      <c r="K16" s="66"/>
-      <c r="L16" s="66"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="66"/>
-      <c r="P16" s="66"/>
-      <c r="Q16" s="66"/>
-      <c r="R16" s="66"/>
-      <c r="S16" s="66"/>
-      <c r="T16" s="66"/>
-      <c r="U16" s="66"/>
-      <c r="V16" s="66"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="66"/>
-      <c r="AC16" s="66"/>
-      <c r="AD16" s="66"/>
-      <c r="AE16" s="66"/>
-      <c r="AF16" s="66"/>
-      <c r="AG16" s="66"/>
-      <c r="AH16" s="66"/>
-      <c r="AI16" s="66"/>
-      <c r="AJ16" s="66"/>
-      <c r="AK16" s="66"/>
-      <c r="AL16" s="66"/>
-      <c r="AM16" s="66"/>
-      <c r="AN16" s="66"/>
-      <c r="AO16" s="66"/>
-      <c r="AP16" s="66"/>
-      <c r="AQ16" s="66"/>
-      <c r="AR16" s="66"/>
-      <c r="AS16" s="66"/>
-      <c r="AT16" s="66"/>
-      <c r="AU16" s="66"/>
-      <c r="AV16" s="66"/>
-      <c r="AW16" s="66"/>
-      <c r="AX16" s="66"/>
-      <c r="AY16" s="66"/>
-      <c r="AZ16" s="66"/>
-    </row>
-    <row r="17" spans="1:52" s="45" customFormat="1">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="66"/>
-      <c r="K17" s="66"/>
-      <c r="L17" s="66"/>
-      <c r="M17" s="66"/>
-      <c r="N17" s="66"/>
-      <c r="O17" s="66"/>
-      <c r="P17" s="66"/>
-      <c r="Q17" s="66"/>
-      <c r="R17" s="66"/>
-      <c r="S17" s="66"/>
-      <c r="T17" s="66"/>
-      <c r="U17" s="66"/>
-      <c r="V17" s="66"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="66"/>
-      <c r="AC17" s="66"/>
-      <c r="AD17" s="66"/>
-      <c r="AE17" s="66"/>
-      <c r="AF17" s="66"/>
-      <c r="AG17" s="66"/>
-      <c r="AH17" s="66"/>
-      <c r="AI17" s="66"/>
-      <c r="AJ17" s="66"/>
-      <c r="AK17" s="66"/>
-      <c r="AL17" s="66"/>
-      <c r="AM17" s="66"/>
-      <c r="AN17" s="66"/>
-      <c r="AO17" s="66"/>
-      <c r="AP17" s="66"/>
-      <c r="AQ17" s="66"/>
-      <c r="AR17" s="66"/>
-      <c r="AS17" s="66"/>
-      <c r="AT17" s="66"/>
-      <c r="AU17" s="66"/>
-      <c r="AV17" s="66"/>
-      <c r="AW17" s="66"/>
-      <c r="AX17" s="66"/>
-      <c r="AY17" s="66"/>
-      <c r="AZ17" s="66"/>
-    </row>
-    <row r="18" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="66"/>
-      <c r="O18" s="66"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="66"/>
-      <c r="S18" s="66"/>
-      <c r="T18" s="66"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="66"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="66"/>
-      <c r="AA18" s="66"/>
-      <c r="AB18" s="66"/>
-      <c r="AC18" s="66"/>
-      <c r="AD18" s="66"/>
-      <c r="AE18" s="66"/>
-      <c r="AF18" s="66"/>
-      <c r="AG18" s="66"/>
-      <c r="AH18" s="66"/>
-      <c r="AI18" s="66"/>
-      <c r="AJ18" s="66"/>
-      <c r="AK18" s="66"/>
-      <c r="AL18" s="66"/>
-      <c r="AM18" s="66"/>
-      <c r="AN18" s="66"/>
-      <c r="AO18" s="66"/>
-      <c r="AP18" s="66"/>
-      <c r="AQ18" s="66"/>
-      <c r="AR18" s="66"/>
-      <c r="AS18" s="66"/>
-      <c r="AT18" s="66"/>
-      <c r="AU18" s="66"/>
-      <c r="AV18" s="66"/>
-      <c r="AW18" s="66"/>
-      <c r="AX18" s="66"/>
-      <c r="AY18" s="66"/>
-      <c r="AZ18" s="66"/>
-    </row>
-    <row r="19" spans="1:52" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="87" t="s">
+      <c r="K43" s="65"/>
+      <c r="L43" s="65"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="65"/>
+      <c r="O43" s="65"/>
+      <c r="P43" s="65"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="65"/>
+      <c r="X43" s="65"/>
+      <c r="Y43" s="65"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="65"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="65"/>
+      <c r="AG43" s="65"/>
+      <c r="AH43" s="65"/>
+      <c r="AI43" s="65"/>
+      <c r="AJ43" s="65"/>
+      <c r="AK43" s="65"/>
+      <c r="AL43" s="65"/>
+      <c r="AM43" s="65"/>
+      <c r="AN43" s="65"/>
+      <c r="AO43" s="65"/>
+      <c r="AP43" s="65"/>
+      <c r="AQ43" s="65"/>
+      <c r="AR43" s="65"/>
+      <c r="AS43" s="65"/>
+      <c r="AT43" s="65"/>
+      <c r="AU43" s="65"/>
+      <c r="AV43" s="65"/>
+      <c r="AW43" s="65"/>
+      <c r="AX43" s="65"/>
+      <c r="AY43" s="65"/>
+      <c r="AZ43" s="65"/>
+      <c r="BA43" s="65"/>
+    </row>
+    <row r="44" spans="1:53" ht="28.5" customHeight="1">
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="89"/>
+    </row>
+    <row r="45" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
+      <c r="A45" s="52">
+        <v>6</v>
+      </c>
+      <c r="B45" s="52" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" s="52" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="F45" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="G45" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="D19" s="87" t="s">
-        <v>110</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="43" t="s">
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="J19" s="66"/>
-      <c r="K19" s="66"/>
-      <c r="L19" s="66"/>
-      <c r="M19" s="66"/>
-      <c r="N19" s="66"/>
-      <c r="O19" s="66"/>
-      <c r="P19" s="66"/>
-      <c r="Q19" s="66"/>
-      <c r="R19" s="66"/>
-      <c r="S19" s="66"/>
-      <c r="T19" s="66"/>
-      <c r="U19" s="66"/>
-      <c r="V19" s="66"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="66"/>
-      <c r="AB19" s="66"/>
-      <c r="AC19" s="66"/>
-      <c r="AD19" s="66"/>
-      <c r="AE19" s="66"/>
-      <c r="AF19" s="66"/>
-      <c r="AG19" s="66"/>
-      <c r="AH19" s="66"/>
-      <c r="AI19" s="66"/>
-      <c r="AJ19" s="66"/>
-      <c r="AK19" s="66"/>
-      <c r="AL19" s="66"/>
-      <c r="AM19" s="66"/>
-      <c r="AN19" s="66"/>
-      <c r="AO19" s="66"/>
-      <c r="AP19" s="66"/>
-      <c r="AQ19" s="66"/>
-      <c r="AR19" s="66"/>
-      <c r="AS19" s="66"/>
-      <c r="AT19" s="66"/>
-      <c r="AU19" s="66"/>
-      <c r="AV19" s="66"/>
-      <c r="AW19" s="66"/>
-      <c r="AX19" s="66"/>
-      <c r="AY19" s="66"/>
-      <c r="AZ19" s="66"/>
-    </row>
-    <row r="20" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A20" s="88"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G20" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J20" s="66"/>
-      <c r="K20" s="66"/>
-      <c r="L20" s="66"/>
-      <c r="M20" s="66"/>
-      <c r="N20" s="66"/>
-      <c r="O20" s="66"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="66"/>
-      <c r="R20" s="66"/>
-      <c r="S20" s="66"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="66"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
-      <c r="AB20" s="66"/>
-      <c r="AC20" s="66"/>
-      <c r="AD20" s="66"/>
-      <c r="AE20" s="66"/>
-      <c r="AF20" s="66"/>
-      <c r="AG20" s="66"/>
-      <c r="AH20" s="66"/>
-      <c r="AI20" s="66"/>
-      <c r="AJ20" s="66"/>
-      <c r="AK20" s="66"/>
-      <c r="AL20" s="66"/>
-      <c r="AM20" s="66"/>
-      <c r="AN20" s="66"/>
-      <c r="AO20" s="66"/>
-      <c r="AP20" s="66"/>
-      <c r="AQ20" s="66"/>
-      <c r="AR20" s="66"/>
-      <c r="AS20" s="66"/>
-      <c r="AT20" s="66"/>
-      <c r="AU20" s="66"/>
-      <c r="AV20" s="66"/>
-      <c r="AW20" s="66"/>
-      <c r="AX20" s="66"/>
-      <c r="AY20" s="66"/>
-      <c r="AZ20" s="66"/>
-    </row>
-    <row r="21" spans="1:52" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A21" s="88"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="G21" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="44"/>
-      <c r="I21" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J21" s="66"/>
-      <c r="K21" s="66"/>
-      <c r="L21" s="66"/>
-      <c r="M21" s="66"/>
-      <c r="N21" s="66"/>
-      <c r="O21" s="66"/>
-      <c r="P21" s="66"/>
-      <c r="Q21" s="66"/>
-      <c r="R21" s="66"/>
-      <c r="S21" s="66"/>
-      <c r="T21" s="66"/>
-      <c r="U21" s="66"/>
-      <c r="V21" s="66"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="66"/>
-      <c r="AC21" s="66"/>
-      <c r="AD21" s="66"/>
-      <c r="AE21" s="66"/>
-      <c r="AF21" s="66"/>
-      <c r="AG21" s="66"/>
-      <c r="AH21" s="66"/>
-      <c r="AI21" s="66"/>
-      <c r="AJ21" s="66"/>
-      <c r="AK21" s="66"/>
-      <c r="AL21" s="66"/>
-      <c r="AM21" s="66"/>
-      <c r="AN21" s="66"/>
-      <c r="AO21" s="66"/>
-      <c r="AP21" s="66"/>
-      <c r="AQ21" s="66"/>
-      <c r="AR21" s="66"/>
-      <c r="AS21" s="66"/>
-      <c r="AT21" s="66"/>
-      <c r="AU21" s="66"/>
-      <c r="AV21" s="66"/>
-      <c r="AW21" s="66"/>
-      <c r="AX21" s="66"/>
-      <c r="AY21" s="66"/>
-      <c r="AZ21" s="66"/>
-    </row>
-    <row r="22" spans="1:52" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A22" s="88"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="88"/>
-      <c r="F22" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J22" s="66"/>
-      <c r="K22" s="66"/>
-      <c r="L22" s="66"/>
-      <c r="M22" s="66"/>
-      <c r="N22" s="66"/>
-      <c r="O22" s="66"/>
-      <c r="P22" s="66"/>
-      <c r="Q22" s="66"/>
-      <c r="R22" s="66"/>
-      <c r="S22" s="66"/>
-      <c r="T22" s="66"/>
-      <c r="U22" s="66"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="66"/>
-      <c r="AB22" s="66"/>
-      <c r="AC22" s="66"/>
-      <c r="AD22" s="66"/>
-      <c r="AE22" s="66"/>
-      <c r="AF22" s="66"/>
-      <c r="AG22" s="66"/>
-      <c r="AH22" s="66"/>
-      <c r="AI22" s="66"/>
-      <c r="AJ22" s="66"/>
-      <c r="AK22" s="66"/>
-      <c r="AL22" s="66"/>
-      <c r="AM22" s="66"/>
-      <c r="AN22" s="66"/>
-      <c r="AO22" s="66"/>
-      <c r="AP22" s="66"/>
-      <c r="AQ22" s="66"/>
-      <c r="AR22" s="66"/>
-      <c r="AS22" s="66"/>
-      <c r="AT22" s="66"/>
-      <c r="AU22" s="66"/>
-      <c r="AV22" s="66"/>
-      <c r="AW22" s="66"/>
-      <c r="AX22" s="66"/>
-      <c r="AY22" s="66"/>
-      <c r="AZ22" s="66"/>
-    </row>
-    <row r="23" spans="1:52" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="66"/>
-      <c r="S23" s="66"/>
-      <c r="T23" s="66"/>
-      <c r="U23" s="66"/>
-      <c r="V23" s="66"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="66"/>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="66"/>
-      <c r="AG23" s="66"/>
-      <c r="AH23" s="66"/>
-      <c r="AI23" s="66"/>
-      <c r="AJ23" s="66"/>
-      <c r="AK23" s="66"/>
-      <c r="AL23" s="66"/>
-      <c r="AM23" s="66"/>
-      <c r="AN23" s="66"/>
-      <c r="AO23" s="66"/>
-      <c r="AP23" s="66"/>
-      <c r="AQ23" s="66"/>
-      <c r="AR23" s="66"/>
-      <c r="AS23" s="66"/>
-      <c r="AT23" s="66"/>
-      <c r="AU23" s="66"/>
-      <c r="AV23" s="66"/>
-      <c r="AW23" s="66"/>
-      <c r="AX23" s="66"/>
-      <c r="AY23" s="66"/>
-      <c r="AZ23" s="66"/>
-    </row>
-    <row r="24" spans="1:52" s="45" customFormat="1">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="89"/>
-      <c r="F24" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="66"/>
-      <c r="K24" s="66"/>
-      <c r="L24" s="66"/>
-      <c r="M24" s="66"/>
-      <c r="N24" s="66"/>
-      <c r="O24" s="66"/>
-      <c r="P24" s="66"/>
-      <c r="Q24" s="66"/>
-      <c r="R24" s="66"/>
-      <c r="S24" s="66"/>
-      <c r="T24" s="66"/>
-      <c r="U24" s="66"/>
-      <c r="V24" s="66"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="66"/>
-      <c r="AC24" s="66"/>
-      <c r="AD24" s="66"/>
-      <c r="AE24" s="66"/>
-      <c r="AF24" s="66"/>
-      <c r="AG24" s="66"/>
-      <c r="AH24" s="66"/>
-      <c r="AI24" s="66"/>
-      <c r="AJ24" s="66"/>
-      <c r="AK24" s="66"/>
-      <c r="AL24" s="66"/>
-      <c r="AM24" s="66"/>
-      <c r="AN24" s="66"/>
-      <c r="AO24" s="66"/>
-      <c r="AP24" s="66"/>
-      <c r="AQ24" s="66"/>
-      <c r="AR24" s="66"/>
-      <c r="AS24" s="66"/>
-      <c r="AT24" s="66"/>
-      <c r="AU24" s="66"/>
-      <c r="AV24" s="66"/>
-      <c r="AW24" s="66"/>
-      <c r="AX24" s="66"/>
-      <c r="AY24" s="66"/>
-      <c r="AZ24" s="66"/>
-    </row>
-    <row r="25" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A25" s="90"/>
-      <c r="B25" s="91"/>
-      <c r="C25" s="91"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="91"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="91"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="92"/>
-    </row>
-    <row r="26" spans="1:52" ht="72.75" customHeight="1">
-      <c r="A26" s="93">
-        <v>4</v>
-      </c>
-      <c r="B26" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="C26" s="88" t="s">
-        <v>192</v>
-      </c>
-      <c r="D26" s="88" t="s">
-        <v>111</v>
-      </c>
-      <c r="E26" s="88" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:52" ht="145.5" customHeight="1">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A28" s="90"/>
-      <c r="B28" s="91"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="92"/>
-    </row>
-    <row r="29" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A29" s="93">
-        <v>5</v>
-      </c>
-      <c r="B29" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="C29" s="64" t="s">
-        <v>121</v>
-      </c>
-      <c r="D29" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="E29" s="93" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="65" t="s">
-        <v>98</v>
-      </c>
-      <c r="I29" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J29" s="66"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
-      <c r="P29" s="66"/>
-      <c r="Q29" s="66"/>
-      <c r="R29" s="66"/>
-      <c r="S29" s="66"/>
-      <c r="T29" s="66"/>
-      <c r="U29" s="66"/>
-      <c r="V29" s="66"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="66"/>
-      <c r="AC29" s="66"/>
-      <c r="AD29" s="66"/>
-      <c r="AE29" s="66"/>
-      <c r="AF29" s="66"/>
-      <c r="AG29" s="66"/>
-      <c r="AH29" s="66"/>
-      <c r="AI29" s="66"/>
-      <c r="AJ29" s="66"/>
-      <c r="AK29" s="66"/>
-      <c r="AL29" s="66"/>
-      <c r="AM29" s="66"/>
-      <c r="AN29" s="66"/>
-      <c r="AO29" s="66"/>
-      <c r="AP29" s="66"/>
-      <c r="AQ29" s="66"/>
-      <c r="AR29" s="66"/>
-      <c r="AS29" s="66"/>
-      <c r="AT29" s="66"/>
-      <c r="AU29" s="66"/>
-      <c r="AV29" s="66"/>
-      <c r="AW29" s="66"/>
-      <c r="AX29" s="66"/>
-      <c r="AY29" s="66"/>
-      <c r="AZ29" s="66"/>
-    </row>
-    <row r="30" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A30" s="88"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="93" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" s="87" t="s">
-        <v>124</v>
-      </c>
-      <c r="E30" s="100"/>
-      <c r="F30" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J30" s="66"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="N30" s="66"/>
-      <c r="O30" s="66"/>
-      <c r="P30" s="66"/>
-      <c r="Q30" s="66"/>
-      <c r="R30" s="66"/>
-      <c r="S30" s="66"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="66"/>
-      <c r="AR30" s="66"/>
-      <c r="AS30" s="66"/>
-      <c r="AT30" s="66"/>
-      <c r="AU30" s="66"/>
-      <c r="AV30" s="66"/>
-      <c r="AW30" s="66"/>
-      <c r="AX30" s="66"/>
-      <c r="AY30" s="66"/>
-      <c r="AZ30" s="66"/>
-    </row>
-    <row r="31" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A31" s="89"/>
-      <c r="B31" s="101"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="87"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="42" t="s">
-        <v>123</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J31" s="66"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
-      <c r="N31" s="66"/>
-      <c r="O31" s="66"/>
-      <c r="P31" s="66"/>
-      <c r="Q31" s="66"/>
-      <c r="R31" s="66"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="66"/>
-      <c r="AR31" s="66"/>
-      <c r="AS31" s="66"/>
-      <c r="AT31" s="66"/>
-      <c r="AU31" s="66"/>
-      <c r="AV31" s="66"/>
-      <c r="AW31" s="66"/>
-      <c r="AX31" s="66"/>
-      <c r="AY31" s="66"/>
-      <c r="AZ31" s="66"/>
-    </row>
-    <row r="32" spans="1:52" ht="28.5" customHeight="1">
-      <c r="A32" s="97"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="98"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="98"/>
-      <c r="F32" s="98"/>
-      <c r="G32" s="98"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="99"/>
-    </row>
-    <row r="33" spans="1:52" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A33" s="52">
-        <v>6</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="D33" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="43" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="53"/>
-      <c r="I33" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="66"/>
-      <c r="AR33" s="66"/>
-      <c r="AS33" s="66"/>
-      <c r="AT33" s="66"/>
-      <c r="AU33" s="66"/>
-      <c r="AV33" s="66"/>
-      <c r="AW33" s="66"/>
-      <c r="AX33" s="66"/>
-      <c r="AY33" s="66"/>
-      <c r="AZ33" s="66"/>
-    </row>
-    <row r="34" spans="1:52" s="66" customFormat="1">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="69"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="70"/>
-    </row>
-    <row r="35" spans="1:52" s="66" customFormat="1">
-      <c r="A35" s="67"/>
-      <c r="B35" s="68"/>
-      <c r="C35" s="68"/>
-      <c r="D35" s="69"/>
-      <c r="E35" s="68"/>
-      <c r="F35" s="70"/>
-    </row>
-    <row r="36" spans="1:52" s="66" customFormat="1">
-      <c r="A36" s="67"/>
-      <c r="B36" s="68"/>
-      <c r="C36" s="68"/>
-      <c r="D36" s="69"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="70"/>
-    </row>
-    <row r="37" spans="1:52" s="66" customFormat="1">
-      <c r="A37" s="67"/>
-      <c r="B37" s="68"/>
-      <c r="C37" s="68"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="70"/>
-    </row>
-    <row r="38" spans="1:52" s="66" customFormat="1">
-      <c r="A38" s="67"/>
-      <c r="B38" s="68"/>
-      <c r="C38" s="68"/>
-      <c r="D38" s="69"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="70"/>
-    </row>
-    <row r="39" spans="1:52" s="66" customFormat="1">
-      <c r="A39" s="67"/>
-      <c r="B39" s="68"/>
-      <c r="C39" s="68"/>
-      <c r="D39" s="69"/>
-      <c r="E39" s="68"/>
-      <c r="F39" s="70"/>
-    </row>
-    <row r="40" spans="1:52" s="66" customFormat="1">
-      <c r="A40" s="67"/>
-      <c r="B40" s="68"/>
-      <c r="C40" s="68"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="70"/>
-    </row>
-    <row r="41" spans="1:52" s="66" customFormat="1">
-      <c r="A41" s="67"/>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="70"/>
-    </row>
-    <row r="42" spans="1:52" s="66" customFormat="1">
-      <c r="A42" s="67"/>
-      <c r="B42" s="68"/>
-      <c r="C42" s="68"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="70"/>
-    </row>
-    <row r="43" spans="1:52" s="66" customFormat="1">
-      <c r="A43" s="67"/>
-      <c r="B43" s="68"/>
-      <c r="C43" s="68"/>
-      <c r="D43" s="69"/>
-      <c r="E43" s="68"/>
-      <c r="F43" s="70"/>
-    </row>
-    <row r="44" spans="1:52" s="66" customFormat="1">
-      <c r="A44" s="67"/>
-      <c r="B44" s="68"/>
-      <c r="C44" s="68"/>
-      <c r="D44" s="69"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="70"/>
-    </row>
-    <row r="45" spans="1:52" s="66" customFormat="1">
-      <c r="A45" s="67"/>
-      <c r="B45" s="68"/>
-      <c r="C45" s="68"/>
-      <c r="D45" s="69"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="70"/>
-    </row>
-    <row r="46" spans="1:52" s="66" customFormat="1">
-      <c r="A46" s="67"/>
-      <c r="B46" s="68"/>
-      <c r="C46" s="68"/>
-      <c r="D46" s="69"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="70"/>
-    </row>
-    <row r="47" spans="1:52" s="66" customFormat="1">
-      <c r="A47" s="67"/>
-      <c r="B47" s="68"/>
-      <c r="C47" s="68"/>
-      <c r="D47" s="69"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="70"/>
-    </row>
-    <row r="48" spans="1:52" s="66" customFormat="1">
-      <c r="A48" s="67"/>
-      <c r="B48" s="68"/>
-      <c r="C48" s="68"/>
-      <c r="D48" s="69"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="70"/>
-    </row>
-    <row r="49" spans="1:6" s="66" customFormat="1">
-      <c r="A49" s="67"/>
-      <c r="B49" s="68"/>
-      <c r="C49" s="68"/>
-      <c r="D49" s="69"/>
-      <c r="E49" s="68"/>
-      <c r="F49" s="70"/>
-    </row>
-    <row r="50" spans="1:6" s="66" customFormat="1">
-      <c r="A50" s="67"/>
-      <c r="B50" s="68"/>
-      <c r="C50" s="68"/>
-      <c r="D50" s="69"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="70"/>
-    </row>
-    <row r="51" spans="1:6" s="66" customFormat="1">
-      <c r="A51" s="67"/>
-      <c r="B51" s="68"/>
-      <c r="C51" s="68"/>
-      <c r="D51" s="69"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="70"/>
-    </row>
-    <row r="52" spans="1:6" s="66" customFormat="1">
-      <c r="A52" s="67"/>
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
-      <c r="D52" s="69"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="70"/>
-    </row>
-    <row r="53" spans="1:6" s="66" customFormat="1">
-      <c r="A53" s="67"/>
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
-      <c r="D53" s="69"/>
-      <c r="E53" s="68"/>
-      <c r="F53" s="70"/>
-    </row>
-    <row r="54" spans="1:6" s="66" customFormat="1">
-      <c r="A54" s="67"/>
-      <c r="B54" s="68"/>
-      <c r="C54" s="68"/>
-      <c r="D54" s="69"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="70"/>
-    </row>
-    <row r="55" spans="1:6" s="66" customFormat="1">
-      <c r="A55" s="67"/>
-      <c r="B55" s="68"/>
-      <c r="C55" s="68"/>
-      <c r="D55" s="69"/>
-      <c r="E55" s="68"/>
-      <c r="F55" s="70"/>
-    </row>
-    <row r="56" spans="1:6" s="66" customFormat="1">
-      <c r="A56" s="67"/>
-      <c r="B56" s="68"/>
-      <c r="C56" s="68"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="70"/>
-    </row>
-    <row r="57" spans="1:6" s="66" customFormat="1">
-      <c r="A57" s="67"/>
-      <c r="B57" s="68"/>
-      <c r="C57" s="68"/>
-      <c r="D57" s="69"/>
-      <c r="E57" s="68"/>
-      <c r="F57" s="70"/>
-    </row>
-    <row r="58" spans="1:6" s="66" customFormat="1">
-      <c r="A58" s="67"/>
-      <c r="B58" s="68"/>
-      <c r="C58" s="68"/>
-      <c r="D58" s="69"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="70"/>
-    </row>
-    <row r="59" spans="1:6" s="66" customFormat="1">
-      <c r="A59" s="67"/>
-      <c r="B59" s="68"/>
-      <c r="C59" s="68"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="68"/>
-      <c r="F59" s="70"/>
-    </row>
-    <row r="60" spans="1:6" s="66" customFormat="1">
-      <c r="A60" s="67"/>
-      <c r="B60" s="68"/>
-      <c r="C60" s="68"/>
-      <c r="D60" s="69"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="70"/>
-    </row>
-    <row r="61" spans="1:6" s="66" customFormat="1">
-      <c r="A61" s="67"/>
-      <c r="B61" s="68"/>
-      <c r="C61" s="68"/>
-      <c r="D61" s="69"/>
-      <c r="E61" s="68"/>
-      <c r="F61" s="70"/>
-    </row>
-    <row r="62" spans="1:6" s="66" customFormat="1">
-      <c r="A62" s="67"/>
-      <c r="B62" s="68"/>
-      <c r="C62" s="68"/>
-      <c r="D62" s="69"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="70"/>
-    </row>
-    <row r="63" spans="1:6" s="66" customFormat="1">
-      <c r="A63" s="67"/>
-      <c r="B63" s="68"/>
-      <c r="C63" s="68"/>
-      <c r="D63" s="69"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="70"/>
-    </row>
-    <row r="64" spans="1:6" s="66" customFormat="1">
-      <c r="A64" s="67"/>
-      <c r="B64" s="68"/>
-      <c r="C64" s="68"/>
-      <c r="D64" s="69"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="70"/>
-    </row>
-    <row r="65" spans="1:6" s="66" customFormat="1">
-      <c r="A65" s="67"/>
-      <c r="B65" s="68"/>
-      <c r="C65" s="68"/>
-      <c r="D65" s="69"/>
-      <c r="E65" s="68"/>
-      <c r="F65" s="70"/>
-    </row>
-    <row r="66" spans="1:6" s="66" customFormat="1">
-      <c r="A66" s="67"/>
-      <c r="B66" s="68"/>
-      <c r="C66" s="68"/>
-      <c r="D66" s="69"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="70"/>
-    </row>
-    <row r="67" spans="1:6" s="66" customFormat="1">
-      <c r="A67" s="67"/>
-      <c r="B67" s="68"/>
-      <c r="C67" s="68"/>
-      <c r="D67" s="69"/>
-      <c r="E67" s="68"/>
-      <c r="F67" s="70"/>
-    </row>
-    <row r="68" spans="1:6" s="66" customFormat="1">
-      <c r="A68" s="67"/>
-      <c r="B68" s="68"/>
-      <c r="C68" s="68"/>
-      <c r="D68" s="69"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="70"/>
-    </row>
-    <row r="69" spans="1:6" s="66" customFormat="1">
-      <c r="A69" s="67"/>
-      <c r="B69" s="68"/>
-      <c r="C69" s="68"/>
-      <c r="D69" s="69"/>
-      <c r="E69" s="68"/>
-      <c r="F69" s="70"/>
-    </row>
-    <row r="70" spans="1:6" s="66" customFormat="1">
-      <c r="A70" s="67"/>
-      <c r="B70" s="68"/>
-      <c r="C70" s="68"/>
-      <c r="D70" s="69"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="70"/>
-    </row>
-    <row r="71" spans="1:6" s="66" customFormat="1">
-      <c r="A71" s="67"/>
-      <c r="B71" s="68"/>
-      <c r="C71" s="68"/>
-      <c r="D71" s="69"/>
-      <c r="E71" s="68"/>
-      <c r="F71" s="70"/>
-    </row>
-    <row r="72" spans="1:6" s="66" customFormat="1">
-      <c r="A72" s="67"/>
-      <c r="B72" s="68"/>
-      <c r="C72" s="68"/>
-      <c r="D72" s="69"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="70"/>
-    </row>
-    <row r="73" spans="1:6" s="66" customFormat="1">
-      <c r="A73" s="67"/>
-      <c r="B73" s="68"/>
-      <c r="C73" s="68"/>
-      <c r="D73" s="69"/>
-      <c r="E73" s="68"/>
-      <c r="F73" s="70"/>
-    </row>
-    <row r="74" spans="1:6" s="66" customFormat="1">
-      <c r="A74" s="67"/>
-      <c r="B74" s="68"/>
-      <c r="C74" s="68"/>
-      <c r="D74" s="69"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="70"/>
-    </row>
-    <row r="75" spans="1:6" s="66" customFormat="1">
-      <c r="A75" s="67"/>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="69"/>
-      <c r="E75" s="68"/>
-      <c r="F75" s="70"/>
-    </row>
-    <row r="76" spans="1:6" s="66" customFormat="1">
-      <c r="A76" s="67"/>
-      <c r="B76" s="68"/>
-      <c r="C76" s="68"/>
-      <c r="D76" s="69"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="70"/>
-    </row>
-    <row r="77" spans="1:6" s="66" customFormat="1">
-      <c r="A77" s="67"/>
-      <c r="B77" s="68"/>
-      <c r="C77" s="68"/>
-      <c r="D77" s="69"/>
-      <c r="E77" s="68"/>
-      <c r="F77" s="70"/>
-    </row>
-    <row r="78" spans="1:6" s="66" customFormat="1">
-      <c r="A78" s="67"/>
-      <c r="B78" s="68"/>
-      <c r="C78" s="68"/>
-      <c r="D78" s="69"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="70"/>
-    </row>
-    <row r="79" spans="1:6" s="66" customFormat="1">
-      <c r="A79" s="67"/>
-      <c r="B79" s="68"/>
-      <c r="C79" s="68"/>
-      <c r="D79" s="69"/>
-      <c r="E79" s="68"/>
-      <c r="F79" s="70"/>
-    </row>
-    <row r="80" spans="1:6" s="66" customFormat="1">
-      <c r="A80" s="67"/>
-      <c r="B80" s="68"/>
-      <c r="C80" s="68"/>
-      <c r="D80" s="69"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="70"/>
-    </row>
-    <row r="81" spans="1:6" s="66" customFormat="1">
-      <c r="A81" s="67"/>
-      <c r="B81" s="68"/>
-      <c r="C81" s="68"/>
-      <c r="D81" s="69"/>
-      <c r="E81" s="68"/>
-      <c r="F81" s="70"/>
-    </row>
-    <row r="82" spans="1:6" s="66" customFormat="1">
-      <c r="A82" s="67"/>
-      <c r="B82" s="68"/>
-      <c r="C82" s="68"/>
-      <c r="D82" s="69"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="70"/>
-    </row>
-    <row r="83" spans="1:6" s="66" customFormat="1">
-      <c r="A83" s="67"/>
-      <c r="B83" s="68"/>
-      <c r="C83" s="68"/>
-      <c r="D83" s="69"/>
-      <c r="E83" s="68"/>
-      <c r="F83" s="70"/>
-    </row>
-    <row r="84" spans="1:6" s="66" customFormat="1">
-      <c r="A84" s="67"/>
-      <c r="B84" s="68"/>
-      <c r="C84" s="68"/>
-      <c r="D84" s="69"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="70"/>
-    </row>
-    <row r="85" spans="1:6" s="66" customFormat="1">
-      <c r="A85" s="67"/>
-      <c r="B85" s="68"/>
-      <c r="C85" s="68"/>
-      <c r="D85" s="69"/>
-      <c r="E85" s="68"/>
-      <c r="F85" s="70"/>
-    </row>
-    <row r="86" spans="1:6" s="66" customFormat="1">
-      <c r="A86" s="67"/>
-      <c r="B86" s="68"/>
-      <c r="C86" s="68"/>
-      <c r="D86" s="69"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="70"/>
-    </row>
-    <row r="87" spans="1:6" s="66" customFormat="1">
-      <c r="A87" s="67"/>
-      <c r="B87" s="68"/>
-      <c r="C87" s="68"/>
-      <c r="D87" s="69"/>
-      <c r="E87" s="68"/>
-      <c r="F87" s="70"/>
-    </row>
-    <row r="88" spans="1:6" s="66" customFormat="1">
-      <c r="A88" s="67"/>
-      <c r="B88" s="68"/>
-      <c r="C88" s="68"/>
-      <c r="D88" s="69"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="70"/>
-    </row>
-    <row r="89" spans="1:6" s="66" customFormat="1">
-      <c r="A89" s="67"/>
-      <c r="B89" s="68"/>
-      <c r="C89" s="68"/>
-      <c r="D89" s="69"/>
-      <c r="E89" s="68"/>
-      <c r="F89" s="70"/>
-    </row>
-    <row r="90" spans="1:6" s="66" customFormat="1">
-      <c r="A90" s="67"/>
-      <c r="B90" s="68"/>
-      <c r="C90" s="68"/>
-      <c r="D90" s="69"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="70"/>
-    </row>
-    <row r="91" spans="1:6" s="66" customFormat="1">
-      <c r="A91" s="67"/>
-      <c r="B91" s="68"/>
-      <c r="C91" s="68"/>
-      <c r="D91" s="69"/>
-      <c r="E91" s="68"/>
-      <c r="F91" s="70"/>
-    </row>
-    <row r="92" spans="1:6" s="66" customFormat="1">
-      <c r="A92" s="67"/>
-      <c r="B92" s="68"/>
-      <c r="C92" s="68"/>
-      <c r="D92" s="69"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="70"/>
-    </row>
-    <row r="93" spans="1:6" s="66" customFormat="1">
-      <c r="A93" s="67"/>
-      <c r="B93" s="68"/>
-      <c r="C93" s="68"/>
-      <c r="D93" s="69"/>
-      <c r="E93" s="68"/>
-      <c r="F93" s="70"/>
-    </row>
-    <row r="94" spans="1:6" s="66" customFormat="1">
-      <c r="A94" s="67"/>
-      <c r="B94" s="68"/>
-      <c r="C94" s="68"/>
-      <c r="D94" s="69"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="70"/>
-    </row>
-    <row r="95" spans="1:6" s="66" customFormat="1">
-      <c r="A95" s="67"/>
-      <c r="B95" s="68"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="69"/>
-      <c r="E95" s="68"/>
-      <c r="F95" s="70"/>
-    </row>
-    <row r="96" spans="1:6" s="66" customFormat="1">
-      <c r="A96" s="67"/>
-      <c r="B96" s="68"/>
-      <c r="C96" s="68"/>
-      <c r="D96" s="69"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="70"/>
-    </row>
-    <row r="97" spans="1:6" s="66" customFormat="1">
-      <c r="A97" s="67"/>
-      <c r="B97" s="68"/>
-      <c r="C97" s="68"/>
-      <c r="D97" s="69"/>
-      <c r="E97" s="68"/>
-      <c r="F97" s="70"/>
-    </row>
-    <row r="98" spans="1:6" s="66" customFormat="1">
-      <c r="A98" s="67"/>
-      <c r="B98" s="68"/>
-      <c r="C98" s="68"/>
-      <c r="D98" s="69"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="70"/>
-    </row>
-    <row r="99" spans="1:6" s="66" customFormat="1">
-      <c r="A99" s="67"/>
-      <c r="B99" s="68"/>
-      <c r="C99" s="68"/>
-      <c r="D99" s="69"/>
-      <c r="E99" s="68"/>
-      <c r="F99" s="70"/>
-    </row>
-    <row r="100" spans="1:6" s="66" customFormat="1">
-      <c r="A100" s="67"/>
-      <c r="B100" s="68"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="70"/>
-    </row>
-    <row r="101" spans="1:6" s="66" customFormat="1">
-      <c r="A101" s="67"/>
-      <c r="B101" s="68"/>
-      <c r="C101" s="68"/>
-      <c r="D101" s="69"/>
-      <c r="E101" s="68"/>
-      <c r="F101" s="70"/>
-    </row>
-    <row r="102" spans="1:6" s="66" customFormat="1">
-      <c r="A102" s="67"/>
-      <c r="B102" s="68"/>
-      <c r="C102" s="68"/>
-      <c r="D102" s="69"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="70"/>
-    </row>
-    <row r="103" spans="1:6" s="66" customFormat="1">
-      <c r="A103" s="67"/>
-      <c r="B103" s="68"/>
-      <c r="C103" s="68"/>
-      <c r="D103" s="69"/>
-      <c r="E103" s="68"/>
-      <c r="F103" s="70"/>
-    </row>
-    <row r="104" spans="1:6" s="66" customFormat="1">
-      <c r="A104" s="67"/>
-      <c r="B104" s="68"/>
-      <c r="C104" s="68"/>
-      <c r="D104" s="69"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="70"/>
-    </row>
-    <row r="105" spans="1:6" s="66" customFormat="1">
-      <c r="A105" s="67"/>
-      <c r="B105" s="68"/>
-      <c r="C105" s="68"/>
-      <c r="D105" s="69"/>
-      <c r="E105" s="68"/>
-      <c r="F105" s="70"/>
-    </row>
-    <row r="106" spans="1:6" s="66" customFormat="1">
-      <c r="A106" s="67"/>
-      <c r="B106" s="68"/>
-      <c r="C106" s="68"/>
-      <c r="D106" s="69"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="70"/>
-    </row>
-    <row r="107" spans="1:6" s="66" customFormat="1">
-      <c r="A107" s="67"/>
-      <c r="B107" s="68"/>
-      <c r="C107" s="68"/>
-      <c r="D107" s="69"/>
-      <c r="E107" s="68"/>
-      <c r="F107" s="70"/>
-    </row>
-    <row r="108" spans="1:6" s="66" customFormat="1">
-      <c r="A108" s="67"/>
-      <c r="B108" s="68"/>
-      <c r="C108" s="68"/>
-      <c r="D108" s="69"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="70"/>
-    </row>
-    <row r="109" spans="1:6" s="66" customFormat="1">
-      <c r="A109" s="67"/>
-      <c r="B109" s="68"/>
-      <c r="C109" s="68"/>
-      <c r="D109" s="69"/>
-      <c r="E109" s="68"/>
-      <c r="F109" s="70"/>
-    </row>
-    <row r="110" spans="1:6" s="66" customFormat="1">
-      <c r="A110" s="67"/>
-      <c r="B110" s="68"/>
-      <c r="C110" s="68"/>
-      <c r="D110" s="69"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="70"/>
-    </row>
-    <row r="111" spans="1:6" s="66" customFormat="1">
-      <c r="A111" s="67"/>
-      <c r="B111" s="68"/>
-      <c r="C111" s="68"/>
-      <c r="D111" s="69"/>
-      <c r="E111" s="68"/>
-      <c r="F111" s="70"/>
-    </row>
-    <row r="112" spans="1:6" s="66" customFormat="1">
-      <c r="A112" s="67"/>
-      <c r="B112" s="68"/>
-      <c r="C112" s="68"/>
-      <c r="D112" s="69"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="70"/>
-    </row>
-    <row r="113" spans="1:6" s="66" customFormat="1">
-      <c r="A113" s="67"/>
-      <c r="B113" s="68"/>
-      <c r="C113" s="68"/>
-      <c r="D113" s="69"/>
-      <c r="E113" s="68"/>
-      <c r="F113" s="70"/>
-    </row>
-    <row r="114" spans="1:6" s="66" customFormat="1">
-      <c r="A114" s="67"/>
-      <c r="B114" s="68"/>
-      <c r="C114" s="68"/>
-      <c r="D114" s="69"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="70"/>
-    </row>
-    <row r="115" spans="1:6" s="66" customFormat="1">
-      <c r="A115" s="67"/>
-      <c r="B115" s="68"/>
-      <c r="C115" s="68"/>
-      <c r="D115" s="69"/>
-      <c r="E115" s="68"/>
-      <c r="F115" s="70"/>
-    </row>
-    <row r="116" spans="1:6" s="66" customFormat="1">
-      <c r="A116" s="67"/>
-      <c r="B116" s="68"/>
-      <c r="C116" s="68"/>
-      <c r="D116" s="69"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="70"/>
-    </row>
-    <row r="117" spans="1:6" s="66" customFormat="1">
-      <c r="A117" s="67"/>
-      <c r="B117" s="68"/>
-      <c r="C117" s="68"/>
-      <c r="D117" s="69"/>
-      <c r="E117" s="68"/>
-      <c r="F117" s="70"/>
-    </row>
-    <row r="118" spans="1:6" s="66" customFormat="1">
-      <c r="A118" s="67"/>
-      <c r="B118" s="68"/>
-      <c r="C118" s="68"/>
-      <c r="D118" s="69"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="70"/>
-    </row>
-    <row r="119" spans="1:6" s="66" customFormat="1">
-      <c r="A119" s="67"/>
-      <c r="B119" s="68"/>
-      <c r="C119" s="68"/>
-      <c r="D119" s="69"/>
-      <c r="E119" s="68"/>
-      <c r="F119" s="70"/>
-    </row>
-    <row r="120" spans="1:6" s="66" customFormat="1">
-      <c r="A120" s="67"/>
-      <c r="B120" s="68"/>
-      <c r="C120" s="68"/>
-      <c r="D120" s="69"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="70"/>
-    </row>
-    <row r="121" spans="1:6" s="66" customFormat="1">
-      <c r="A121" s="67"/>
-      <c r="B121" s="68"/>
-      <c r="C121" s="68"/>
-      <c r="D121" s="69"/>
-      <c r="E121" s="68"/>
-      <c r="F121" s="70"/>
-    </row>
-    <row r="122" spans="1:6" s="66" customFormat="1">
-      <c r="A122" s="67"/>
-      <c r="B122" s="68"/>
-      <c r="C122" s="68"/>
-      <c r="D122" s="69"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="70"/>
-    </row>
-    <row r="123" spans="1:6" s="66" customFormat="1">
-      <c r="A123" s="67"/>
-      <c r="B123" s="68"/>
-      <c r="C123" s="68"/>
-      <c r="D123" s="69"/>
-      <c r="E123" s="68"/>
-      <c r="F123" s="70"/>
-    </row>
-    <row r="124" spans="1:6" s="66" customFormat="1">
-      <c r="A124" s="67"/>
-      <c r="B124" s="68"/>
-      <c r="C124" s="68"/>
-      <c r="D124" s="69"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="70"/>
-    </row>
-    <row r="125" spans="1:6" s="66" customFormat="1">
-      <c r="A125" s="67"/>
-      <c r="B125" s="68"/>
-      <c r="C125" s="68"/>
-      <c r="D125" s="69"/>
-      <c r="E125" s="68"/>
-      <c r="F125" s="70"/>
-    </row>
-    <row r="126" spans="1:6" s="66" customFormat="1">
-      <c r="A126" s="67"/>
-      <c r="B126" s="68"/>
-      <c r="C126" s="68"/>
-      <c r="D126" s="69"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="70"/>
-    </row>
-    <row r="127" spans="1:6" s="66" customFormat="1">
-      <c r="A127" s="67"/>
-      <c r="B127" s="68"/>
-      <c r="C127" s="68"/>
-      <c r="D127" s="69"/>
-      <c r="E127" s="68"/>
-      <c r="F127" s="70"/>
-    </row>
-    <row r="128" spans="1:6" s="66" customFormat="1">
-      <c r="A128" s="67"/>
-      <c r="B128" s="68"/>
-      <c r="C128" s="68"/>
-      <c r="D128" s="69"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="70"/>
-    </row>
-    <row r="129" spans="1:6" s="66" customFormat="1">
-      <c r="A129" s="67"/>
-      <c r="B129" s="68"/>
-      <c r="C129" s="68"/>
-      <c r="D129" s="69"/>
-      <c r="E129" s="68"/>
-      <c r="F129" s="70"/>
-    </row>
-    <row r="130" spans="1:6" s="66" customFormat="1">
-      <c r="A130" s="67"/>
-      <c r="B130" s="68"/>
-      <c r="C130" s="68"/>
-      <c r="D130" s="69"/>
-      <c r="E130" s="68"/>
-      <c r="F130" s="70"/>
-    </row>
-    <row r="131" spans="1:6" s="66" customFormat="1">
-      <c r="A131" s="67"/>
-      <c r="B131" s="68"/>
-      <c r="C131" s="68"/>
-      <c r="D131" s="69"/>
-      <c r="E131" s="68"/>
-      <c r="F131" s="70"/>
-    </row>
-    <row r="132" spans="1:6" s="66" customFormat="1">
-      <c r="A132" s="67"/>
-      <c r="B132" s="68"/>
-      <c r="C132" s="68"/>
-      <c r="D132" s="69"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="70"/>
-    </row>
-    <row r="133" spans="1:6" s="66" customFormat="1">
-      <c r="A133" s="67"/>
-      <c r="B133" s="68"/>
-      <c r="C133" s="68"/>
-      <c r="D133" s="69"/>
-      <c r="E133" s="68"/>
-      <c r="F133" s="70"/>
-    </row>
-    <row r="134" spans="1:6" s="66" customFormat="1">
-      <c r="A134" s="67"/>
-      <c r="B134" s="68"/>
-      <c r="C134" s="68"/>
-      <c r="D134" s="69"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="70"/>
-    </row>
-    <row r="135" spans="1:6" s="66" customFormat="1">
-      <c r="A135" s="67"/>
-      <c r="B135" s="68"/>
-      <c r="C135" s="68"/>
-      <c r="D135" s="69"/>
-      <c r="E135" s="68"/>
-      <c r="F135" s="70"/>
-    </row>
-    <row r="136" spans="1:6" s="66" customFormat="1">
-      <c r="A136" s="67"/>
-      <c r="B136" s="68"/>
-      <c r="C136" s="68"/>
-      <c r="D136" s="69"/>
-      <c r="E136" s="68"/>
-      <c r="F136" s="70"/>
-    </row>
-    <row r="137" spans="1:6" s="66" customFormat="1">
-      <c r="A137" s="67"/>
-      <c r="B137" s="68"/>
-      <c r="C137" s="68"/>
-      <c r="D137" s="69"/>
-      <c r="E137" s="68"/>
-      <c r="F137" s="70"/>
-    </row>
-    <row r="138" spans="1:6" s="66" customFormat="1">
-      <c r="A138" s="67"/>
-      <c r="B138" s="68"/>
-      <c r="C138" s="68"/>
-      <c r="D138" s="69"/>
-      <c r="E138" s="68"/>
-      <c r="F138" s="70"/>
-    </row>
-    <row r="139" spans="1:6" s="66" customFormat="1">
-      <c r="A139" s="67"/>
-      <c r="B139" s="68"/>
-      <c r="C139" s="68"/>
-      <c r="D139" s="69"/>
-      <c r="E139" s="68"/>
-      <c r="F139" s="70"/>
-    </row>
-    <row r="140" spans="1:6" s="66" customFormat="1">
-      <c r="A140" s="67"/>
-      <c r="B140" s="68"/>
-      <c r="C140" s="68"/>
-      <c r="D140" s="69"/>
-      <c r="E140" s="68"/>
-      <c r="F140" s="70"/>
-    </row>
-    <row r="141" spans="1:6" s="66" customFormat="1">
-      <c r="A141" s="67"/>
-      <c r="B141" s="68"/>
-      <c r="C141" s="68"/>
-      <c r="D141" s="69"/>
-      <c r="E141" s="68"/>
-      <c r="F141" s="70"/>
-    </row>
-    <row r="142" spans="1:6" s="66" customFormat="1">
-      <c r="A142" s="67"/>
-      <c r="B142" s="68"/>
-      <c r="C142" s="68"/>
-      <c r="D142" s="69"/>
-      <c r="E142" s="68"/>
-      <c r="F142" s="70"/>
-    </row>
-    <row r="143" spans="1:6" s="66" customFormat="1">
-      <c r="A143" s="67"/>
-      <c r="B143" s="68"/>
-      <c r="C143" s="68"/>
-      <c r="D143" s="69"/>
-      <c r="E143" s="68"/>
-      <c r="F143" s="70"/>
-    </row>
-    <row r="144" spans="1:6" s="66" customFormat="1">
-      <c r="A144" s="67"/>
-      <c r="B144" s="68"/>
-      <c r="C144" s="68"/>
-      <c r="D144" s="69"/>
-      <c r="E144" s="68"/>
-      <c r="F144" s="70"/>
-    </row>
-    <row r="145" spans="1:6" s="66" customFormat="1">
-      <c r="A145" s="67"/>
-      <c r="B145" s="68"/>
-      <c r="C145" s="68"/>
-      <c r="D145" s="69"/>
-      <c r="E145" s="68"/>
-      <c r="F145" s="70"/>
-    </row>
-    <row r="146" spans="1:6" s="66" customFormat="1">
-      <c r="A146" s="67"/>
-      <c r="B146" s="68"/>
-      <c r="C146" s="68"/>
-      <c r="D146" s="69"/>
-      <c r="E146" s="68"/>
-      <c r="F146" s="70"/>
-    </row>
-    <row r="147" spans="1:6" s="66" customFormat="1">
-      <c r="A147" s="67"/>
-      <c r="B147" s="68"/>
-      <c r="C147" s="68"/>
-      <c r="D147" s="69"/>
-      <c r="E147" s="68"/>
-      <c r="F147" s="70"/>
-    </row>
-    <row r="148" spans="1:6" s="66" customFormat="1">
-      <c r="A148" s="67"/>
-      <c r="B148" s="68"/>
-      <c r="C148" s="68"/>
-      <c r="D148" s="69"/>
-      <c r="E148" s="68"/>
-      <c r="F148" s="70"/>
-    </row>
-    <row r="149" spans="1:6" s="66" customFormat="1">
-      <c r="A149" s="67"/>
-      <c r="B149" s="68"/>
-      <c r="C149" s="68"/>
-      <c r="D149" s="69"/>
-      <c r="E149" s="68"/>
-      <c r="F149" s="70"/>
-    </row>
-    <row r="150" spans="1:6" s="66" customFormat="1">
-      <c r="A150" s="67"/>
-      <c r="B150" s="68"/>
-      <c r="C150" s="68"/>
-      <c r="D150" s="69"/>
-      <c r="E150" s="68"/>
-      <c r="F150" s="70"/>
-    </row>
-    <row r="151" spans="1:6" s="66" customFormat="1">
-      <c r="A151" s="67"/>
-      <c r="B151" s="68"/>
-      <c r="C151" s="68"/>
-      <c r="D151" s="69"/>
-      <c r="E151" s="68"/>
-      <c r="F151" s="70"/>
-    </row>
-    <row r="152" spans="1:6" s="66" customFormat="1">
-      <c r="A152" s="67"/>
-      <c r="B152" s="68"/>
-      <c r="C152" s="68"/>
-      <c r="D152" s="69"/>
-      <c r="E152" s="68"/>
-      <c r="F152" s="70"/>
-    </row>
-    <row r="153" spans="1:6" s="66" customFormat="1">
-      <c r="A153" s="67"/>
-      <c r="B153" s="68"/>
-      <c r="C153" s="68"/>
-      <c r="D153" s="69"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="70"/>
-    </row>
-    <row r="154" spans="1:6" s="66" customFormat="1">
-      <c r="A154" s="67"/>
-      <c r="B154" s="68"/>
-      <c r="C154" s="68"/>
-      <c r="D154" s="69"/>
-      <c r="E154" s="68"/>
-      <c r="F154" s="70"/>
-    </row>
-    <row r="155" spans="1:6" s="66" customFormat="1">
-      <c r="A155" s="67"/>
-      <c r="B155" s="68"/>
-      <c r="C155" s="68"/>
-      <c r="D155" s="69"/>
-      <c r="E155" s="68"/>
-      <c r="F155" s="70"/>
-    </row>
-    <row r="156" spans="1:6" s="66" customFormat="1">
-      <c r="A156" s="67"/>
-      <c r="B156" s="68"/>
-      <c r="C156" s="68"/>
-      <c r="D156" s="69"/>
-      <c r="E156" s="68"/>
-      <c r="F156" s="70"/>
-    </row>
-    <row r="157" spans="1:6" s="66" customFormat="1">
-      <c r="A157" s="67"/>
-      <c r="B157" s="68"/>
-      <c r="C157" s="68"/>
-      <c r="D157" s="69"/>
-      <c r="E157" s="68"/>
-      <c r="F157" s="70"/>
-    </row>
-    <row r="158" spans="1:6" s="66" customFormat="1">
-      <c r="A158" s="67"/>
-      <c r="B158" s="68"/>
-      <c r="C158" s="68"/>
-      <c r="D158" s="69"/>
-      <c r="E158" s="68"/>
-      <c r="F158" s="70"/>
-    </row>
-    <row r="159" spans="1:6" s="66" customFormat="1">
-      <c r="A159" s="67"/>
-      <c r="B159" s="68"/>
-      <c r="C159" s="68"/>
-      <c r="D159" s="69"/>
-      <c r="E159" s="68"/>
-      <c r="F159" s="70"/>
-    </row>
-    <row r="160" spans="1:6" s="66" customFormat="1">
-      <c r="A160" s="67"/>
-      <c r="B160" s="68"/>
-      <c r="C160" s="68"/>
-      <c r="D160" s="69"/>
-      <c r="E160" s="68"/>
-      <c r="F160" s="70"/>
-    </row>
-    <row r="161" spans="1:6" s="66" customFormat="1">
-      <c r="A161" s="67"/>
-      <c r="B161" s="68"/>
-      <c r="C161" s="68"/>
-      <c r="D161" s="69"/>
-      <c r="E161" s="68"/>
-      <c r="F161" s="70"/>
+      <c r="K45" s="65"/>
+      <c r="L45" s="65"/>
+      <c r="M45" s="65"/>
+      <c r="N45" s="65"/>
+      <c r="O45" s="65"/>
+      <c r="P45" s="65"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="65"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="65"/>
+      <c r="Z45" s="65"/>
+      <c r="AA45" s="65"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="65"/>
+      <c r="AG45" s="65"/>
+      <c r="AH45" s="65"/>
+      <c r="AI45" s="65"/>
+      <c r="AJ45" s="65"/>
+      <c r="AK45" s="65"/>
+      <c r="AL45" s="65"/>
+      <c r="AM45" s="65"/>
+      <c r="AN45" s="65"/>
+      <c r="AO45" s="65"/>
+      <c r="AP45" s="65"/>
+      <c r="AQ45" s="65"/>
+      <c r="AR45" s="65"/>
+      <c r="AS45" s="65"/>
+      <c r="AT45" s="65"/>
+      <c r="AU45" s="65"/>
+      <c r="AV45" s="65"/>
+      <c r="AW45" s="65"/>
+      <c r="AX45" s="65"/>
+      <c r="AY45" s="65"/>
+      <c r="AZ45" s="65"/>
+      <c r="BA45" s="65"/>
+    </row>
+    <row r="46" spans="1:53" s="65" customFormat="1">
+      <c r="A46" s="66"/>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="69"/>
+    </row>
+    <row r="47" spans="1:53" s="65" customFormat="1">
+      <c r="A47" s="66"/>
+      <c r="B47" s="67"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="67"/>
+      <c r="F47" s="69"/>
+    </row>
+    <row r="48" spans="1:53" s="65" customFormat="1">
+      <c r="A48" s="66"/>
+      <c r="B48" s="67"/>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="69"/>
+    </row>
+    <row r="49" spans="1:6" s="65" customFormat="1">
+      <c r="A49" s="66"/>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="68"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="69"/>
+    </row>
+    <row r="50" spans="1:6" s="65" customFormat="1">
+      <c r="A50" s="66"/>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="69"/>
+    </row>
+    <row r="51" spans="1:6" s="65" customFormat="1">
+      <c r="A51" s="66"/>
+      <c r="B51" s="67"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="67"/>
+      <c r="F51" s="69"/>
+    </row>
+    <row r="52" spans="1:6" s="65" customFormat="1">
+      <c r="A52" s="66"/>
+      <c r="B52" s="67"/>
+      <c r="C52" s="67"/>
+      <c r="D52" s="68"/>
+      <c r="E52" s="67"/>
+      <c r="F52" s="69"/>
+    </row>
+    <row r="53" spans="1:6" s="65" customFormat="1">
+      <c r="A53" s="66"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="68"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="69"/>
+    </row>
+    <row r="54" spans="1:6" s="65" customFormat="1">
+      <c r="A54" s="66"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="68"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="69"/>
+    </row>
+    <row r="55" spans="1:6" s="65" customFormat="1">
+      <c r="A55" s="66"/>
+      <c r="B55" s="67"/>
+      <c r="C55" s="67"/>
+      <c r="D55" s="68"/>
+      <c r="E55" s="67"/>
+      <c r="F55" s="69"/>
+    </row>
+    <row r="56" spans="1:6" s="65" customFormat="1">
+      <c r="A56" s="66"/>
+      <c r="B56" s="67"/>
+      <c r="C56" s="67"/>
+      <c r="D56" s="68"/>
+      <c r="E56" s="67"/>
+      <c r="F56" s="69"/>
+    </row>
+    <row r="57" spans="1:6" s="65" customFormat="1">
+      <c r="A57" s="66"/>
+      <c r="B57" s="67"/>
+      <c r="C57" s="67"/>
+      <c r="D57" s="68"/>
+      <c r="E57" s="67"/>
+      <c r="F57" s="69"/>
+    </row>
+    <row r="58" spans="1:6" s="65" customFormat="1">
+      <c r="A58" s="66"/>
+      <c r="B58" s="67"/>
+      <c r="C58" s="67"/>
+      <c r="D58" s="68"/>
+      <c r="E58" s="67"/>
+      <c r="F58" s="69"/>
+    </row>
+    <row r="59" spans="1:6" s="65" customFormat="1">
+      <c r="A59" s="66"/>
+      <c r="B59" s="67"/>
+      <c r="C59" s="67"/>
+      <c r="D59" s="68"/>
+      <c r="E59" s="67"/>
+      <c r="F59" s="69"/>
+    </row>
+    <row r="60" spans="1:6" s="65" customFormat="1">
+      <c r="A60" s="66"/>
+      <c r="B60" s="67"/>
+      <c r="C60" s="67"/>
+      <c r="D60" s="68"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="69"/>
+    </row>
+    <row r="61" spans="1:6" s="65" customFormat="1">
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="68"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="69"/>
+    </row>
+    <row r="62" spans="1:6" s="65" customFormat="1">
+      <c r="A62" s="66"/>
+      <c r="B62" s="67"/>
+      <c r="C62" s="67"/>
+      <c r="D62" s="68"/>
+      <c r="E62" s="67"/>
+      <c r="F62" s="69"/>
+    </row>
+    <row r="63" spans="1:6" s="65" customFormat="1">
+      <c r="A63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="68"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="69"/>
+    </row>
+    <row r="64" spans="1:6" s="65" customFormat="1">
+      <c r="A64" s="66"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="68"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="69"/>
+    </row>
+    <row r="65" spans="1:6" s="65" customFormat="1">
+      <c r="A65" s="66"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="68"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="69"/>
+    </row>
+    <row r="66" spans="1:6" s="65" customFormat="1">
+      <c r="A66" s="66"/>
+      <c r="B66" s="67"/>
+      <c r="C66" s="67"/>
+      <c r="D66" s="68"/>
+      <c r="E66" s="67"/>
+      <c r="F66" s="69"/>
+    </row>
+    <row r="67" spans="1:6" s="65" customFormat="1">
+      <c r="A67" s="66"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="68"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="69"/>
+    </row>
+    <row r="68" spans="1:6" s="65" customFormat="1">
+      <c r="A68" s="66"/>
+      <c r="B68" s="67"/>
+      <c r="C68" s="67"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="69"/>
+    </row>
+    <row r="69" spans="1:6" s="65" customFormat="1">
+      <c r="A69" s="66"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="68"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="69"/>
+    </row>
+    <row r="70" spans="1:6" s="65" customFormat="1">
+      <c r="A70" s="66"/>
+      <c r="B70" s="67"/>
+      <c r="C70" s="67"/>
+      <c r="D70" s="68"/>
+      <c r="E70" s="67"/>
+      <c r="F70" s="69"/>
+    </row>
+    <row r="71" spans="1:6" s="65" customFormat="1">
+      <c r="A71" s="66"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="68"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="69"/>
+    </row>
+    <row r="72" spans="1:6" s="65" customFormat="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="67"/>
+      <c r="C72" s="67"/>
+      <c r="D72" s="68"/>
+      <c r="E72" s="67"/>
+      <c r="F72" s="69"/>
+    </row>
+    <row r="73" spans="1:6" s="65" customFormat="1">
+      <c r="A73" s="66"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="69"/>
+    </row>
+    <row r="74" spans="1:6" s="65" customFormat="1">
+      <c r="A74" s="66"/>
+      <c r="B74" s="67"/>
+      <c r="C74" s="67"/>
+      <c r="D74" s="68"/>
+      <c r="E74" s="67"/>
+      <c r="F74" s="69"/>
+    </row>
+    <row r="75" spans="1:6" s="65" customFormat="1">
+      <c r="A75" s="66"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="68"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="69"/>
+    </row>
+    <row r="76" spans="1:6" s="65" customFormat="1">
+      <c r="A76" s="66"/>
+      <c r="B76" s="67"/>
+      <c r="C76" s="67"/>
+      <c r="D76" s="68"/>
+      <c r="E76" s="67"/>
+      <c r="F76" s="69"/>
+    </row>
+    <row r="77" spans="1:6" s="65" customFormat="1">
+      <c r="A77" s="66"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="68"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="69"/>
+    </row>
+    <row r="78" spans="1:6" s="65" customFormat="1">
+      <c r="A78" s="66"/>
+      <c r="B78" s="67"/>
+      <c r="C78" s="67"/>
+      <c r="D78" s="68"/>
+      <c r="E78" s="67"/>
+      <c r="F78" s="69"/>
+    </row>
+    <row r="79" spans="1:6" s="65" customFormat="1">
+      <c r="A79" s="66"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="68"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="69"/>
+    </row>
+    <row r="80" spans="1:6" s="65" customFormat="1">
+      <c r="A80" s="66"/>
+      <c r="B80" s="67"/>
+      <c r="C80" s="67"/>
+      <c r="D80" s="68"/>
+      <c r="E80" s="67"/>
+      <c r="F80" s="69"/>
+    </row>
+    <row r="81" spans="1:6" s="65" customFormat="1">
+      <c r="A81" s="66"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="68"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="69"/>
+    </row>
+    <row r="82" spans="1:6" s="65" customFormat="1">
+      <c r="A82" s="66"/>
+      <c r="B82" s="67"/>
+      <c r="C82" s="67"/>
+      <c r="D82" s="68"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="69"/>
+    </row>
+    <row r="83" spans="1:6" s="65" customFormat="1">
+      <c r="A83" s="66"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="68"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="69"/>
+    </row>
+    <row r="84" spans="1:6" s="65" customFormat="1">
+      <c r="A84" s="66"/>
+      <c r="B84" s="67"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="68"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="69"/>
+    </row>
+    <row r="85" spans="1:6" s="65" customFormat="1">
+      <c r="A85" s="66"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="68"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="69"/>
+    </row>
+    <row r="86" spans="1:6" s="65" customFormat="1">
+      <c r="A86" s="66"/>
+      <c r="B86" s="67"/>
+      <c r="C86" s="67"/>
+      <c r="D86" s="68"/>
+      <c r="E86" s="67"/>
+      <c r="F86" s="69"/>
+    </row>
+    <row r="87" spans="1:6" s="65" customFormat="1">
+      <c r="A87" s="66"/>
+      <c r="B87" s="67"/>
+      <c r="C87" s="67"/>
+      <c r="D87" s="68"/>
+      <c r="E87" s="67"/>
+      <c r="F87" s="69"/>
+    </row>
+    <row r="88" spans="1:6" s="65" customFormat="1">
+      <c r="A88" s="66"/>
+      <c r="B88" s="67"/>
+      <c r="C88" s="67"/>
+      <c r="D88" s="68"/>
+      <c r="E88" s="67"/>
+      <c r="F88" s="69"/>
+    </row>
+    <row r="89" spans="1:6" s="65" customFormat="1">
+      <c r="A89" s="66"/>
+      <c r="B89" s="67"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="68"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="69"/>
+    </row>
+    <row r="90" spans="1:6" s="65" customFormat="1">
+      <c r="A90" s="66"/>
+      <c r="B90" s="67"/>
+      <c r="C90" s="67"/>
+      <c r="D90" s="68"/>
+      <c r="E90" s="67"/>
+      <c r="F90" s="69"/>
+    </row>
+    <row r="91" spans="1:6" s="65" customFormat="1">
+      <c r="A91" s="66"/>
+      <c r="B91" s="67"/>
+      <c r="C91" s="67"/>
+      <c r="D91" s="68"/>
+      <c r="E91" s="67"/>
+      <c r="F91" s="69"/>
+    </row>
+    <row r="92" spans="1:6" s="65" customFormat="1">
+      <c r="A92" s="66"/>
+      <c r="B92" s="67"/>
+      <c r="C92" s="67"/>
+      <c r="D92" s="68"/>
+      <c r="E92" s="67"/>
+      <c r="F92" s="69"/>
+    </row>
+    <row r="93" spans="1:6" s="65" customFormat="1">
+      <c r="A93" s="66"/>
+      <c r="B93" s="67"/>
+      <c r="C93" s="67"/>
+      <c r="D93" s="68"/>
+      <c r="E93" s="67"/>
+      <c r="F93" s="69"/>
+    </row>
+    <row r="94" spans="1:6" s="65" customFormat="1">
+      <c r="A94" s="66"/>
+      <c r="B94" s="67"/>
+      <c r="C94" s="67"/>
+      <c r="D94" s="68"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="69"/>
+    </row>
+    <row r="95" spans="1:6" s="65" customFormat="1">
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="67"/>
+      <c r="D95" s="68"/>
+      <c r="E95" s="67"/>
+      <c r="F95" s="69"/>
+    </row>
+    <row r="96" spans="1:6" s="65" customFormat="1">
+      <c r="A96" s="66"/>
+      <c r="B96" s="67"/>
+      <c r="C96" s="67"/>
+      <c r="D96" s="68"/>
+      <c r="E96" s="67"/>
+      <c r="F96" s="69"/>
+    </row>
+    <row r="97" spans="1:6" s="65" customFormat="1">
+      <c r="A97" s="66"/>
+      <c r="B97" s="67"/>
+      <c r="C97" s="67"/>
+      <c r="D97" s="68"/>
+      <c r="E97" s="67"/>
+      <c r="F97" s="69"/>
+    </row>
+    <row r="98" spans="1:6" s="65" customFormat="1">
+      <c r="A98" s="66"/>
+      <c r="B98" s="67"/>
+      <c r="C98" s="67"/>
+      <c r="D98" s="68"/>
+      <c r="E98" s="67"/>
+      <c r="F98" s="69"/>
+    </row>
+    <row r="99" spans="1:6" s="65" customFormat="1">
+      <c r="A99" s="66"/>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="68"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="69"/>
+    </row>
+    <row r="100" spans="1:6" s="65" customFormat="1">
+      <c r="A100" s="66"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="68"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="69"/>
+    </row>
+    <row r="101" spans="1:6" s="65" customFormat="1">
+      <c r="A101" s="66"/>
+      <c r="B101" s="67"/>
+      <c r="C101" s="67"/>
+      <c r="D101" s="68"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="69"/>
+    </row>
+    <row r="102" spans="1:6" s="65" customFormat="1">
+      <c r="A102" s="66"/>
+      <c r="B102" s="67"/>
+      <c r="C102" s="67"/>
+      <c r="D102" s="68"/>
+      <c r="E102" s="67"/>
+      <c r="F102" s="69"/>
+    </row>
+    <row r="103" spans="1:6" s="65" customFormat="1">
+      <c r="A103" s="66"/>
+      <c r="B103" s="67"/>
+      <c r="C103" s="67"/>
+      <c r="D103" s="68"/>
+      <c r="E103" s="67"/>
+      <c r="F103" s="69"/>
+    </row>
+    <row r="104" spans="1:6" s="65" customFormat="1">
+      <c r="A104" s="66"/>
+      <c r="B104" s="67"/>
+      <c r="C104" s="67"/>
+      <c r="D104" s="68"/>
+      <c r="E104" s="67"/>
+      <c r="F104" s="69"/>
+    </row>
+    <row r="105" spans="1:6" s="65" customFormat="1">
+      <c r="A105" s="66"/>
+      <c r="B105" s="67"/>
+      <c r="C105" s="67"/>
+      <c r="D105" s="68"/>
+      <c r="E105" s="67"/>
+      <c r="F105" s="69"/>
+    </row>
+    <row r="106" spans="1:6" s="65" customFormat="1">
+      <c r="A106" s="66"/>
+      <c r="B106" s="67"/>
+      <c r="C106" s="67"/>
+      <c r="D106" s="68"/>
+      <c r="E106" s="67"/>
+      <c r="F106" s="69"/>
+    </row>
+    <row r="107" spans="1:6" s="65" customFormat="1">
+      <c r="A107" s="66"/>
+      <c r="B107" s="67"/>
+      <c r="C107" s="67"/>
+      <c r="D107" s="68"/>
+      <c r="E107" s="67"/>
+      <c r="F107" s="69"/>
+    </row>
+    <row r="108" spans="1:6" s="65" customFormat="1">
+      <c r="A108" s="66"/>
+      <c r="B108" s="67"/>
+      <c r="C108" s="67"/>
+      <c r="D108" s="68"/>
+      <c r="E108" s="67"/>
+      <c r="F108" s="69"/>
+    </row>
+    <row r="109" spans="1:6" s="65" customFormat="1">
+      <c r="A109" s="66"/>
+      <c r="B109" s="67"/>
+      <c r="C109" s="67"/>
+      <c r="D109" s="68"/>
+      <c r="E109" s="67"/>
+      <c r="F109" s="69"/>
+    </row>
+    <row r="110" spans="1:6" s="65" customFormat="1">
+      <c r="A110" s="66"/>
+      <c r="B110" s="67"/>
+      <c r="C110" s="67"/>
+      <c r="D110" s="68"/>
+      <c r="E110" s="67"/>
+      <c r="F110" s="69"/>
+    </row>
+    <row r="111" spans="1:6" s="65" customFormat="1">
+      <c r="A111" s="66"/>
+      <c r="B111" s="67"/>
+      <c r="C111" s="67"/>
+      <c r="D111" s="68"/>
+      <c r="E111" s="67"/>
+      <c r="F111" s="69"/>
+    </row>
+    <row r="112" spans="1:6" s="65" customFormat="1">
+      <c r="A112" s="66"/>
+      <c r="B112" s="67"/>
+      <c r="C112" s="67"/>
+      <c r="D112" s="68"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="69"/>
+    </row>
+    <row r="113" spans="1:6" s="65" customFormat="1">
+      <c r="A113" s="66"/>
+      <c r="B113" s="67"/>
+      <c r="C113" s="67"/>
+      <c r="D113" s="68"/>
+      <c r="E113" s="67"/>
+      <c r="F113" s="69"/>
+    </row>
+    <row r="114" spans="1:6" s="65" customFormat="1">
+      <c r="A114" s="66"/>
+      <c r="B114" s="67"/>
+      <c r="C114" s="67"/>
+      <c r="D114" s="68"/>
+      <c r="E114" s="67"/>
+      <c r="F114" s="69"/>
+    </row>
+    <row r="115" spans="1:6" s="65" customFormat="1">
+      <c r="A115" s="66"/>
+      <c r="B115" s="67"/>
+      <c r="C115" s="67"/>
+      <c r="D115" s="68"/>
+      <c r="E115" s="67"/>
+      <c r="F115" s="69"/>
+    </row>
+    <row r="116" spans="1:6" s="65" customFormat="1">
+      <c r="A116" s="66"/>
+      <c r="B116" s="67"/>
+      <c r="C116" s="67"/>
+      <c r="D116" s="68"/>
+      <c r="E116" s="67"/>
+      <c r="F116" s="69"/>
+    </row>
+    <row r="117" spans="1:6" s="65" customFormat="1">
+      <c r="A117" s="66"/>
+      <c r="B117" s="67"/>
+      <c r="C117" s="67"/>
+      <c r="D117" s="68"/>
+      <c r="E117" s="67"/>
+      <c r="F117" s="69"/>
+    </row>
+    <row r="118" spans="1:6" s="65" customFormat="1">
+      <c r="A118" s="66"/>
+      <c r="B118" s="67"/>
+      <c r="C118" s="67"/>
+      <c r="D118" s="68"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="69"/>
+    </row>
+    <row r="119" spans="1:6" s="65" customFormat="1">
+      <c r="A119" s="66"/>
+      <c r="B119" s="67"/>
+      <c r="C119" s="67"/>
+      <c r="D119" s="68"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="69"/>
+    </row>
+    <row r="120" spans="1:6" s="65" customFormat="1">
+      <c r="A120" s="66"/>
+      <c r="B120" s="67"/>
+      <c r="C120" s="67"/>
+      <c r="D120" s="68"/>
+      <c r="E120" s="67"/>
+      <c r="F120" s="69"/>
+    </row>
+    <row r="121" spans="1:6" s="65" customFormat="1">
+      <c r="A121" s="66"/>
+      <c r="B121" s="67"/>
+      <c r="C121" s="67"/>
+      <c r="D121" s="68"/>
+      <c r="E121" s="67"/>
+      <c r="F121" s="69"/>
+    </row>
+    <row r="122" spans="1:6" s="65" customFormat="1">
+      <c r="A122" s="66"/>
+      <c r="B122" s="67"/>
+      <c r="C122" s="67"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="67"/>
+      <c r="F122" s="69"/>
+    </row>
+    <row r="123" spans="1:6" s="65" customFormat="1">
+      <c r="A123" s="66"/>
+      <c r="B123" s="67"/>
+      <c r="C123" s="67"/>
+      <c r="D123" s="68"/>
+      <c r="E123" s="67"/>
+      <c r="F123" s="69"/>
+    </row>
+    <row r="124" spans="1:6" s="65" customFormat="1">
+      <c r="A124" s="66"/>
+      <c r="B124" s="67"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="67"/>
+      <c r="F124" s="69"/>
+    </row>
+    <row r="125" spans="1:6" s="65" customFormat="1">
+      <c r="A125" s="66"/>
+      <c r="B125" s="67"/>
+      <c r="C125" s="67"/>
+      <c r="D125" s="68"/>
+      <c r="E125" s="67"/>
+      <c r="F125" s="69"/>
+    </row>
+    <row r="126" spans="1:6" s="65" customFormat="1">
+      <c r="A126" s="66"/>
+      <c r="B126" s="67"/>
+      <c r="C126" s="67"/>
+      <c r="D126" s="68"/>
+      <c r="E126" s="67"/>
+      <c r="F126" s="69"/>
+    </row>
+    <row r="127" spans="1:6" s="65" customFormat="1">
+      <c r="A127" s="66"/>
+      <c r="B127" s="67"/>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="67"/>
+      <c r="F127" s="69"/>
+    </row>
+    <row r="128" spans="1:6" s="65" customFormat="1">
+      <c r="A128" s="66"/>
+      <c r="B128" s="67"/>
+      <c r="C128" s="67"/>
+      <c r="D128" s="68"/>
+      <c r="E128" s="67"/>
+      <c r="F128" s="69"/>
+    </row>
+    <row r="129" spans="1:6" s="65" customFormat="1">
+      <c r="A129" s="66"/>
+      <c r="B129" s="67"/>
+      <c r="C129" s="67"/>
+      <c r="D129" s="68"/>
+      <c r="E129" s="67"/>
+      <c r="F129" s="69"/>
+    </row>
+    <row r="130" spans="1:6" s="65" customFormat="1">
+      <c r="A130" s="66"/>
+      <c r="B130" s="67"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="69"/>
+    </row>
+    <row r="131" spans="1:6" s="65" customFormat="1">
+      <c r="A131" s="66"/>
+      <c r="B131" s="67"/>
+      <c r="C131" s="67"/>
+      <c r="D131" s="68"/>
+      <c r="E131" s="67"/>
+      <c r="F131" s="69"/>
+    </row>
+    <row r="132" spans="1:6" s="65" customFormat="1">
+      <c r="A132" s="66"/>
+      <c r="B132" s="67"/>
+      <c r="C132" s="67"/>
+      <c r="D132" s="68"/>
+      <c r="E132" s="67"/>
+      <c r="F132" s="69"/>
+    </row>
+    <row r="133" spans="1:6" s="65" customFormat="1">
+      <c r="A133" s="66"/>
+      <c r="B133" s="67"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="67"/>
+      <c r="F133" s="69"/>
+    </row>
+    <row r="134" spans="1:6" s="65" customFormat="1">
+      <c r="A134" s="66"/>
+      <c r="B134" s="67"/>
+      <c r="C134" s="67"/>
+      <c r="D134" s="68"/>
+      <c r="E134" s="67"/>
+      <c r="F134" s="69"/>
+    </row>
+    <row r="135" spans="1:6" s="65" customFormat="1">
+      <c r="A135" s="66"/>
+      <c r="B135" s="67"/>
+      <c r="C135" s="67"/>
+      <c r="D135" s="68"/>
+      <c r="E135" s="67"/>
+      <c r="F135" s="69"/>
+    </row>
+    <row r="136" spans="1:6" s="65" customFormat="1">
+      <c r="A136" s="66"/>
+      <c r="B136" s="67"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="69"/>
+    </row>
+    <row r="137" spans="1:6" s="65" customFormat="1">
+      <c r="A137" s="66"/>
+      <c r="B137" s="67"/>
+      <c r="C137" s="67"/>
+      <c r="D137" s="68"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="69"/>
+    </row>
+    <row r="138" spans="1:6" s="65" customFormat="1">
+      <c r="A138" s="66"/>
+      <c r="B138" s="67"/>
+      <c r="C138" s="67"/>
+      <c r="D138" s="68"/>
+      <c r="E138" s="67"/>
+      <c r="F138" s="69"/>
+    </row>
+    <row r="139" spans="1:6" s="65" customFormat="1">
+      <c r="A139" s="66"/>
+      <c r="B139" s="67"/>
+      <c r="C139" s="67"/>
+      <c r="D139" s="68"/>
+      <c r="E139" s="67"/>
+      <c r="F139" s="69"/>
+    </row>
+    <row r="140" spans="1:6" s="65" customFormat="1">
+      <c r="A140" s="66"/>
+      <c r="B140" s="67"/>
+      <c r="C140" s="67"/>
+      <c r="D140" s="68"/>
+      <c r="E140" s="67"/>
+      <c r="F140" s="69"/>
+    </row>
+    <row r="141" spans="1:6" s="65" customFormat="1">
+      <c r="A141" s="66"/>
+      <c r="B141" s="67"/>
+      <c r="C141" s="67"/>
+      <c r="D141" s="68"/>
+      <c r="E141" s="67"/>
+      <c r="F141" s="69"/>
+    </row>
+    <row r="142" spans="1:6" s="65" customFormat="1">
+      <c r="A142" s="66"/>
+      <c r="B142" s="67"/>
+      <c r="C142" s="67"/>
+      <c r="D142" s="68"/>
+      <c r="E142" s="67"/>
+      <c r="F142" s="69"/>
+    </row>
+    <row r="143" spans="1:6" s="65" customFormat="1">
+      <c r="A143" s="66"/>
+      <c r="B143" s="67"/>
+      <c r="C143" s="67"/>
+      <c r="D143" s="68"/>
+      <c r="E143" s="67"/>
+      <c r="F143" s="69"/>
+    </row>
+    <row r="144" spans="1:6" s="65" customFormat="1">
+      <c r="A144" s="66"/>
+      <c r="B144" s="67"/>
+      <c r="C144" s="67"/>
+      <c r="D144" s="68"/>
+      <c r="E144" s="67"/>
+      <c r="F144" s="69"/>
+    </row>
+    <row r="145" spans="1:6" s="65" customFormat="1">
+      <c r="A145" s="66"/>
+      <c r="B145" s="67"/>
+      <c r="C145" s="67"/>
+      <c r="D145" s="68"/>
+      <c r="E145" s="67"/>
+      <c r="F145" s="69"/>
+    </row>
+    <row r="146" spans="1:6" s="65" customFormat="1">
+      <c r="A146" s="66"/>
+      <c r="B146" s="67"/>
+      <c r="C146" s="67"/>
+      <c r="D146" s="68"/>
+      <c r="E146" s="67"/>
+      <c r="F146" s="69"/>
+    </row>
+    <row r="147" spans="1:6" s="65" customFormat="1">
+      <c r="A147" s="66"/>
+      <c r="B147" s="67"/>
+      <c r="C147" s="67"/>
+      <c r="D147" s="68"/>
+      <c r="E147" s="67"/>
+      <c r="F147" s="69"/>
+    </row>
+    <row r="148" spans="1:6" s="65" customFormat="1">
+      <c r="A148" s="66"/>
+      <c r="B148" s="67"/>
+      <c r="C148" s="67"/>
+      <c r="D148" s="68"/>
+      <c r="E148" s="67"/>
+      <c r="F148" s="69"/>
+    </row>
+    <row r="149" spans="1:6" s="65" customFormat="1">
+      <c r="A149" s="66"/>
+      <c r="B149" s="67"/>
+      <c r="C149" s="67"/>
+      <c r="D149" s="68"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="69"/>
+    </row>
+    <row r="150" spans="1:6" s="65" customFormat="1">
+      <c r="A150" s="66"/>
+      <c r="B150" s="67"/>
+      <c r="C150" s="67"/>
+      <c r="D150" s="68"/>
+      <c r="E150" s="67"/>
+      <c r="F150" s="69"/>
+    </row>
+    <row r="151" spans="1:6" s="65" customFormat="1">
+      <c r="A151" s="66"/>
+      <c r="B151" s="67"/>
+      <c r="C151" s="67"/>
+      <c r="D151" s="68"/>
+      <c r="E151" s="67"/>
+      <c r="F151" s="69"/>
+    </row>
+    <row r="152" spans="1:6" s="65" customFormat="1">
+      <c r="A152" s="66"/>
+      <c r="B152" s="67"/>
+      <c r="C152" s="67"/>
+      <c r="D152" s="68"/>
+      <c r="E152" s="67"/>
+      <c r="F152" s="69"/>
+    </row>
+    <row r="153" spans="1:6" s="65" customFormat="1">
+      <c r="A153" s="66"/>
+      <c r="B153" s="67"/>
+      <c r="C153" s="67"/>
+      <c r="D153" s="68"/>
+      <c r="E153" s="67"/>
+      <c r="F153" s="69"/>
+    </row>
+    <row r="154" spans="1:6" s="65" customFormat="1">
+      <c r="A154" s="66"/>
+      <c r="B154" s="67"/>
+      <c r="C154" s="67"/>
+      <c r="D154" s="68"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="69"/>
+    </row>
+    <row r="155" spans="1:6" s="65" customFormat="1">
+      <c r="A155" s="66"/>
+      <c r="B155" s="67"/>
+      <c r="C155" s="67"/>
+      <c r="D155" s="68"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="69"/>
+    </row>
+    <row r="156" spans="1:6" s="65" customFormat="1">
+      <c r="A156" s="66"/>
+      <c r="B156" s="67"/>
+      <c r="C156" s="67"/>
+      <c r="D156" s="68"/>
+      <c r="E156" s="67"/>
+      <c r="F156" s="69"/>
+    </row>
+    <row r="157" spans="1:6" s="65" customFormat="1">
+      <c r="A157" s="66"/>
+      <c r="B157" s="67"/>
+      <c r="C157" s="67"/>
+      <c r="D157" s="68"/>
+      <c r="E157" s="67"/>
+      <c r="F157" s="69"/>
+    </row>
+    <row r="158" spans="1:6" s="65" customFormat="1">
+      <c r="A158" s="66"/>
+      <c r="B158" s="67"/>
+      <c r="C158" s="67"/>
+      <c r="D158" s="68"/>
+      <c r="E158" s="67"/>
+      <c r="F158" s="69"/>
+    </row>
+    <row r="159" spans="1:6" s="65" customFormat="1">
+      <c r="A159" s="66"/>
+      <c r="B159" s="67"/>
+      <c r="C159" s="67"/>
+      <c r="D159" s="68"/>
+      <c r="E159" s="67"/>
+      <c r="F159" s="69"/>
+    </row>
+    <row r="160" spans="1:6" s="65" customFormat="1">
+      <c r="A160" s="66"/>
+      <c r="B160" s="67"/>
+      <c r="C160" s="67"/>
+      <c r="D160" s="68"/>
+      <c r="E160" s="67"/>
+      <c r="F160" s="69"/>
+    </row>
+    <row r="161" spans="1:6" s="65" customFormat="1">
+      <c r="A161" s="66"/>
+      <c r="B161" s="67"/>
+      <c r="C161" s="67"/>
+      <c r="D161" s="68"/>
+      <c r="E161" s="67"/>
+      <c r="F161" s="69"/>
+    </row>
+    <row r="162" spans="1:6" s="65" customFormat="1">
+      <c r="A162" s="66"/>
+      <c r="B162" s="67"/>
+      <c r="C162" s="67"/>
+      <c r="D162" s="68"/>
+      <c r="E162" s="67"/>
+      <c r="F162" s="69"/>
+    </row>
+    <row r="163" spans="1:6" s="65" customFormat="1">
+      <c r="A163" s="66"/>
+      <c r="B163" s="67"/>
+      <c r="C163" s="67"/>
+      <c r="D163" s="68"/>
+      <c r="E163" s="67"/>
+      <c r="F163" s="69"/>
+    </row>
+    <row r="164" spans="1:6" s="65" customFormat="1">
+      <c r="A164" s="66"/>
+      <c r="B164" s="67"/>
+      <c r="C164" s="67"/>
+      <c r="D164" s="68"/>
+      <c r="E164" s="67"/>
+      <c r="F164" s="69"/>
+    </row>
+    <row r="165" spans="1:6" s="65" customFormat="1">
+      <c r="A165" s="66"/>
+      <c r="B165" s="67"/>
+      <c r="C165" s="67"/>
+      <c r="D165" s="68"/>
+      <c r="E165" s="67"/>
+      <c r="F165" s="69"/>
+    </row>
+    <row r="166" spans="1:6" s="65" customFormat="1">
+      <c r="A166" s="66"/>
+      <c r="B166" s="67"/>
+      <c r="C166" s="67"/>
+      <c r="D166" s="68"/>
+      <c r="E166" s="67"/>
+      <c r="F166" s="69"/>
+    </row>
+    <row r="167" spans="1:6" s="65" customFormat="1">
+      <c r="A167" s="66"/>
+      <c r="B167" s="67"/>
+      <c r="C167" s="67"/>
+      <c r="D167" s="68"/>
+      <c r="E167" s="67"/>
+      <c r="F167" s="69"/>
+    </row>
+    <row r="168" spans="1:6" s="65" customFormat="1">
+      <c r="A168" s="66"/>
+      <c r="B168" s="67"/>
+      <c r="C168" s="67"/>
+      <c r="D168" s="68"/>
+      <c r="E168" s="67"/>
+      <c r="F168" s="69"/>
+    </row>
+    <row r="169" spans="1:6" s="65" customFormat="1">
+      <c r="A169" s="66"/>
+      <c r="B169" s="67"/>
+      <c r="C169" s="67"/>
+      <c r="D169" s="68"/>
+      <c r="E169" s="67"/>
+      <c r="F169" s="69"/>
+    </row>
+    <row r="170" spans="1:6" s="65" customFormat="1">
+      <c r="A170" s="66"/>
+      <c r="B170" s="67"/>
+      <c r="C170" s="67"/>
+      <c r="D170" s="68"/>
+      <c r="E170" s="67"/>
+      <c r="F170" s="69"/>
+    </row>
+    <row r="171" spans="1:6" s="65" customFormat="1">
+      <c r="A171" s="66"/>
+      <c r="B171" s="67"/>
+      <c r="C171" s="67"/>
+      <c r="D171" s="68"/>
+      <c r="E171" s="67"/>
+      <c r="F171" s="69"/>
+    </row>
+    <row r="172" spans="1:6" s="65" customFormat="1">
+      <c r="A172" s="66"/>
+      <c r="B172" s="67"/>
+      <c r="C172" s="67"/>
+      <c r="D172" s="68"/>
+      <c r="E172" s="67"/>
+      <c r="F172" s="69"/>
+    </row>
+    <row r="173" spans="1:6" s="65" customFormat="1">
+      <c r="A173" s="66"/>
+      <c r="B173" s="67"/>
+      <c r="C173" s="67"/>
+      <c r="D173" s="68"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="69"/>
     </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="A32:I32"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="A28:I28"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A25:I25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A12:I12"/>
-    <mergeCell ref="A9:A11"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="E13:E18"/>
-    <mergeCell ref="B13:B24"/>
-    <mergeCell ref="A13:A24"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="D13:D18"/>
-    <mergeCell ref="D19:D24"/>
-    <mergeCell ref="E19:E24"/>
-    <mergeCell ref="A8:I8"/>
+  <mergeCells count="44">
+    <mergeCell ref="H25:H36"/>
+    <mergeCell ref="I25:I36"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="A8:J8"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="E2:E6"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C11"/>
-    <mergeCell ref="C13:C18"/>
-    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C9:C23"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I12:I23"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J23"/>
+    <mergeCell ref="H9:H23"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="E9:E23"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="D9:D23"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33165,10 +33421,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33181,11 +33437,12 @@
     <col min="6" max="6" width="30.28515625" style="49" customWidth="1"/>
     <col min="7" max="7" width="27.140625" style="41" customWidth="1"/>
     <col min="8" max="8" width="65" style="41" customWidth="1"/>
-    <col min="9" max="9" width="26.28515625" style="41" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="41"/>
+    <col min="9" max="9" width="31.28515625" style="41" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="41" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="39" t="s">
         <v>24</v>
       </c>
@@ -33211,1001 +33468,1129 @@
         <v>29</v>
       </c>
       <c r="I1" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="54">
-      <c r="A2" s="93">
+    <row r="2" spans="1:10" ht="54">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="87" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="93" t="s">
-        <v>100</v>
-      </c>
-      <c r="E2" s="87" t="s">
+      <c r="C2" s="93" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
         <v>53</v>
       </c>
       <c r="G2" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="43" t="s">
+      <c r="I2" s="44"/>
+      <c r="J2" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="36">
-      <c r="A3" s="88"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="87"/>
+    <row r="3" spans="1:10" ht="36">
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H3" s="44"/>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="44"/>
+      <c r="J3" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="36">
-      <c r="A4" s="88"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="87"/>
+    <row r="4" spans="1:10" ht="36">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="43" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H4" s="44"/>
-      <c r="I4" s="43" t="s">
+      <c r="I4" s="44"/>
+      <c r="J4" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="54">
-      <c r="A5" s="88"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="87"/>
+    <row r="5" spans="1:10" ht="54">
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="54">
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="90" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="73"/>
+      <c r="F8" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="54">
+      <c r="A9" s="94"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H9" s="44"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A10" s="95"/>
+      <c r="B10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="96"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="96"/>
+      <c r="J10" s="97"/>
+    </row>
+    <row r="11" spans="1:10" ht="36">
+      <c r="A11" s="90">
+        <v>2</v>
+      </c>
+      <c r="B11" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="98" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="36">
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="42" t="s">
+        <v>193</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="36">
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="36">
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G21" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="43"/>
+    </row>
+    <row r="22" spans="1:10" ht="36">
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="94"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A24" s="99"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="100"/>
+      <c r="E24" s="100"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="100"/>
+      <c r="J24" s="101"/>
+    </row>
+    <row r="25" spans="1:10" ht="18" customHeight="1">
+      <c r="A25" s="90">
+        <v>3</v>
+      </c>
+      <c r="B25" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="C25" s="93" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G26" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="36">
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="93"/>
+      <c r="F27" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="36">
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="93"/>
+      <c r="F28" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="93"/>
+      <c r="F29" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G29" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H29" s="44"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="93"/>
+      <c r="F30" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="93"/>
+      <c r="F31" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" s="44"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="93"/>
+      <c r="F32" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G32" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" s="44" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="44"/>
+      <c r="J32" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="36">
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G33" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G34" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="94"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H35" s="44"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="70" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="72" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G36" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H36" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I36" s="44"/>
+      <c r="J36" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A37" s="99"/>
+      <c r="B37" s="100"/>
+      <c r="C37" s="100"/>
+      <c r="D37" s="100"/>
+      <c r="E37" s="100"/>
+      <c r="F37" s="100"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="100"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="101"/>
+    </row>
+    <row r="38" spans="1:10" ht="36">
+      <c r="A38" s="93">
+        <v>4</v>
+      </c>
+      <c r="B38" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H38" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="43" t="s">
+      <c r="I38" s="44"/>
+      <c r="J38" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="54">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
-      <c r="C6" s="87"/>
-      <c r="D6" s="89"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="43" t="s">
+    <row r="39" spans="1:10" ht="105" customHeight="1">
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="94"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
+      <c r="F39" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="G39" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="54">
-      <c r="A7" s="89"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="52" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="43" t="s">
+    <row r="40" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A40" s="99"/>
+      <c r="B40" s="100"/>
+      <c r="C40" s="100"/>
+      <c r="D40" s="100"/>
+      <c r="E40" s="100"/>
+      <c r="F40" s="100"/>
+      <c r="G40" s="100"/>
+      <c r="H40" s="100"/>
+      <c r="I40" s="100"/>
+      <c r="J40" s="101"/>
+    </row>
+    <row r="41" spans="1:10" ht="54">
+      <c r="A41" s="52">
+        <v>5</v>
+      </c>
+      <c r="B41" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C41" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="D41" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="F41" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G41" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H41" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I41" s="53"/>
+      <c r="J41" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A8" s="90"/>
-      <c r="B8" s="91"/>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
-      <c r="E8" s="91"/>
-      <c r="F8" s="91"/>
-      <c r="G8" s="91"/>
-      <c r="H8" s="91"/>
-      <c r="I8" s="92"/>
-    </row>
-    <row r="9" spans="1:9" ht="36">
-      <c r="A9" s="93">
-        <v>2</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>79</v>
-      </c>
-      <c r="C9" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="D9" s="88" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>83</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="43" t="s">
+    <row r="42" spans="1:10" ht="28.5" customHeight="1">
+      <c r="A42" s="99"/>
+      <c r="B42" s="100"/>
+      <c r="C42" s="100"/>
+      <c r="D42" s="100"/>
+      <c r="E42" s="100"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="100"/>
+      <c r="H42" s="100"/>
+      <c r="I42" s="100"/>
+      <c r="J42" s="101"/>
+    </row>
+    <row r="43" spans="1:10" ht="18" customHeight="1">
+      <c r="A43" s="90">
+        <v>6</v>
+      </c>
+      <c r="B43" s="90" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" s="90" t="s">
+        <v>186</v>
+      </c>
+      <c r="D43" s="90" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="90" t="s">
+        <v>177</v>
+      </c>
+      <c r="F43" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="G43" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="53"/>
+      <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="88"/>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="42" t="s">
+    <row r="44" spans="1:10">
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
+      <c r="F44" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
+      <c r="J44" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
+      <c r="F45" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="G45" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
+      <c r="J45" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
+      <c r="F46" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H46" s="44"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
+      <c r="F47" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="G47" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H47" s="44"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="36">
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
+      <c r="F48" s="42" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H48" s="44"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="36">
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
+      <c r="F49" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H49" s="44"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
+      <c r="F50" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G50" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="44"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
+      <c r="F51" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G51" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
+      <c r="F52" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G52" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="36">
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="G53" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
+      <c r="F54" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H10" s="44"/>
-      <c r="I10" s="43" t="s">
+      <c r="G54" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="36">
-      <c r="A11" s="88"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H11" s="44"/>
-      <c r="I11" s="43" t="s">
+    <row r="55" spans="1:10">
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
+      <c r="C55" s="94"/>
+      <c r="D55" s="94"/>
+      <c r="E55" s="94"/>
+      <c r="F55" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="G55" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="88"/>
-      <c r="B12" s="88"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="88"/>
-      <c r="F12" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="44"/>
-      <c r="I12" s="43" t="s">
+    <row r="56" spans="1:10">
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="90" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="90" t="s">
+        <v>187</v>
+      </c>
+      <c r="E56" s="90" t="s">
+        <v>188</v>
+      </c>
+      <c r="F56" s="42" t="s">
+        <v>184</v>
+      </c>
+      <c r="G56" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="88"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="42" t="s">
-        <v>81</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H13" s="44"/>
-      <c r="I13" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="88"/>
-      <c r="B14" s="88"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="42" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H14" s="44"/>
-      <c r="I14" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="88"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="88"/>
-      <c r="E15" s="88"/>
-      <c r="F15" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="G15" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H15" s="44"/>
-      <c r="I15" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="36">
-      <c r="A16" s="88"/>
-      <c r="B16" s="88"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="88"/>
-      <c r="E16" s="88"/>
-      <c r="F16" s="42" t="s">
-        <v>86</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H16" s="44"/>
-      <c r="I16" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="36">
-      <c r="A17" s="88"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H17" s="44"/>
-      <c r="I17" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="88"/>
-      <c r="B18" s="88"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="88"/>
-      <c r="F18" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="G18" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H18" s="44"/>
-      <c r="I18" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="36">
-      <c r="A19" s="88"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="89"/>
-      <c r="B20" s="88"/>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="42" t="s">
+    <row r="57" spans="1:10">
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
+      <c r="F57" s="42" t="s">
+        <v>194</v>
+      </c>
+      <c r="G57" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="44"/>
-      <c r="I20" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A21" s="94"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="95"/>
-      <c r="G21" s="95"/>
-      <c r="H21" s="95"/>
-      <c r="I21" s="96"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1">
-      <c r="A22" s="93">
-        <v>3</v>
-      </c>
-      <c r="B22" s="93" t="s">
-        <v>181</v>
-      </c>
-      <c r="C22" s="87" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>103</v>
-      </c>
-      <c r="E22" s="87" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G22" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H22" s="44"/>
-      <c r="I22" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="88"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H23" s="44"/>
-      <c r="I23" s="43" t="s">
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="36">
-      <c r="A24" s="88"/>
-      <c r="B24" s="88"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H24" s="44"/>
-      <c r="I24" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="36">
-      <c r="A25" s="88"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="87"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H25" s="44"/>
-      <c r="I25" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="88"/>
-      <c r="B26" s="88"/>
-      <c r="C26" s="87"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G26" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H26" s="44"/>
-      <c r="I26" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="88"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="87"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="87"/>
-      <c r="F27" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G27" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="44"/>
-      <c r="I27" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="88"/>
-      <c r="B28" s="88"/>
-      <c r="C28" s="87"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="87"/>
-      <c r="F28" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G28" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H28" s="44"/>
-      <c r="I28" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="88"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="87"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G29" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H29" s="44" t="s">
-        <v>193</v>
-      </c>
-      <c r="I29" s="43" t="s">
+    <row r="58" spans="1:10">
+      <c r="A58" s="94"/>
+      <c r="B58" s="94"/>
+      <c r="C58" s="94"/>
+      <c r="D58" s="94"/>
+      <c r="E58" s="94"/>
+      <c r="F58" s="42" t="s">
+        <v>185</v>
+      </c>
+      <c r="G58" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="43" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="36">
-      <c r="A30" s="88"/>
-      <c r="B30" s="88"/>
-      <c r="C30" s="87"/>
-      <c r="D30" s="88"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G30" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H30" s="44"/>
-      <c r="I30" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="88"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="87"/>
-      <c r="D31" s="88"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H31" s="44"/>
-      <c r="I31" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="88"/>
-      <c r="B32" s="88"/>
-      <c r="C32" s="87"/>
-      <c r="D32" s="89"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G32" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H32" s="44"/>
-      <c r="I32" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="88"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="72" t="s">
-        <v>182</v>
-      </c>
-      <c r="D33" s="71" t="s">
-        <v>101</v>
-      </c>
-      <c r="E33" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G33" s="43" t="s">
-        <v>183</v>
-      </c>
-      <c r="H33" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="I33" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A34" s="94"/>
-      <c r="B34" s="95"/>
-      <c r="C34" s="95"/>
-      <c r="D34" s="95"/>
-      <c r="E34" s="95"/>
-      <c r="F34" s="95"/>
-      <c r="G34" s="95"/>
-      <c r="H34" s="95"/>
-      <c r="I34" s="96"/>
-    </row>
-    <row r="35" spans="1:9" ht="36">
-      <c r="A35" s="87">
-        <v>4</v>
-      </c>
-      <c r="B35" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="93" t="s">
-        <v>191</v>
-      </c>
-      <c r="D35" s="87" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>132</v>
-      </c>
-      <c r="I35" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="105" customHeight="1">
-      <c r="A36" s="87"/>
-      <c r="B36" s="87"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="87"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="G36" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H36" s="44"/>
-      <c r="I36" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A37" s="94"/>
-      <c r="B37" s="95"/>
-      <c r="C37" s="95"/>
-      <c r="D37" s="95"/>
-      <c r="E37" s="95"/>
-      <c r="F37" s="95"/>
-      <c r="G37" s="95"/>
-      <c r="H37" s="95"/>
-      <c r="I37" s="96"/>
-    </row>
-    <row r="38" spans="1:9" ht="54">
-      <c r="A38" s="52">
-        <v>5</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="52" t="s">
-        <v>97</v>
-      </c>
-      <c r="D38" s="52" t="s">
-        <v>105</v>
-      </c>
-      <c r="E38" s="52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H38" s="53" t="s">
-        <v>98</v>
-      </c>
-      <c r="I38" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A39" s="94"/>
-      <c r="B39" s="95"/>
-      <c r="C39" s="95"/>
-      <c r="D39" s="95"/>
-      <c r="E39" s="95"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
-      <c r="I39" s="96"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1">
-      <c r="A40" s="93">
-        <v>6</v>
-      </c>
-      <c r="B40" s="93" t="s">
-        <v>176</v>
-      </c>
-      <c r="C40" s="93" t="s">
-        <v>187</v>
-      </c>
-      <c r="D40" s="93" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="93" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="G40" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H40" s="53"/>
-      <c r="I40" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="88"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="88"/>
-      <c r="E41" s="88"/>
-      <c r="F41" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="G41" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H41" s="53"/>
-      <c r="I41" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="88"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="88"/>
-      <c r="E42" s="88"/>
-      <c r="F42" s="42" t="s">
-        <v>180</v>
-      </c>
-      <c r="G42" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="88"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="88"/>
-      <c r="E43" s="88"/>
-      <c r="F43" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="G43" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H43" s="44"/>
-      <c r="I43" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="88"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="42" t="s">
-        <v>68</v>
-      </c>
-      <c r="G44" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="44"/>
-      <c r="I44" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="36">
-      <c r="A45" s="88"/>
-      <c r="B45" s="88"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="88"/>
-      <c r="E45" s="88"/>
-      <c r="F45" s="42" t="s">
-        <v>69</v>
-      </c>
-      <c r="G45" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H45" s="44"/>
-      <c r="I45" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="36">
-      <c r="A46" s="88"/>
-      <c r="B46" s="88"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88"/>
-      <c r="F46" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
-      <c r="A47" s="88"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
-      <c r="F47" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="88"/>
-      <c r="B48" s="88"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
-      <c r="F48" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G48" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
-      <c r="A49" s="88"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G49" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="36">
-      <c r="A50" s="88"/>
-      <c r="B50" s="88"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="88"/>
-      <c r="E50" s="88"/>
-      <c r="F50" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="G50" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
-      <c r="A51" s="88"/>
-      <c r="B51" s="88"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="88"/>
-      <c r="E51" s="88"/>
-      <c r="F51" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G51" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="89"/>
-      <c r="F52" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
-      <c r="A53" s="88"/>
-      <c r="B53" s="88"/>
-      <c r="C53" s="93" t="s">
-        <v>190</v>
-      </c>
-      <c r="D53" s="93" t="s">
-        <v>188</v>
-      </c>
-      <c r="E53" s="93" t="s">
-        <v>189</v>
-      </c>
-      <c r="F53" s="42" t="s">
-        <v>185</v>
-      </c>
-      <c r="G53" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="53"/>
-      <c r="I53" s="43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
-      <c r="A54" s="89"/>
-      <c r="B54" s="89"/>
-      <c r="C54" s="89"/>
-      <c r="D54" s="89"/>
-      <c r="E54" s="89"/>
-      <c r="F54" s="42" t="s">
-        <v>186</v>
-      </c>
-      <c r="G54" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="53"/>
-      <c r="I54" s="43" t="s">
-        <v>31</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="33">
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B40:B54"/>
-    <mergeCell ref="A40:A54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="A37:I37"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A39:I39"/>
-    <mergeCell ref="C40:C52"/>
-    <mergeCell ref="D40:D52"/>
-    <mergeCell ref="E40:E52"/>
-    <mergeCell ref="A9:A20"/>
-    <mergeCell ref="B9:B20"/>
-    <mergeCell ref="D9:D20"/>
-    <mergeCell ref="E9:E20"/>
-    <mergeCell ref="C9:C20"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A34:I34"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="B22:B33"/>
-    <mergeCell ref="E22:E32"/>
-    <mergeCell ref="D22:D32"/>
-    <mergeCell ref="C22:C32"/>
+  <mergeCells count="35">
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C43:C55"/>
+    <mergeCell ref="D43:D55"/>
+    <mergeCell ref="E43:E55"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="B11:B23"/>
+    <mergeCell ref="D11:D23"/>
+    <mergeCell ref="E11:E23"/>
+    <mergeCell ref="C11:C23"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="E25:E35"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="C25:C35"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="D56:D58"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34231,211 +34616,211 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1">
       <c r="A1" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="C1" s="55" t="s">
         <v>134</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
       <c r="A2" s="102" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="103" t="s">
         <v>136</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="C2" s="57" t="s">
         <v>137</v>
-      </c>
-      <c r="C2" s="57" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" thickBot="1">
       <c r="A3" s="102"/>
       <c r="B3" s="103"/>
       <c r="C3" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75.75" thickBot="1">
       <c r="A4" s="102"/>
       <c r="B4" s="103"/>
       <c r="C4" s="58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" thickBot="1">
       <c r="A5" s="102"/>
       <c r="B5" s="103"/>
       <c r="C5" s="59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickBot="1">
       <c r="A6" s="54" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>141</v>
-      </c>
-      <c r="B6" s="60" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="55" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1">
       <c r="A7" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="C7" s="55" t="s">
         <v>144</v>
-      </c>
-      <c r="C7" s="55" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1">
       <c r="A8" s="54" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="C8" s="55" t="s">
         <v>147</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickBot="1">
       <c r="A9" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="C9" s="57" t="s">
         <v>150</v>
-      </c>
-      <c r="C9" s="57" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1">
       <c r="A10" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="55" t="s">
-        <v>153</v>
-      </c>
       <c r="C10" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" thickBot="1">
       <c r="A11" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="59" t="s">
         <v>154</v>
-      </c>
-      <c r="B11" s="55" t="s">
-        <v>150</v>
-      </c>
-      <c r="C11" s="59" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" thickBot="1">
       <c r="A12" s="102" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="103" t="s">
         <v>156</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="C12" s="57" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="57" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" thickBot="1">
       <c r="A13" s="102"/>
       <c r="B13" s="103"/>
       <c r="C13" s="58" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75.75" thickBot="1">
       <c r="A14" s="102"/>
       <c r="B14" s="103"/>
       <c r="C14" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1">
       <c r="A15" s="102"/>
       <c r="B15" s="103"/>
       <c r="C15" s="61" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1">
       <c r="A16" s="102"/>
       <c r="B16" s="103"/>
       <c r="C16" s="61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1">
       <c r="A17" s="102"/>
       <c r="B17" s="103"/>
       <c r="C17" s="61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1">
       <c r="A18" s="102"/>
       <c r="B18" s="103"/>
       <c r="C18" s="61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1">
       <c r="A19" s="102"/>
       <c r="B19" s="103"/>
       <c r="C19" s="61" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1">
       <c r="A20" s="102"/>
       <c r="B20" s="103"/>
       <c r="C20" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickBot="1">
       <c r="A21" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="55" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="55" t="s">
-        <v>167</v>
-      </c>
       <c r="C21" s="55" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="47.25" thickBot="1">
       <c r="A22" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B22" s="55" t="s">
         <v>168</v>
       </c>
-      <c r="B22" s="55" t="s">
-        <v>169</v>
-      </c>
       <c r="C22" s="55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30.75" thickBot="1">
       <c r="A23" s="54" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B23" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C23" s="55" t="s">
         <v>170</v>
-      </c>
-      <c r="C23" s="55" t="s">
-        <v>171</v>
       </c>
     </row>
   </sheetData>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A320F04A-610B-4A77-856D-A3C4767D42B4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616CBCB-3FAC-4DB4-A175-8BBEA319272B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
   <si>
     <t>Project Name:</t>
   </si>
@@ -817,6 +817,12 @@
   </si>
   <si>
     <t>Không giới hạn ký tự (no character limit)</t>
+  </si>
+  <si>
+    <t>định dạng bằng file excel .xlsx (format equal to file excel .xlxs)</t>
+  </si>
+  <si>
+    <t>không được điền, chỉ được import (Do not fill, only import)</t>
   </si>
 </sst>
 </file>
@@ -1704,16 +1710,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1722,7 +1719,16 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1737,7 +1743,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1749,20 +1755,20 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -30588,19 +30594,19 @@
       </c>
     </row>
     <row r="2" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="98">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="92" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30609,11 +30615,11 @@
       <c r="G2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104" t="s">
+      <c r="H2" s="87"/>
+      <c r="I2" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="104"/>
+      <c r="J2" s="87"/>
       <c r="K2" s="65"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
@@ -30659,20 +30665,20 @@
       <c r="BA2" s="65"/>
     </row>
     <row r="3" spans="1:53" s="45" customFormat="1" ht="36">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="91"/>
-      <c r="I3" s="91"/>
-      <c r="J3" s="91"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
@@ -30718,20 +30724,20 @@
       <c r="BA3" s="65"/>
     </row>
     <row r="4" spans="1:53" s="45" customFormat="1" ht="36">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="91"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="91"/>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
@@ -30777,20 +30783,20 @@
       <c r="BA4" s="65"/>
     </row>
     <row r="5" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="91"/>
-      <c r="I5" s="91"/>
-      <c r="J5" s="91"/>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
       <c r="K5" s="65"/>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
@@ -30836,20 +30842,20 @@
       <c r="BA5" s="65"/>
     </row>
     <row r="6" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="94"/>
-      <c r="E6" s="93"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="92"/>
-      <c r="I6" s="92"/>
-      <c r="J6" s="92"/>
+      <c r="H6" s="89"/>
+      <c r="I6" s="89"/>
+      <c r="J6" s="89"/>
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
@@ -30896,7 +30902,7 @@
     </row>
     <row r="7" spans="1:53" s="45" customFormat="1" ht="36">
       <c r="A7" s="94"/>
-      <c r="B7" s="98"/>
+      <c r="B7" s="93"/>
       <c r="C7" s="50" t="s">
         <v>113</v>
       </c>
@@ -30976,19 +30982,19 @@
       <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:53" ht="36">
-      <c r="A9" s="90">
+      <c r="A9" s="98">
         <v>2</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="93" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="93" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="93" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="98" t="s">
+      <c r="E9" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -30997,237 +31003,237 @@
       <c r="G9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="104"/>
-      <c r="I9" s="104" t="s">
+      <c r="H9" s="87"/>
+      <c r="I9" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="104"/>
+      <c r="J9" s="87"/>
     </row>
     <row r="10" spans="1:53" ht="36">
-      <c r="A10" s="98"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="91"/>
-      <c r="I10" s="91"/>
-      <c r="J10" s="91"/>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
     </row>
     <row r="11" spans="1:53" ht="36">
-      <c r="A11" s="98"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="91"/>
-      <c r="I11" s="92"/>
-      <c r="J11" s="91"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="89"/>
+      <c r="J11" s="88"/>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="91"/>
-      <c r="I12" s="104" t="s">
+      <c r="H12" s="88"/>
+      <c r="I12" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="J12" s="91"/>
+      <c r="J12" s="88"/>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="42" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="91"/>
-      <c r="I13" s="91"/>
-      <c r="J13" s="91"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="42" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
     </row>
     <row r="15" spans="1:53" ht="36">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="42" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="91"/>
-      <c r="I15" s="91"/>
-      <c r="J15" s="91"/>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
     </row>
     <row r="16" spans="1:53" ht="36">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
-      <c r="J16" s="91"/>
+      <c r="H16" s="88"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="88"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="42" t="s">
         <v>195</v>
       </c>
       <c r="G18" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
     </row>
     <row r="19" spans="1:53" ht="36">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="42" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="91"/>
-      <c r="I19" s="91"/>
-      <c r="J19" s="91"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="1:53" ht="36">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="42" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="42" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="91"/>
-      <c r="I21" s="91"/>
-      <c r="J21" s="91"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
     </row>
     <row r="22" spans="1:53" ht="36">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="42" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="91"/>
-      <c r="I22" s="91"/>
-      <c r="J22" s="91"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="94"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="42" t="s">
         <v>193</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="92"/>
-      <c r="I23" s="92"/>
-      <c r="J23" s="92"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="89"/>
+      <c r="J23" s="89"/>
     </row>
     <row r="24" spans="1:53" ht="28.5" customHeight="1">
       <c r="A24" s="99"/>
@@ -31242,19 +31248,19 @@
       <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A25" s="90">
+      <c r="A25" s="98">
         <v>3</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="92" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="90" t="s">
+      <c r="E25" s="98" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="42" t="s">
@@ -31263,8 +31269,8 @@
       <c r="G25" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="104"/>
-      <c r="I25" s="104"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
       <c r="J25" s="43" t="s">
         <v>30</v>
       </c>
@@ -31313,19 +31319,19 @@
       <c r="BA25" s="65"/>
     </row>
     <row r="26" spans="1:53" s="45" customFormat="1">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="98"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="42" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
       <c r="J26" s="43" t="s">
         <v>30</v>
       </c>
@@ -31374,19 +31380,19 @@
       <c r="BA26" s="65"/>
     </row>
     <row r="27" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="98"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="91"/>
-      <c r="I27" s="91"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
       <c r="J27" s="43" t="s">
         <v>30</v>
       </c>
@@ -31435,19 +31441,19 @@
       <c r="BA27" s="65"/>
     </row>
     <row r="28" spans="1:53" s="45" customFormat="1">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="98"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
       <c r="J28" s="43" t="s">
         <v>30</v>
       </c>
@@ -31496,19 +31502,19 @@
       <c r="BA28" s="65"/>
     </row>
     <row r="29" spans="1:53" s="45" customFormat="1">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="98"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="92"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="91"/>
-      <c r="I29" s="91"/>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
       <c r="J29" s="43" t="s">
         <v>31</v>
       </c>
@@ -31557,19 +31563,19 @@
       <c r="BA29" s="65"/>
     </row>
     <row r="30" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="98"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="92"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="91"/>
-      <c r="I30" s="91"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="88"/>
       <c r="J30" s="43" t="s">
         <v>31</v>
       </c>
@@ -31618,15 +31624,15 @@
       <c r="BA30" s="65"/>
     </row>
     <row r="31" spans="1:53" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="93" t="s">
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="92" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="93" t="s">
+      <c r="D31" s="92" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="98" t="s">
+      <c r="E31" s="93" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="42" t="s">
@@ -31635,8 +31641,8 @@
       <c r="G31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="91"/>
-      <c r="I31" s="91"/>
+      <c r="H31" s="88"/>
+      <c r="I31" s="88"/>
       <c r="J31" s="43" t="s">
         <v>30</v>
       </c>
@@ -31685,19 +31691,19 @@
       <c r="BA31" s="65"/>
     </row>
     <row r="32" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="98"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="92"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="42" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="91"/>
-      <c r="I32" s="91"/>
+      <c r="H32" s="88"/>
+      <c r="I32" s="88"/>
       <c r="J32" s="43" t="s">
         <v>30</v>
       </c>
@@ -31746,19 +31752,19 @@
       <c r="BA32" s="65"/>
     </row>
     <row r="33" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="98"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
+      <c r="H33" s="88"/>
+      <c r="I33" s="88"/>
       <c r="J33" s="43" t="s">
         <v>30</v>
       </c>
@@ -31807,19 +31813,19 @@
       <c r="BA33" s="65"/>
     </row>
     <row r="34" spans="1:53" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="98"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="92"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="91"/>
-      <c r="I34" s="91"/>
+      <c r="H34" s="88"/>
+      <c r="I34" s="88"/>
       <c r="J34" s="43" t="s">
         <v>30</v>
       </c>
@@ -31868,19 +31874,19 @@
       <c r="BA34" s="65"/>
     </row>
     <row r="35" spans="1:53" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="98"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="92"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="91"/>
-      <c r="I35" s="91"/>
+      <c r="H35" s="88"/>
+      <c r="I35" s="88"/>
       <c r="J35" s="43" t="s">
         <v>31</v>
       </c>
@@ -31931,8 +31937,8 @@
     <row r="36" spans="1:53" s="45" customFormat="1">
       <c r="A36" s="94"/>
       <c r="B36" s="94"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
       <c r="E36" s="94"/>
       <c r="F36" s="42" t="s">
         <v>51</v>
@@ -31940,8 +31946,8 @@
       <c r="G36" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="92"/>
-      <c r="I36" s="92"/>
+      <c r="H36" s="89"/>
+      <c r="I36" s="89"/>
       <c r="J36" s="43" t="s">
         <v>31</v>
       </c>
@@ -32002,19 +32008,19 @@
       <c r="J37" s="97"/>
     </row>
     <row r="38" spans="1:53" ht="72.75" customHeight="1">
-      <c r="A38" s="90">
+      <c r="A38" s="98">
         <v>4</v>
       </c>
-      <c r="B38" s="98" t="s">
+      <c r="B38" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="93" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="98" t="s">
+      <c r="D38" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="98" t="s">
+      <c r="E38" s="93" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="42" t="s">
@@ -32030,11 +32036,11 @@
       </c>
     </row>
     <row r="39" spans="1:53" ht="145.5" customHeight="1">
-      <c r="A39" s="98"/>
-      <c r="B39" s="98"/>
-      <c r="C39" s="98"/>
-      <c r="D39" s="98"/>
-      <c r="E39" s="98"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
@@ -32060,10 +32066,10 @@
       <c r="J40" s="97"/>
     </row>
     <row r="41" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A41" s="90">
+      <c r="A41" s="98">
         <v>5</v>
       </c>
-      <c r="B41" s="90" t="s">
+      <c r="B41" s="98" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="64" t="s">
@@ -32072,7 +32078,7 @@
       <c r="D41" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="90" t="s">
+      <c r="E41" s="98" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="42" t="s">
@@ -32084,7 +32090,7 @@
       <c r="H41" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="105"/>
+      <c r="I41" s="90"/>
       <c r="J41" s="43" t="s">
         <v>30</v>
       </c>
@@ -32133,23 +32139,23 @@
       <c r="BA41" s="65"/>
     </row>
     <row r="42" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A42" s="98"/>
-      <c r="B42" s="91"/>
-      <c r="C42" s="90" t="s">
+      <c r="A42" s="93"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="93" t="s">
+      <c r="D42" s="92" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="91"/>
+      <c r="E42" s="88"/>
       <c r="F42" s="42" t="s">
         <v>121</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
+      <c r="H42" s="87"/>
+      <c r="I42" s="90"/>
       <c r="J42" s="43" t="s">
         <v>30</v>
       </c>
@@ -32199,18 +32205,18 @@
     </row>
     <row r="43" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A43" s="94"/>
-      <c r="B43" s="92"/>
+      <c r="B43" s="89"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="93"/>
-      <c r="E43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="89"/>
       <c r="F43" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="92"/>
-      <c r="I43" s="106"/>
+      <c r="H43" s="89"/>
+      <c r="I43" s="91"/>
       <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
@@ -32259,16 +32265,16 @@
       <c r="BA43" s="65"/>
     </row>
     <row r="44" spans="1:53" ht="28.5" customHeight="1">
-      <c r="A44" s="87"/>
-      <c r="B44" s="88"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="88"/>
-      <c r="E44" s="88"/>
-      <c r="F44" s="88"/>
-      <c r="G44" s="88"/>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
-      <c r="J44" s="89"/>
+      <c r="A44" s="102"/>
+      <c r="B44" s="103"/>
+      <c r="C44" s="103"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="103"/>
+      <c r="F44" s="103"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="103"/>
+      <c r="I44" s="103"/>
+      <c r="J44" s="104"/>
     </row>
     <row r="45" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A45" s="52">
@@ -33367,11 +33373,29 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="H25:H36"/>
-    <mergeCell ref="I25:I36"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A9:A23"/>
+    <mergeCell ref="B9:B23"/>
+    <mergeCell ref="E9:E23"/>
+    <mergeCell ref="E25:E30"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="D9:D23"/>
+    <mergeCell ref="D25:D30"/>
     <mergeCell ref="D31:D36"/>
     <mergeCell ref="E31:E36"/>
     <mergeCell ref="A8:J8"/>
@@ -33388,29 +33412,11 @@
     <mergeCell ref="I9:I11"/>
     <mergeCell ref="J9:J23"/>
     <mergeCell ref="H9:H23"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A9:A23"/>
-    <mergeCell ref="B9:B23"/>
-    <mergeCell ref="E9:E23"/>
-    <mergeCell ref="E25:E30"/>
-    <mergeCell ref="B25:B36"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="D9:D23"/>
-    <mergeCell ref="D25:D30"/>
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="H25:H36"/>
+    <mergeCell ref="I25:I36"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I41:I43"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33423,8 +33429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43:I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33475,19 +33481,19 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="54">
-      <c r="A2" s="90">
+      <c r="A2" s="98">
         <v>1</v>
       </c>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="93" t="s">
+      <c r="C2" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="93" t="s">
+      <c r="E2" s="92" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33503,11 +33509,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="36">
-      <c r="A3" s="98"/>
-      <c r="B3" s="98"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="93"/>
+      <c r="A3" s="93"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="92"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33521,11 +33527,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="36">
-      <c r="A4" s="98"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="98"/>
-      <c r="E4" s="93"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="92"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33539,11 +33545,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="54">
-      <c r="A5" s="98"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="93"/>
+      <c r="A5" s="93"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33557,11 +33563,11 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="98"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="93"/>
+      <c r="A6" s="93"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="92"/>
       <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
@@ -33575,11 +33581,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="54">
-      <c r="A7" s="98"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="93"/>
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="92"/>
       <c r="D7" s="94"/>
-      <c r="E7" s="93"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="42" t="s">
         <v>57</v>
       </c>
@@ -33593,12 +33599,12 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="98"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="90" t="s">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="98" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="98" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="73"/>
@@ -33616,9 +33622,9 @@
     </row>
     <row r="9" spans="1:10" ht="54">
       <c r="A9" s="94"/>
-      <c r="B9" s="98"/>
+      <c r="B9" s="93"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="98"/>
+      <c r="D9" s="93"/>
       <c r="E9" s="50" t="s">
         <v>77</v>
       </c>
@@ -33647,19 +33653,19 @@
       <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="36">
-      <c r="A11" s="90">
+      <c r="A11" s="98">
         <v>2</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="B11" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="93" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="98" t="s">
+      <c r="E11" s="93" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="42" t="s">
@@ -33675,11 +33681,11 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="98"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
       <c r="F12" s="42" t="s">
         <v>75</v>
       </c>
@@ -33693,11 +33699,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="36">
-      <c r="A13" s="98"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
       <c r="F13" s="42" t="s">
         <v>83</v>
       </c>
@@ -33711,11 +33717,11 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="98"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
       <c r="F14" s="42" t="s">
         <v>193</v>
       </c>
@@ -33729,11 +33735,11 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="98"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
+      <c r="A15" s="93"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="42" t="s">
         <v>80</v>
       </c>
@@ -33747,11 +33753,11 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="98"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
+      <c r="A16" s="93"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
       <c r="F16" s="42" t="s">
         <v>84</v>
       </c>
@@ -33765,11 +33771,11 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="98"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
+      <c r="A17" s="93"/>
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="93"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="42" t="s">
         <v>81</v>
       </c>
@@ -33783,11 +33789,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="36">
-      <c r="A18" s="98"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
+      <c r="A18" s="93"/>
+      <c r="B18" s="93"/>
+      <c r="C18" s="93"/>
+      <c r="D18" s="93"/>
+      <c r="E18" s="93"/>
       <c r="F18" s="42" t="s">
         <v>85</v>
       </c>
@@ -33801,11 +33807,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="98"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
+      <c r="A19" s="93"/>
+      <c r="B19" s="93"/>
+      <c r="C19" s="93"/>
+      <c r="D19" s="93"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="42" t="s">
         <v>86</v>
       </c>
@@ -33819,11 +33825,11 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="98"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
+      <c r="A20" s="93"/>
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="42" t="s">
         <v>87</v>
       </c>
@@ -33837,11 +33843,11 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="98"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
+      <c r="A21" s="93"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="93"/>
+      <c r="E21" s="93"/>
       <c r="F21" s="42" t="s">
         <v>195</v>
       </c>
@@ -33853,11 +33859,11 @@
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="98"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
+      <c r="A22" s="93"/>
+      <c r="B22" s="93"/>
+      <c r="C22" s="93"/>
+      <c r="D22" s="93"/>
+      <c r="E22" s="93"/>
       <c r="F22" s="42" t="s">
         <v>88</v>
       </c>
@@ -33872,10 +33878,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="94"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
+      <c r="B23" s="93"/>
+      <c r="C23" s="93"/>
+      <c r="D23" s="93"/>
+      <c r="E23" s="93"/>
       <c r="F23" s="42" t="s">
         <v>89</v>
       </c>
@@ -33901,19 +33907,19 @@
       <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
-      <c r="A25" s="90">
+      <c r="A25" s="98">
         <v>3</v>
       </c>
-      <c r="B25" s="90" t="s">
+      <c r="B25" s="98" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="93" t="s">
+      <c r="C25" s="92" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="93" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="93" t="s">
+      <c r="E25" s="92" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="44" t="s">
@@ -33929,11 +33935,11 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="98"/>
-      <c r="B26" s="98"/>
-      <c r="C26" s="93"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="93"/>
+      <c r="B26" s="93"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="92"/>
       <c r="F26" s="42" t="s">
         <v>68</v>
       </c>
@@ -33947,11 +33953,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="36">
-      <c r="A27" s="98"/>
-      <c r="B27" s="98"/>
-      <c r="C27" s="93"/>
-      <c r="D27" s="98"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="93"/>
+      <c r="B27" s="93"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="92"/>
       <c r="F27" s="42" t="s">
         <v>69</v>
       </c>
@@ -33965,11 +33971,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="36">
-      <c r="A28" s="98"/>
-      <c r="B28" s="98"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="98"/>
-      <c r="E28" s="93"/>
+      <c r="A28" s="93"/>
+      <c r="B28" s="93"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="92"/>
       <c r="F28" s="42" t="s">
         <v>70</v>
       </c>
@@ -33983,11 +33989,11 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="98"/>
-      <c r="B29" s="98"/>
-      <c r="C29" s="93"/>
-      <c r="D29" s="98"/>
-      <c r="E29" s="93"/>
+      <c r="A29" s="93"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="92"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="92"/>
       <c r="F29" s="42" t="s">
         <v>71</v>
       </c>
@@ -34001,11 +34007,11 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="98"/>
-      <c r="B30" s="98"/>
-      <c r="C30" s="93"/>
-      <c r="D30" s="98"/>
-      <c r="E30" s="93"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="92"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="92"/>
       <c r="F30" s="42" t="s">
         <v>73</v>
       </c>
@@ -34019,11 +34025,11 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="98"/>
-      <c r="B31" s="98"/>
-      <c r="C31" s="93"/>
-      <c r="D31" s="98"/>
-      <c r="E31" s="93"/>
+      <c r="A31" s="93"/>
+      <c r="B31" s="93"/>
+      <c r="C31" s="92"/>
+      <c r="D31" s="93"/>
+      <c r="E31" s="92"/>
       <c r="F31" s="42" t="s">
         <v>72</v>
       </c>
@@ -34037,11 +34043,11 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="98"/>
-      <c r="B32" s="98"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="98"/>
-      <c r="E32" s="93"/>
+      <c r="A32" s="93"/>
+      <c r="B32" s="93"/>
+      <c r="C32" s="92"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="92"/>
       <c r="F32" s="42" t="s">
         <v>91</v>
       </c>
@@ -34057,11 +34063,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="36">
-      <c r="A33" s="98"/>
-      <c r="B33" s="98"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="98"/>
-      <c r="E33" s="93"/>
+      <c r="A33" s="93"/>
+      <c r="B33" s="93"/>
+      <c r="C33" s="92"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="92"/>
       <c r="F33" s="42" t="s">
         <v>74</v>
       </c>
@@ -34075,11 +34081,11 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="98"/>
-      <c r="B34" s="98"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="93"/>
+      <c r="A34" s="93"/>
+      <c r="B34" s="93"/>
+      <c r="C34" s="92"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="92"/>
       <c r="F34" s="42" t="s">
         <v>75</v>
       </c>
@@ -34093,11 +34099,11 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="98"/>
-      <c r="B35" s="98"/>
-      <c r="C35" s="93"/>
+      <c r="A35" s="93"/>
+      <c r="B35" s="93"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="94"/>
-      <c r="E35" s="93"/>
+      <c r="E35" s="92"/>
       <c r="F35" s="42" t="s">
         <v>76</v>
       </c>
@@ -34111,8 +34117,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="98"/>
-      <c r="B36" s="98"/>
+      <c r="A36" s="93"/>
+      <c r="B36" s="93"/>
       <c r="C36" s="71" t="s">
         <v>181</v>
       </c>
@@ -34149,19 +34155,19 @@
       <c r="J37" s="101"/>
     </row>
     <row r="38" spans="1:10" ht="36">
-      <c r="A38" s="93">
+      <c r="A38" s="92">
         <v>4</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="92" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="98" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="92" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="42" t="s">
@@ -34179,11 +34185,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="105" customHeight="1">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
+      <c r="A39" s="92"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
+      <c r="D39" s="92"/>
+      <c r="E39" s="92"/>
       <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
@@ -34251,19 +34257,19 @@
       <c r="J42" s="101"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="90">
+      <c r="A43" s="98">
         <v>6</v>
       </c>
-      <c r="B43" s="90" t="s">
+      <c r="B43" s="98" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="90" t="s">
+      <c r="C43" s="98" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="98" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="90" t="s">
+      <c r="E43" s="98" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="42" t="s">
@@ -34272,213 +34278,217 @@
       <c r="G43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
+      <c r="H43" s="87" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="87" t="s">
+        <v>201</v>
+      </c>
       <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
-      <c r="A44" s="98"/>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
-      <c r="D44" s="98"/>
-      <c r="E44" s="98"/>
+    <row r="44" spans="1:10" ht="36" customHeight="1">
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
       <c r="F44" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
       <c r="J44" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
-      <c r="A45" s="98"/>
-      <c r="B45" s="98"/>
-      <c r="C45" s="98"/>
-      <c r="D45" s="98"/>
-      <c r="E45" s="98"/>
+    <row r="45" spans="1:10" ht="36" customHeight="1">
+      <c r="A45" s="93"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
       <c r="F45" s="42" t="s">
         <v>179</v>
       </c>
       <c r="G45" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
+      <c r="H45" s="88"/>
+      <c r="I45" s="88"/>
       <c r="J45" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="98"/>
-      <c r="E46" s="98"/>
+    <row r="46" spans="1:10" ht="36" customHeight="1">
+      <c r="A46" s="93"/>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
       <c r="F46" s="44" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="44"/>
-      <c r="I46" s="44"/>
+      <c r="H46" s="88"/>
+      <c r="I46" s="88"/>
       <c r="J46" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
-      <c r="A47" s="98"/>
-      <c r="B47" s="98"/>
-      <c r="C47" s="98"/>
-      <c r="D47" s="98"/>
-      <c r="E47" s="98"/>
+    <row r="47" spans="1:10" ht="36" customHeight="1">
+      <c r="A47" s="93"/>
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
       <c r="F47" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="44"/>
-      <c r="I47" s="44"/>
+      <c r="H47" s="88"/>
+      <c r="I47" s="88"/>
       <c r="J47" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36">
-      <c r="A48" s="98"/>
-      <c r="B48" s="98"/>
-      <c r="C48" s="98"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="98"/>
+      <c r="A48" s="93"/>
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
       <c r="F48" s="42" t="s">
         <v>69</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
+      <c r="H48" s="88"/>
+      <c r="I48" s="88"/>
       <c r="J48" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36">
-      <c r="A49" s="98"/>
-      <c r="B49" s="98"/>
-      <c r="C49" s="98"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="98"/>
+      <c r="A49" s="93"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
       <c r="F49" s="42" t="s">
         <v>70</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="44"/>
-      <c r="I49" s="44"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="88"/>
       <c r="J49" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
-      <c r="A50" s="98"/>
-      <c r="B50" s="98"/>
-      <c r="C50" s="98"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="98"/>
+    <row r="50" spans="1:10" ht="36" customHeight="1">
+      <c r="A50" s="93"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
       <c r="F50" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="44"/>
-      <c r="I50" s="44"/>
+      <c r="H50" s="88"/>
+      <c r="I50" s="88"/>
       <c r="J50" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
-      <c r="A51" s="98"/>
-      <c r="B51" s="98"/>
-      <c r="C51" s="98"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="98"/>
+    <row r="51" spans="1:10" ht="36" customHeight="1">
+      <c r="A51" s="93"/>
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
       <c r="F51" s="42" t="s">
         <v>73</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="44"/>
-      <c r="I51" s="44"/>
+      <c r="H51" s="88"/>
+      <c r="I51" s="88"/>
       <c r="J51" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
-      <c r="A52" s="98"/>
-      <c r="B52" s="98"/>
-      <c r="C52" s="98"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="98"/>
+    <row r="52" spans="1:10" ht="36" customHeight="1">
+      <c r="A52" s="93"/>
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
       <c r="F52" s="42" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="44"/>
-      <c r="I52" s="44"/>
+      <c r="H52" s="88"/>
+      <c r="I52" s="88"/>
       <c r="J52" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36">
-      <c r="A53" s="98"/>
-      <c r="B53" s="98"/>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
+      <c r="A53" s="93"/>
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
       <c r="F53" s="42" t="s">
         <v>74</v>
       </c>
       <c r="G53" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="44"/>
-      <c r="I53" s="44"/>
+      <c r="H53" s="88"/>
+      <c r="I53" s="88"/>
       <c r="J53" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
-      <c r="A54" s="98"/>
-      <c r="B54" s="98"/>
-      <c r="C54" s="98"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="98"/>
+    <row r="54" spans="1:10" ht="36" customHeight="1">
+      <c r="A54" s="93"/>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
       <c r="F54" s="42" t="s">
         <v>75</v>
       </c>
       <c r="G54" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="44"/>
-      <c r="I54" s="44"/>
+      <c r="H54" s="88"/>
+      <c r="I54" s="88"/>
       <c r="J54" s="43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
-      <c r="A55" s="98"/>
-      <c r="B55" s="98"/>
+    <row r="55" spans="1:10" ht="36" customHeight="1">
+      <c r="A55" s="93"/>
+      <c r="B55" s="93"/>
       <c r="C55" s="94"/>
       <c r="D55" s="94"/>
       <c r="E55" s="94"/>
@@ -34488,22 +34498,22 @@
       <c r="G55" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="44"/>
-      <c r="I55" s="44"/>
+      <c r="H55" s="89"/>
+      <c r="I55" s="89"/>
       <c r="J55" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="98"/>
-      <c r="B56" s="98"/>
-      <c r="C56" s="90" t="s">
+      <c r="A56" s="93"/>
+      <c r="B56" s="93"/>
+      <c r="C56" s="98" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="90" t="s">
+      <c r="D56" s="98" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="90" t="s">
+      <c r="E56" s="98" t="s">
         <v>188</v>
       </c>
       <c r="F56" s="42" t="s">
@@ -34519,11 +34529,11 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="98"/>
-      <c r="B57" s="98"/>
-      <c r="C57" s="98"/>
-      <c r="D57" s="98"/>
-      <c r="E57" s="98"/>
+      <c r="A57" s="93"/>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
       <c r="F57" s="42" t="s">
         <v>194</v>
       </c>
@@ -34555,7 +34565,28 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="37">
+    <mergeCell ref="H43:H55"/>
+    <mergeCell ref="I43:I55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="B43:B58"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="B2:B9"/>
+    <mergeCell ref="D2:D7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A42:J42"/>
     <mergeCell ref="C43:C55"/>
     <mergeCell ref="D43:D55"/>
@@ -34572,25 +34603,6 @@
     <mergeCell ref="E25:E35"/>
     <mergeCell ref="D25:D35"/>
     <mergeCell ref="C25:C35"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="B2:B9"/>
-    <mergeCell ref="D2:D7"/>
-    <mergeCell ref="E2:E7"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="D56:D58"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34626,10 +34638,10 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="105" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="106" t="s">
         <v>136</v>
       </c>
       <c r="C2" s="57" t="s">
@@ -34637,22 +34649,22 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A3" s="102"/>
-      <c r="B3" s="103"/>
+      <c r="A3" s="105"/>
+      <c r="B3" s="106"/>
       <c r="C3" s="58" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A4" s="102"/>
-      <c r="B4" s="103"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="58" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="63.75" thickBot="1">
-      <c r="A5" s="102"/>
-      <c r="B5" s="103"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="59" t="s">
         <v>171</v>
       </c>
@@ -34724,10 +34736,10 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="45.75" thickBot="1">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="105" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="103" t="s">
+      <c r="B12" s="106" t="s">
         <v>156</v>
       </c>
       <c r="C12" s="57" t="s">
@@ -34735,57 +34747,57 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" thickBot="1">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
+      <c r="A13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="58" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="75.75" thickBot="1">
-      <c r="A14" s="102"/>
-      <c r="B14" s="103"/>
+      <c r="A14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="58" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A15" s="102"/>
-      <c r="B15" s="103"/>
+      <c r="A15" s="105"/>
+      <c r="B15" s="106"/>
       <c r="C15" s="61" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A16" s="102"/>
-      <c r="B16" s="103"/>
+      <c r="A16" s="105"/>
+      <c r="B16" s="106"/>
       <c r="C16" s="61" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A17" s="102"/>
-      <c r="B17" s="103"/>
+      <c r="A17" s="105"/>
+      <c r="B17" s="106"/>
       <c r="C17" s="61" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A18" s="102"/>
-      <c r="B18" s="103"/>
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="61" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A19" s="102"/>
-      <c r="B19" s="103"/>
+      <c r="A19" s="105"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="61" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickBot="1">
-      <c r="A20" s="102"/>
-      <c r="B20" s="103"/>
+      <c r="A20" s="105"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="62" t="s">
         <v>164</v>
       </c>

--- a/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
+++ b/Improgress/2. Artifact and Deliverable/DetailDesign & Architect/Design/DE_DataDictionary_Ver1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6616CBCB-3FAC-4DB4-A175-8BBEA319272B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A0CAC8D-8601-4BE5-94C4-7BC85FBDB0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Revision History" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="201">
   <si>
     <t>Project Name:</t>
   </si>
@@ -802,9 +802,6 @@
   </si>
   <si>
     <t>ID Room</t>
-  </si>
-  <si>
-    <t>ID Project</t>
   </si>
   <si>
     <t>Note</t>
@@ -1710,7 +1707,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1719,16 +1725,7 @@
     <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1743,7 +1740,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1755,14 +1752,14 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -30542,8 +30539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BA173"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -30587,26 +30584,26 @@
         <v>29</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A2" s="98">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="90" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -30615,11 +30612,11 @@
       <c r="G2" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="J2" s="87"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="J2" s="102"/>
       <c r="K2" s="65"/>
       <c r="L2" s="65"/>
       <c r="M2" s="65"/>
@@ -30665,20 +30662,20 @@
       <c r="BA2" s="65"/>
     </row>
     <row r="3" spans="1:53" s="45" customFormat="1" ht="36">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
       <c r="K3" s="65"/>
       <c r="L3" s="65"/>
       <c r="M3" s="65"/>
@@ -30724,20 +30721,20 @@
       <c r="BA3" s="65"/>
     </row>
     <row r="4" spans="1:53" s="45" customFormat="1" ht="36">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="92"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
       <c r="G4" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
       <c r="K4" s="65"/>
       <c r="L4" s="65"/>
       <c r="M4" s="65"/>
@@ -30783,20 +30780,20 @@
       <c r="BA4" s="65"/>
     </row>
     <row r="5" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
       <c r="G5" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H5" s="88"/>
-      <c r="I5" s="88"/>
-      <c r="J5" s="88"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="65"/>
       <c r="L5" s="65"/>
       <c r="M5" s="65"/>
@@ -30842,20 +30839,20 @@
       <c r="BA5" s="65"/>
     </row>
     <row r="6" spans="1:53" s="45" customFormat="1" ht="54">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="94"/>
-      <c r="E6" s="92"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>57</v>
       </c>
       <c r="G6" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H6" s="89"/>
-      <c r="I6" s="89"/>
-      <c r="J6" s="89"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="65"/>
       <c r="L6" s="65"/>
       <c r="M6" s="65"/>
@@ -30902,7 +30899,7 @@
     </row>
     <row r="7" spans="1:53" s="45" customFormat="1" ht="36">
       <c r="A7" s="94"/>
-      <c r="B7" s="93"/>
+      <c r="B7" s="98"/>
       <c r="C7" s="50" t="s">
         <v>113</v>
       </c>
@@ -30919,7 +30916,7 @@
         <v>90</v>
       </c>
       <c r="H7" s="44" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I7" s="44"/>
       <c r="J7" s="43" t="s">
@@ -30982,19 +30979,19 @@
       <c r="J8" s="97"/>
     </row>
     <row r="9" spans="1:53" ht="36">
-      <c r="A9" s="98">
+      <c r="A9" s="90">
         <v>2</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="93" t="s">
+      <c r="C9" s="98" t="s">
         <v>124</v>
       </c>
-      <c r="D9" s="93" t="s">
+      <c r="D9" s="98" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="98" t="s">
         <v>61</v>
       </c>
       <c r="F9" s="42" t="s">
@@ -31003,237 +31000,237 @@
       <c r="G9" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="J9" s="87"/>
+      <c r="H9" s="102"/>
+      <c r="I9" s="102" t="s">
+        <v>197</v>
+      </c>
+      <c r="J9" s="102"/>
     </row>
     <row r="10" spans="1:53" ht="36">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="93"/>
-      <c r="E10" s="93"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
       <c r="F10" s="42" t="s">
         <v>62</v>
       </c>
       <c r="G10" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="88"/>
-      <c r="I10" s="88"/>
-      <c r="J10" s="88"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="91"/>
+      <c r="J10" s="91"/>
     </row>
     <row r="11" spans="1:53" ht="36">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="93"/>
-      <c r="D11" s="93"/>
-      <c r="E11" s="93"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
       <c r="F11" s="42" t="s">
         <v>64</v>
       </c>
       <c r="G11" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="88"/>
+      <c r="H11" s="91"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="91"/>
     </row>
     <row r="12" spans="1:53">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="42" t="s">
         <v>80</v>
       </c>
       <c r="G12" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H12" s="88"/>
-      <c r="I12" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="J12" s="88"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:53">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="42" t="s">
         <v>84</v>
       </c>
       <c r="G13" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
+      <c r="H13" s="91"/>
+      <c r="I13" s="91"/>
+      <c r="J13" s="91"/>
     </row>
     <row r="14" spans="1:53">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="42" t="s">
         <v>81</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H14" s="88"/>
-      <c r="I14" s="88"/>
-      <c r="J14" s="88"/>
+      <c r="H14" s="91"/>
+      <c r="I14" s="91"/>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="1:53" ht="36">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="42" t="s">
         <v>85</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H15" s="88"/>
-      <c r="I15" s="88"/>
-      <c r="J15" s="88"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="91"/>
+      <c r="J15" s="91"/>
     </row>
     <row r="16" spans="1:53" ht="36">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="42" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H16" s="88"/>
-      <c r="I16" s="88"/>
-      <c r="J16" s="88"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="91"/>
     </row>
     <row r="17" spans="1:53">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="42" t="s">
         <v>87</v>
       </c>
       <c r="G17" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
     </row>
     <row r="18" spans="1:53">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="42" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="G18" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="88"/>
-      <c r="I18" s="88"/>
-      <c r="J18" s="88"/>
+        <v>90</v>
+      </c>
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
     </row>
     <row r="19" spans="1:53" ht="36">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="42" t="s">
         <v>88</v>
       </c>
       <c r="G19" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="91"/>
+      <c r="J19" s="91"/>
     </row>
     <row r="20" spans="1:53" ht="36">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="42" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
     </row>
     <row r="21" spans="1:53">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="42" t="s">
         <v>75</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H21" s="88"/>
-      <c r="I21" s="88"/>
-      <c r="J21" s="88"/>
+      <c r="H21" s="91"/>
+      <c r="I21" s="91"/>
+      <c r="J21" s="91"/>
     </row>
     <row r="22" spans="1:53" ht="36">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="42" t="s">
         <v>83</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="88"/>
-      <c r="I22" s="88"/>
-      <c r="J22" s="88"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="91"/>
+      <c r="J22" s="91"/>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="94"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="42" t="s">
         <v>193</v>
       </c>
       <c r="G23" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="89"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="89"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
     </row>
     <row r="24" spans="1:53" ht="28.5" customHeight="1">
       <c r="A24" s="99"/>
@@ -31248,19 +31245,19 @@
       <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A25" s="98">
+      <c r="A25" s="90">
         <v>3</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="90" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="93" t="s">
         <v>128</v>
       </c>
-      <c r="D25" s="92" t="s">
+      <c r="D25" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="98" t="s">
+      <c r="E25" s="90" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="42" t="s">
@@ -31269,8 +31266,8 @@
       <c r="G25" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
+      <c r="H25" s="102"/>
+      <c r="I25" s="102"/>
       <c r="J25" s="43" t="s">
         <v>30</v>
       </c>
@@ -31319,19 +31316,19 @@
       <c r="BA25" s="65"/>
     </row>
     <row r="26" spans="1:53" s="45" customFormat="1">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="93"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="98"/>
       <c r="F26" s="42" t="s">
         <v>47</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
+      <c r="H26" s="91"/>
+      <c r="I26" s="91"/>
       <c r="J26" s="43" t="s">
         <v>30</v>
       </c>
@@ -31380,19 +31377,19 @@
       <c r="BA26" s="65"/>
     </row>
     <row r="27" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="92"/>
-      <c r="E27" s="93"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="93"/>
+      <c r="E27" s="98"/>
       <c r="F27" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G27" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="91"/>
       <c r="J27" s="43" t="s">
         <v>30</v>
       </c>
@@ -31441,19 +31438,19 @@
       <c r="BA27" s="65"/>
     </row>
     <row r="28" spans="1:53" s="45" customFormat="1">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="92"/>
-      <c r="E28" s="93"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="93"/>
+      <c r="E28" s="98"/>
       <c r="F28" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G28" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H28" s="88"/>
-      <c r="I28" s="88"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
       <c r="J28" s="43" t="s">
         <v>30</v>
       </c>
@@ -31502,19 +31499,19 @@
       <c r="BA28" s="65"/>
     </row>
     <row r="29" spans="1:53" s="45" customFormat="1">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="93"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="98"/>
       <c r="F29" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G29" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="91"/>
       <c r="J29" s="43" t="s">
         <v>31</v>
       </c>
@@ -31563,19 +31560,19 @@
       <c r="BA29" s="65"/>
     </row>
     <row r="30" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="93"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="93"/>
+      <c r="E30" s="98"/>
       <c r="F30" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G30" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="88"/>
-      <c r="I30" s="88"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
       <c r="J30" s="43" t="s">
         <v>31</v>
       </c>
@@ -31624,15 +31621,15 @@
       <c r="BA30" s="65"/>
     </row>
     <row r="31" spans="1:53" s="45" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="92" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93" t="s">
         <v>129</v>
       </c>
-      <c r="D31" s="92" t="s">
+      <c r="D31" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="98" t="s">
         <v>52</v>
       </c>
       <c r="F31" s="42" t="s">
@@ -31641,8 +31638,8 @@
       <c r="G31" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H31" s="88"/>
-      <c r="I31" s="88"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
       <c r="J31" s="43" t="s">
         <v>30</v>
       </c>
@@ -31691,19 +31688,19 @@
       <c r="BA31" s="65"/>
     </row>
     <row r="32" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="93"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="93"/>
+      <c r="E32" s="98"/>
       <c r="F32" s="42" t="s">
         <v>47</v>
       </c>
       <c r="G32" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="88"/>
-      <c r="I32" s="88"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="91"/>
       <c r="J32" s="43" t="s">
         <v>30</v>
       </c>
@@ -31752,19 +31749,19 @@
       <c r="BA32" s="65"/>
     </row>
     <row r="33" spans="1:53" s="45" customFormat="1" ht="28.5" customHeight="1">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="93"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="93"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="42" t="s">
         <v>48</v>
       </c>
       <c r="G33" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H33" s="88"/>
-      <c r="I33" s="88"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="91"/>
       <c r="J33" s="43" t="s">
         <v>30</v>
       </c>
@@ -31813,19 +31810,19 @@
       <c r="BA33" s="65"/>
     </row>
     <row r="34" spans="1:53" s="45" customFormat="1" ht="15" customHeight="1">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="92"/>
-      <c r="E34" s="93"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="93"/>
+      <c r="E34" s="98"/>
       <c r="F34" s="42" t="s">
         <v>49</v>
       </c>
       <c r="G34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H34" s="88"/>
-      <c r="I34" s="88"/>
+      <c r="H34" s="91"/>
+      <c r="I34" s="91"/>
       <c r="J34" s="43" t="s">
         <v>30</v>
       </c>
@@ -31874,19 +31871,19 @@
       <c r="BA34" s="65"/>
     </row>
     <row r="35" spans="1:53" s="45" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="92"/>
-      <c r="E35" s="93"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="98"/>
       <c r="F35" s="42" t="s">
         <v>50</v>
       </c>
       <c r="G35" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H35" s="88"/>
-      <c r="I35" s="88"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
       <c r="J35" s="43" t="s">
         <v>31</v>
       </c>
@@ -31937,8 +31934,8 @@
     <row r="36" spans="1:53" s="45" customFormat="1">
       <c r="A36" s="94"/>
       <c r="B36" s="94"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="92"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
       <c r="E36" s="94"/>
       <c r="F36" s="42" t="s">
         <v>51</v>
@@ -31946,8 +31943,8 @@
       <c r="G36" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="H36" s="89"/>
-      <c r="I36" s="89"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
       <c r="J36" s="43" t="s">
         <v>31</v>
       </c>
@@ -32008,19 +32005,19 @@
       <c r="J37" s="97"/>
     </row>
     <row r="38" spans="1:53" ht="72.75" customHeight="1">
-      <c r="A38" s="98">
+      <c r="A38" s="90">
         <v>4</v>
       </c>
-      <c r="B38" s="93" t="s">
+      <c r="B38" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="93" t="s">
+      <c r="C38" s="98" t="s">
         <v>191</v>
       </c>
-      <c r="D38" s="93" t="s">
+      <c r="D38" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="93" t="s">
+      <c r="E38" s="98" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="42" t="s">
@@ -32036,11 +32033,11 @@
       </c>
     </row>
     <row r="39" spans="1:53" ht="145.5" customHeight="1">
-      <c r="A39" s="93"/>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
+      <c r="A39" s="98"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
       <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
@@ -32066,10 +32063,10 @@
       <c r="J40" s="97"/>
     </row>
     <row r="41" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A41" s="98">
+      <c r="A41" s="90">
         <v>5</v>
       </c>
-      <c r="B41" s="98" t="s">
+      <c r="B41" s="90" t="s">
         <v>94</v>
       </c>
       <c r="C41" s="64" t="s">
@@ -32078,7 +32075,7 @@
       <c r="D41" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="E41" s="98" t="s">
+      <c r="E41" s="90" t="s">
         <v>94</v>
       </c>
       <c r="F41" s="42" t="s">
@@ -32090,7 +32087,7 @@
       <c r="H41" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="90"/>
+      <c r="I41" s="103"/>
       <c r="J41" s="43" t="s">
         <v>30</v>
       </c>
@@ -32139,23 +32136,23 @@
       <c r="BA41" s="65"/>
     </row>
     <row r="42" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
-      <c r="A42" s="93"/>
-      <c r="B42" s="88"/>
-      <c r="C42" s="98" t="s">
+      <c r="A42" s="98"/>
+      <c r="B42" s="91"/>
+      <c r="C42" s="90" t="s">
         <v>119</v>
       </c>
-      <c r="D42" s="92" t="s">
+      <c r="D42" s="93" t="s">
         <v>123</v>
       </c>
-      <c r="E42" s="88"/>
+      <c r="E42" s="91"/>
       <c r="F42" s="42" t="s">
         <v>121</v>
       </c>
       <c r="G42" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="87"/>
-      <c r="I42" s="90"/>
+      <c r="H42" s="102"/>
+      <c r="I42" s="103"/>
       <c r="J42" s="43" t="s">
         <v>30</v>
       </c>
@@ -32205,18 +32202,18 @@
     </row>
     <row r="43" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A43" s="94"/>
-      <c r="B43" s="89"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="94"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="89"/>
+      <c r="D43" s="93"/>
+      <c r="E43" s="92"/>
       <c r="F43" s="42" t="s">
         <v>122</v>
       </c>
       <c r="G43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="89"/>
-      <c r="I43" s="91"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="104"/>
       <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
@@ -32265,16 +32262,16 @@
       <c r="BA43" s="65"/>
     </row>
     <row r="44" spans="1:53" ht="28.5" customHeight="1">
-      <c r="A44" s="102"/>
-      <c r="B44" s="103"/>
-      <c r="C44" s="103"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="103"/>
-      <c r="F44" s="103"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="103"/>
-      <c r="I44" s="103"/>
-      <c r="J44" s="104"/>
+      <c r="A44" s="87"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="88"/>
+      <c r="E44" s="88"/>
+      <c r="F44" s="88"/>
+      <c r="G44" s="88"/>
+      <c r="H44" s="88"/>
+      <c r="I44" s="88"/>
+      <c r="J44" s="89"/>
     </row>
     <row r="45" spans="1:53" s="45" customFormat="1" ht="54" customHeight="1">
       <c r="A45" s="52">
@@ -33373,13 +33370,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A44:J44"/>
-    <mergeCell ref="E41:E43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="A40:J40"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="H25:H36"/>
+    <mergeCell ref="I25:I36"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="D31:D36"/>
+    <mergeCell ref="E31:E36"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="B2:B7"/>
+    <mergeCell ref="E2:E6"/>
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="C9:C23"/>
+    <mergeCell ref="C25:C30"/>
+    <mergeCell ref="C31:C36"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="I12:I23"/>
+    <mergeCell ref="J2:J6"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="J9:J23"/>
+    <mergeCell ref="H9:H23"/>
     <mergeCell ref="C38:C39"/>
     <mergeCell ref="C2:C6"/>
     <mergeCell ref="A37:J37"/>
@@ -33396,27 +33407,13 @@
     <mergeCell ref="A25:A36"/>
     <mergeCell ref="D9:D23"/>
     <mergeCell ref="D25:D30"/>
-    <mergeCell ref="D31:D36"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="B2:B7"/>
-    <mergeCell ref="E2:E6"/>
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="D2:D6"/>
-    <mergeCell ref="C9:C23"/>
-    <mergeCell ref="C25:C30"/>
-    <mergeCell ref="C31:C36"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="I12:I23"/>
-    <mergeCell ref="J2:J6"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="J9:J23"/>
-    <mergeCell ref="H9:H23"/>
-    <mergeCell ref="H25:H36"/>
-    <mergeCell ref="I25:I36"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I41:I43"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E41:E43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="A40:J40"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A41:A43"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -33429,8 +33426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C3541BE-6A46-4E91-A503-420E296DF7DD}">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43:I55"/>
+    <sheetView topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18"/>
@@ -33474,26 +33471,26 @@
         <v>29</v>
       </c>
       <c r="I1" s="39" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J1" s="39" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="54">
-      <c r="A2" s="98">
+      <c r="A2" s="90">
         <v>1</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="90" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="92" t="s">
+      <c r="E2" s="93" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="42" t="s">
@@ -33509,11 +33506,11 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="36">
-      <c r="A3" s="93"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="92"/>
+      <c r="A3" s="98"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="93"/>
       <c r="F3" s="42" t="s">
         <v>54</v>
       </c>
@@ -33527,11 +33524,11 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="36">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="92"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="92"/>
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="93"/>
       <c r="F4" s="42" t="s">
         <v>55</v>
       </c>
@@ -33545,11 +33542,11 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="54">
-      <c r="A5" s="93"/>
-      <c r="B5" s="93"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="92"/>
+      <c r="A5" s="98"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="93"/>
       <c r="F5" s="42" t="s">
         <v>56</v>
       </c>
@@ -33563,11 +33560,11 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="93"/>
-      <c r="B6" s="93"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="92"/>
+      <c r="A6" s="98"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="93"/>
       <c r="F6" s="42" t="s">
         <v>25</v>
       </c>
@@ -33581,11 +33578,11 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="54">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="92"/>
+      <c r="A7" s="98"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="94"/>
-      <c r="E7" s="92"/>
+      <c r="E7" s="93"/>
       <c r="F7" s="42" t="s">
         <v>57</v>
       </c>
@@ -33599,12 +33596,12 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="98" t="s">
+      <c r="A8" s="98"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="98" t="s">
+      <c r="D8" s="90" t="s">
         <v>100</v>
       </c>
       <c r="E8" s="73"/>
@@ -33622,9 +33619,9 @@
     </row>
     <row r="9" spans="1:10" ht="54">
       <c r="A9" s="94"/>
-      <c r="B9" s="93"/>
+      <c r="B9" s="98"/>
       <c r="C9" s="94"/>
-      <c r="D9" s="93"/>
+      <c r="D9" s="98"/>
       <c r="E9" s="50" t="s">
         <v>77</v>
       </c>
@@ -33653,19 +33650,19 @@
       <c r="J10" s="97"/>
     </row>
     <row r="11" spans="1:10" ht="36">
-      <c r="A11" s="98">
+      <c r="A11" s="90">
         <v>2</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="98" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="98" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="42" t="s">
@@ -33681,11 +33678,11 @@
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
       <c r="F12" s="42" t="s">
         <v>75</v>
       </c>
@@ -33699,11 +33696,11 @@
       </c>
     </row>
     <row r="13" spans="1:10" ht="36">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
-      <c r="D13" s="93"/>
-      <c r="E13" s="93"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
       <c r="F13" s="42" t="s">
         <v>83</v>
       </c>
@@ -33717,11 +33714,11 @@
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="93"/>
-      <c r="D14" s="93"/>
-      <c r="E14" s="93"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
       <c r="F14" s="42" t="s">
         <v>193</v>
       </c>
@@ -33735,11 +33732,11 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="93"/>
-      <c r="B15" s="93"/>
-      <c r="C15" s="93"/>
-      <c r="D15" s="93"/>
-      <c r="E15" s="93"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
       <c r="F15" s="42" t="s">
         <v>80</v>
       </c>
@@ -33753,11 +33750,11 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="93"/>
-      <c r="B16" s="93"/>
-      <c r="C16" s="93"/>
-      <c r="D16" s="93"/>
-      <c r="E16" s="93"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
       <c r="F16" s="42" t="s">
         <v>84</v>
       </c>
@@ -33771,11 +33768,11 @@
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="93"/>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
-      <c r="D17" s="93"/>
-      <c r="E17" s="93"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="42" t="s">
         <v>81</v>
       </c>
@@ -33789,11 +33786,11 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="36">
-      <c r="A18" s="93"/>
-      <c r="B18" s="93"/>
-      <c r="C18" s="93"/>
-      <c r="D18" s="93"/>
-      <c r="E18" s="93"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
       <c r="F18" s="42" t="s">
         <v>85</v>
       </c>
@@ -33807,11 +33804,11 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="36">
-      <c r="A19" s="93"/>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
-      <c r="D19" s="93"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
       <c r="F19" s="42" t="s">
         <v>86</v>
       </c>
@@ -33825,11 +33822,11 @@
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="93"/>
-      <c r="B20" s="93"/>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
       <c r="F20" s="42" t="s">
         <v>87</v>
       </c>
@@ -33843,13 +33840,13 @@
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="93"/>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="93"/>
-      <c r="E21" s="93"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
       <c r="F21" s="42" t="s">
-        <v>195</v>
+        <v>25</v>
       </c>
       <c r="G21" s="43" t="s">
         <v>90</v>
@@ -33859,11 +33856,11 @@
       <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="36">
-      <c r="A22" s="93"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
       <c r="F22" s="42" t="s">
         <v>88</v>
       </c>
@@ -33878,10 +33875,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="94"/>
-      <c r="B23" s="93"/>
-      <c r="C23" s="93"/>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
       <c r="F23" s="42" t="s">
         <v>89</v>
       </c>
@@ -33907,19 +33904,19 @@
       <c r="J24" s="101"/>
     </row>
     <row r="25" spans="1:10" ht="18" customHeight="1">
-      <c r="A25" s="98">
+      <c r="A25" s="90">
         <v>3</v>
       </c>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="90" t="s">
         <v>180</v>
       </c>
-      <c r="C25" s="92" t="s">
+      <c r="C25" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="93" t="s">
+      <c r="D25" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="E25" s="92" t="s">
+      <c r="E25" s="93" t="s">
         <v>66</v>
       </c>
       <c r="F25" s="44" t="s">
@@ -33935,11 +33932,11 @@
       </c>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="93"/>
-      <c r="B26" s="93"/>
-      <c r="C26" s="92"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="92"/>
+      <c r="A26" s="98"/>
+      <c r="B26" s="98"/>
+      <c r="C26" s="93"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="93"/>
       <c r="F26" s="42" t="s">
         <v>68</v>
       </c>
@@ -33953,11 +33950,11 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="36">
-      <c r="A27" s="93"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="93"/>
-      <c r="E27" s="92"/>
+      <c r="A27" s="98"/>
+      <c r="B27" s="98"/>
+      <c r="C27" s="93"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="93"/>
       <c r="F27" s="42" t="s">
         <v>69</v>
       </c>
@@ -33971,11 +33968,11 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="36">
-      <c r="A28" s="93"/>
-      <c r="B28" s="93"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="92"/>
+      <c r="A28" s="98"/>
+      <c r="B28" s="98"/>
+      <c r="C28" s="93"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="93"/>
       <c r="F28" s="42" t="s">
         <v>70</v>
       </c>
@@ -33989,11 +33986,11 @@
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="93"/>
-      <c r="B29" s="93"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="93"/>
-      <c r="E29" s="92"/>
+      <c r="A29" s="98"/>
+      <c r="B29" s="98"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="93"/>
       <c r="F29" s="42" t="s">
         <v>71</v>
       </c>
@@ -34007,11 +34004,11 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="93"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="93"/>
-      <c r="E30" s="92"/>
+      <c r="A30" s="98"/>
+      <c r="B30" s="98"/>
+      <c r="C30" s="93"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="93"/>
       <c r="F30" s="42" t="s">
         <v>73</v>
       </c>
@@ -34025,11 +34022,11 @@
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="93"/>
-      <c r="B31" s="93"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="93"/>
-      <c r="E31" s="92"/>
+      <c r="A31" s="98"/>
+      <c r="B31" s="98"/>
+      <c r="C31" s="93"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="93"/>
       <c r="F31" s="42" t="s">
         <v>72</v>
       </c>
@@ -34043,11 +34040,11 @@
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="93"/>
-      <c r="B32" s="93"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="92"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="98"/>
+      <c r="C32" s="93"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="93"/>
       <c r="F32" s="42" t="s">
         <v>91</v>
       </c>
@@ -34063,11 +34060,11 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="36">
-      <c r="A33" s="93"/>
-      <c r="B33" s="93"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="92"/>
+      <c r="A33" s="98"/>
+      <c r="B33" s="98"/>
+      <c r="C33" s="93"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="93"/>
       <c r="F33" s="42" t="s">
         <v>74</v>
       </c>
@@ -34081,11 +34078,11 @@
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="93"/>
-      <c r="B34" s="93"/>
-      <c r="C34" s="92"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="92"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="98"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="93"/>
       <c r="F34" s="42" t="s">
         <v>75</v>
       </c>
@@ -34099,11 +34096,11 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="93"/>
-      <c r="B35" s="93"/>
-      <c r="C35" s="92"/>
+      <c r="A35" s="98"/>
+      <c r="B35" s="98"/>
+      <c r="C35" s="93"/>
       <c r="D35" s="94"/>
-      <c r="E35" s="92"/>
+      <c r="E35" s="93"/>
       <c r="F35" s="42" t="s">
         <v>76</v>
       </c>
@@ -34117,8 +34114,8 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="93"/>
-      <c r="B36" s="93"/>
+      <c r="A36" s="98"/>
+      <c r="B36" s="98"/>
       <c r="C36" s="71" t="s">
         <v>181</v>
       </c>
@@ -34155,19 +34152,19 @@
       <c r="J37" s="101"/>
     </row>
     <row r="38" spans="1:10" ht="36">
-      <c r="A38" s="92">
+      <c r="A38" s="93">
         <v>4</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="98" t="s">
+      <c r="C38" s="90" t="s">
         <v>190</v>
       </c>
-      <c r="D38" s="92" t="s">
+      <c r="D38" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="E38" s="92" t="s">
+      <c r="E38" s="93" t="s">
         <v>92</v>
       </c>
       <c r="F38" s="42" t="s">
@@ -34185,11 +34182,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" ht="105" customHeight="1">
-      <c r="A39" s="92"/>
-      <c r="B39" s="92"/>
+      <c r="A39" s="93"/>
+      <c r="B39" s="93"/>
       <c r="C39" s="94"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
+      <c r="D39" s="93"/>
+      <c r="E39" s="93"/>
       <c r="F39" s="42" t="s">
         <v>91</v>
       </c>
@@ -34257,19 +34254,19 @@
       <c r="J42" s="101"/>
     </row>
     <row r="43" spans="1:10" ht="18" customHeight="1">
-      <c r="A43" s="98">
+      <c r="A43" s="90">
         <v>6</v>
       </c>
-      <c r="B43" s="98" t="s">
+      <c r="B43" s="90" t="s">
         <v>175</v>
       </c>
-      <c r="C43" s="98" t="s">
+      <c r="C43" s="90" t="s">
         <v>186</v>
       </c>
-      <c r="D43" s="98" t="s">
+      <c r="D43" s="90" t="s">
         <v>176</v>
       </c>
-      <c r="E43" s="98" t="s">
+      <c r="E43" s="90" t="s">
         <v>177</v>
       </c>
       <c r="F43" s="42" t="s">
@@ -34278,217 +34275,217 @@
       <c r="G43" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H43" s="87" t="s">
+      <c r="H43" s="102" t="s">
+        <v>199</v>
+      </c>
+      <c r="I43" s="102" t="s">
         <v>200</v>
-      </c>
-      <c r="I43" s="87" t="s">
-        <v>201</v>
       </c>
       <c r="J43" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="36" customHeight="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
+      <c r="A44" s="98"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
+      <c r="E44" s="98"/>
       <c r="F44" s="42" t="s">
         <v>51</v>
       </c>
       <c r="G44" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H44" s="88"/>
-      <c r="I44" s="88"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="91"/>
       <c r="J44" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="36" customHeight="1">
-      <c r="A45" s="93"/>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
+      <c r="A45" s="98"/>
+      <c r="B45" s="98"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
+      <c r="E45" s="98"/>
       <c r="F45" s="42" t="s">
         <v>179</v>
       </c>
       <c r="G45" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H45" s="88"/>
-      <c r="I45" s="88"/>
+      <c r="H45" s="91"/>
+      <c r="I45" s="91"/>
       <c r="J45" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="36" customHeight="1">
-      <c r="A46" s="93"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
+      <c r="E46" s="98"/>
       <c r="F46" s="44" t="s">
         <v>67</v>
       </c>
       <c r="G46" s="43" t="s">
         <v>130</v>
       </c>
-      <c r="H46" s="88"/>
-      <c r="I46" s="88"/>
+      <c r="H46" s="91"/>
+      <c r="I46" s="91"/>
       <c r="J46" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="36" customHeight="1">
-      <c r="A47" s="93"/>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
+      <c r="A47" s="98"/>
+      <c r="B47" s="98"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
+      <c r="E47" s="98"/>
       <c r="F47" s="42" t="s">
         <v>68</v>
       </c>
       <c r="G47" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H47" s="88"/>
-      <c r="I47" s="88"/>
+      <c r="H47" s="91"/>
+      <c r="I47" s="91"/>
       <c r="J47" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="36">
-      <c r="A48" s="93"/>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
+      <c r="A48" s="98"/>
+      <c r="B48" s="98"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="98"/>
       <c r="F48" s="42" t="s">
         <v>69</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H48" s="88"/>
-      <c r="I48" s="88"/>
+      <c r="H48" s="91"/>
+      <c r="I48" s="91"/>
       <c r="J48" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="36">
-      <c r="A49" s="93"/>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
+      <c r="A49" s="98"/>
+      <c r="B49" s="98"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="98"/>
       <c r="F49" s="42" t="s">
         <v>70</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
+      <c r="H49" s="91"/>
+      <c r="I49" s="91"/>
       <c r="J49" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="36" customHeight="1">
-      <c r="A50" s="93"/>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
+      <c r="A50" s="98"/>
+      <c r="B50" s="98"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="98"/>
       <c r="F50" s="42" t="s">
         <v>71</v>
       </c>
       <c r="G50" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H50" s="88"/>
-      <c r="I50" s="88"/>
+      <c r="H50" s="91"/>
+      <c r="I50" s="91"/>
       <c r="J50" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="36" customHeight="1">
-      <c r="A51" s="93"/>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
+      <c r="A51" s="98"/>
+      <c r="B51" s="98"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="98"/>
       <c r="F51" s="42" t="s">
         <v>73</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H51" s="88"/>
-      <c r="I51" s="88"/>
+      <c r="H51" s="91"/>
+      <c r="I51" s="91"/>
       <c r="J51" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="36" customHeight="1">
-      <c r="A52" s="93"/>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
+      <c r="A52" s="98"/>
+      <c r="B52" s="98"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="98"/>
       <c r="F52" s="42" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H52" s="88"/>
-      <c r="I52" s="88"/>
+      <c r="H52" s="91"/>
+      <c r="I52" s="91"/>
       <c r="J52" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="36">
-      <c r="A53" s="93"/>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
+      <c r="A53" s="98"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
       <c r="F53" s="42" t="s">
         <v>74</v>
       </c>
       <c r="G53" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H53" s="88"/>
-      <c r="I53" s="88"/>
+      <c r="H53" s="91"/>
+      <c r="I53" s="91"/>
       <c r="J53" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="36" customHeight="1">
-      <c r="A54" s="93"/>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
+      <c r="A54" s="98"/>
+      <c r="B54" s="98"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="98"/>
       <c r="F54" s="42" t="s">
         <v>75</v>
       </c>
       <c r="G54" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H54" s="88"/>
-      <c r="I54" s="88"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="91"/>
       <c r="J54" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="36" customHeight="1">
-      <c r="A55" s="93"/>
-      <c r="B55" s="93"/>
+      <c r="A55" s="98"/>
+      <c r="B55" s="98"/>
       <c r="C55" s="94"/>
       <c r="D55" s="94"/>
       <c r="E55" s="94"/>
@@ -34498,22 +34495,22 @@
       <c r="G55" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="H55" s="89"/>
-      <c r="I55" s="89"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="92"/>
       <c r="J55" s="43" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="93"/>
-      <c r="B56" s="93"/>
-      <c r="C56" s="98" t="s">
+      <c r="A56" s="98"/>
+      <c r="B56" s="98"/>
+      <c r="C56" s="90" t="s">
         <v>189</v>
       </c>
-      <c r="D56" s="98" t="s">
+      <c r="D56" s="90" t="s">
         <v>187</v>
       </c>
-      <c r="E56" s="98" t="s">
+      <c r="E56" s="90" t="s">
         <v>188</v>
       </c>
       <c r="F56" s="42" t="s">
@@ -34529,11 +34526,11 @@
       </c>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="93"/>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
+      <c r="A57" s="98"/>
+      <c r="B57" s="98"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="98"/>
+      <c r="E57" s="98"/>
       <c r="F57" s="42" t="s">
         <v>194</v>
       </c>
@@ -34566,16 +34563,13 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="H43:H55"/>
-    <mergeCell ref="I43:I55"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="E56:E58"/>
-    <mergeCell ref="B43:B58"/>
-    <mergeCell ref="A43:A58"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A24:J24"/>
+    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A25:A36"/>
+    <mergeCell ref="B25:B36"/>
+    <mergeCell ref="E25:E35"/>
+    <mergeCell ref="D25:D35"/>
+    <mergeCell ref="C25:C35"/>
     <mergeCell ref="E38:E39"/>
     <mergeCell ref="A40:J40"/>
     <mergeCell ref="C38:C39"/>
@@ -34587,22 +34581,25 @@
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="A42:J42"/>
-    <mergeCell ref="C43:C55"/>
-    <mergeCell ref="D43:D55"/>
-    <mergeCell ref="E43:E55"/>
     <mergeCell ref="A11:A23"/>
     <mergeCell ref="B11:B23"/>
     <mergeCell ref="D11:D23"/>
     <mergeCell ref="E11:E23"/>
     <mergeCell ref="C11:C23"/>
-    <mergeCell ref="A24:J24"/>
-    <mergeCell ref="A37:J37"/>
-    <mergeCell ref="A25:A36"/>
-    <mergeCell ref="B25:B36"/>
-    <mergeCell ref="E25:E35"/>
-    <mergeCell ref="D25:D35"/>
-    <mergeCell ref="C25:C35"/>
+    <mergeCell ref="A43:A58"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="A42:J42"/>
+    <mergeCell ref="C43:C55"/>
+    <mergeCell ref="D43:D55"/>
+    <mergeCell ref="E43:E55"/>
+    <mergeCell ref="H43:H55"/>
+    <mergeCell ref="I43:I55"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="E56:E58"/>
+    <mergeCell ref="B43:B58"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
